--- a/Teams/downloads/site-enablement-playbook-for-voice-(playbook).xlsx
+++ b/Teams/downloads/site-enablement-playbook-for-voice-(playbook).xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19026"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft.sharepoint.com/teams/customerexperienceanddeploymentcxd/Shared Documents/Teams Voice Guidance/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="E509ACA0223C2239262733F0ABE526219CAB3A3C" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{5C88B946-292E-40CD-B13D-17F7589E7D30}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19120"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0DEC13-93DF-4779-B909-82664FBFA025}" xr6:coauthVersionLast="30" xr6:coauthVersionMax="30" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12792" tabRatio="692" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" tabRatio="692" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
@@ -200,10 +195,16 @@
     <definedName name="TeamInput">#REF!</definedName>
     <definedName name="Teams">'[2]Team Input'!$C$5:$C$54</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3307,38 +3308,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3376,65 +3413,38 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3448,20 +3458,32 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3478,18 +3500,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3552,15 +3562,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6232,15 +6233,15 @@
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="23:23" x14ac:dyDescent="0.35">
       <c r="W12"/>
     </row>
-    <row r="20" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:17" x14ac:dyDescent="0.35">
       <c r="Q20"/>
     </row>
   </sheetData>
@@ -6256,27 +6257,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="101" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="100" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="98" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="99" t="s">
         <v>40</v>
       </c>
@@ -6295,7 +6296,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="298"/>
     <col min="2" max="2" width="61" style="298" customWidth="1"/>
@@ -6303,7 +6304,7 @@
     <col min="4" max="16384" width="9" style="298"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="308" t="s">
         <v>116</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="299" t="s">
         <v>139</v>
       </c>
@@ -6325,28 +6326,28 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="301"/>
       <c r="B3" s="302"/>
       <c r="C3" s="300"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="303"/>
       <c r="B4" s="304"/>
       <c r="C4" s="305"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="303"/>
       <c r="B5" s="306"/>
       <c r="C5" s="305"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="307"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="307"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="307"/>
     </row>
   </sheetData>
@@ -6367,120 +6368,120 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="17" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="17" customWidth="1"/>
-    <col min="3" max="12" width="18.5546875" style="17" customWidth="1"/>
-    <col min="13" max="13" width="25.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="18.5546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" style="17" customWidth="1"/>
+    <col min="3" max="12" width="18.54296875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="25.90625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="18.54296875" style="17" customWidth="1"/>
     <col min="20" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:19" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="114" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="358" t="s">
+      <c r="D2" s="370" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="358"/>
-    </row>
-    <row r="3" spans="2:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="370"/>
+    </row>
+    <row r="3" spans="2:19" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="113" t="s">
         <v>114</v>
       </c>
       <c r="C3" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="359">
+      <c r="D3" s="371">
         <v>43179</v>
       </c>
-      <c r="E3" s="359"/>
-    </row>
-    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="363" t="str">
+      <c r="E3" s="371"/>
+    </row>
+    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:19" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="375" t="str">
         <f>"Site rollout schedule for site: " &amp; B3 &amp; " - " &amp; C3</f>
         <v>Site rollout schedule for site: {SiteName} - {SiteCode}</v>
       </c>
-      <c r="C5" s="364"/>
-      <c r="D5" s="364"/>
-      <c r="E5" s="364"/>
-      <c r="F5" s="364"/>
-      <c r="G5" s="364"/>
-      <c r="H5" s="364"/>
-      <c r="I5" s="364"/>
-      <c r="J5" s="364"/>
-      <c r="K5" s="364"/>
-      <c r="L5" s="364"/>
-      <c r="M5" s="364"/>
-      <c r="N5" s="364"/>
-      <c r="O5" s="364"/>
-      <c r="P5" s="364"/>
-      <c r="Q5" s="364"/>
-      <c r="R5" s="364"/>
-      <c r="S5" s="365"/>
-    </row>
-    <row r="6" spans="2:19" s="19" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="367" t="s">
+      <c r="C5" s="376"/>
+      <c r="D5" s="376"/>
+      <c r="E5" s="376"/>
+      <c r="F5" s="376"/>
+      <c r="G5" s="376"/>
+      <c r="H5" s="376"/>
+      <c r="I5" s="376"/>
+      <c r="J5" s="376"/>
+      <c r="K5" s="376"/>
+      <c r="L5" s="376"/>
+      <c r="M5" s="376"/>
+      <c r="N5" s="376"/>
+      <c r="O5" s="376"/>
+      <c r="P5" s="376"/>
+      <c r="Q5" s="376"/>
+      <c r="R5" s="376"/>
+      <c r="S5" s="377"/>
+    </row>
+    <row r="6" spans="2:19" s="19" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="379" t="s">
         <v>328</v>
       </c>
-      <c r="C6" s="367"/>
-      <c r="D6" s="367"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="367"/>
-      <c r="G6" s="367"/>
-      <c r="H6" s="367"/>
-      <c r="I6" s="367"/>
-      <c r="J6" s="367"/>
-      <c r="K6" s="367"/>
-      <c r="L6" s="367"/>
+      <c r="C6" s="379"/>
+      <c r="D6" s="379"/>
+      <c r="E6" s="379"/>
+      <c r="F6" s="379"/>
+      <c r="G6" s="379"/>
+      <c r="H6" s="379"/>
+      <c r="I6" s="379"/>
+      <c r="J6" s="379"/>
+      <c r="K6" s="379"/>
+      <c r="L6" s="379"/>
       <c r="M6" s="316" t="s">
         <v>329</v>
       </c>
-      <c r="N6" s="366" t="s">
+      <c r="N6" s="378" t="s">
         <v>330</v>
       </c>
-      <c r="O6" s="366"/>
-      <c r="P6" s="366"/>
-      <c r="Q6" s="366"/>
-      <c r="R6" s="366"/>
-      <c r="S6" s="366"/>
-    </row>
-    <row r="7" spans="2:19" s="6" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O6" s="378"/>
+      <c r="P6" s="378"/>
+      <c r="Q6" s="378"/>
+      <c r="R6" s="378"/>
+      <c r="S6" s="378"/>
+    </row>
+    <row r="7" spans="2:19" s="6" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="317" t="s">
         <v>331</v>
       </c>
-      <c r="C7" s="360" t="s">
+      <c r="C7" s="372" t="s">
         <v>332</v>
       </c>
-      <c r="D7" s="361"/>
-      <c r="E7" s="361"/>
-      <c r="F7" s="361"/>
-      <c r="G7" s="361"/>
-      <c r="H7" s="361"/>
-      <c r="I7" s="361"/>
-      <c r="J7" s="361"/>
-      <c r="K7" s="361"/>
-      <c r="L7" s="362"/>
-      <c r="M7" s="368" t="s">
+      <c r="D7" s="373"/>
+      <c r="E7" s="373"/>
+      <c r="F7" s="373"/>
+      <c r="G7" s="373"/>
+      <c r="H7" s="373"/>
+      <c r="I7" s="373"/>
+      <c r="J7" s="373"/>
+      <c r="K7" s="373"/>
+      <c r="L7" s="374"/>
+      <c r="M7" s="380" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="360" t="s">
+      <c r="N7" s="372" t="s">
         <v>333</v>
       </c>
-      <c r="O7" s="361"/>
-      <c r="P7" s="361"/>
-      <c r="Q7" s="361"/>
-      <c r="R7" s="361"/>
-      <c r="S7" s="362"/>
-    </row>
-    <row r="8" spans="2:19" s="18" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O7" s="373"/>
+      <c r="P7" s="373"/>
+      <c r="Q7" s="373"/>
+      <c r="R7" s="373"/>
+      <c r="S7" s="374"/>
+    </row>
+    <row r="8" spans="2:19" s="18" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="317" t="s">
         <v>31</v>
       </c>
@@ -6514,7 +6515,7 @@
       <c r="L8" s="309" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="369"/>
+      <c r="M8" s="381"/>
       <c r="N8" s="309" t="s">
         <v>32</v>
       </c>
@@ -6534,7 +6535,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:19" s="18" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" s="18" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="317" t="s">
         <v>101</v>
       </c>
@@ -6607,7 +6608,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="10" spans="2:19" s="61" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" s="61" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="318" t="s">
         <v>334</v>
       </c>
@@ -6680,8 +6681,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:19" s="61" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="347" t="s">
+    <row r="11" spans="2:19" s="61" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="382" t="s">
         <v>199</v>
       </c>
       <c r="C11" s="94" t="s">
@@ -6690,10 +6691,10 @@
       <c r="D11" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="E11" s="349" t="s">
+      <c r="E11" s="384" t="s">
         <v>337</v>
       </c>
-      <c r="F11" s="351"/>
+      <c r="F11" s="386"/>
       <c r="G11" s="95"/>
       <c r="H11" s="95"/>
       <c r="I11" s="95"/>
@@ -6708,12 +6709,12 @@
       <c r="R11" s="95"/>
       <c r="S11" s="95"/>
     </row>
-    <row r="12" spans="2:19" s="61" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="348"/>
-      <c r="C12" s="349" t="s">
+    <row r="12" spans="2:19" s="61" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="383"/>
+      <c r="C12" s="384" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="350"/>
+      <c r="D12" s="385"/>
       <c r="E12" s="96"/>
       <c r="F12" s="97" t="s">
         <v>338</v>
@@ -6732,8 +6733,8 @@
       <c r="R12" s="289"/>
       <c r="S12" s="289"/>
     </row>
-    <row r="13" spans="2:19" s="9" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="352" t="s">
+    <row r="13" spans="2:19" s="9" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="387" t="s">
         <v>200</v>
       </c>
       <c r="C13" s="130"/>
@@ -6766,8 +6767,8 @@
       <c r="R13" s="131"/>
       <c r="S13" s="131"/>
     </row>
-    <row r="14" spans="2:19" s="9" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="353"/>
+    <row r="14" spans="2:19" s="9" customFormat="1" ht="91.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="388"/>
       <c r="C14" s="132"/>
       <c r="D14" s="132"/>
       <c r="E14" s="122" t="s">
@@ -6794,8 +6795,8 @@
       <c r="R14" s="131"/>
       <c r="S14" s="131"/>
     </row>
-    <row r="15" spans="2:19" s="9" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="353"/>
+    <row r="15" spans="2:19" s="9" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="388"/>
       <c r="C15" s="132"/>
       <c r="D15" s="132"/>
       <c r="E15" s="131"/>
@@ -6820,8 +6821,8 @@
       <c r="R15" s="131"/>
       <c r="S15" s="131"/>
     </row>
-    <row r="16" spans="2:19" s="9" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="354"/>
+    <row r="16" spans="2:19" s="9" customFormat="1" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="389"/>
       <c r="C16" s="132"/>
       <c r="D16" s="132"/>
       <c r="E16" s="133"/>
@@ -6844,8 +6845,8 @@
       <c r="R16" s="131"/>
       <c r="S16" s="131"/>
     </row>
-    <row r="17" spans="2:19" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="355" t="s">
+    <row r="17" spans="2:19" ht="89.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="390" t="s">
         <v>122</v>
       </c>
       <c r="C17" s="123"/>
@@ -6874,8 +6875,8 @@
       <c r="R17" s="134"/>
       <c r="S17" s="134"/>
     </row>
-    <row r="18" spans="2:19" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="356"/>
+    <row r="18" spans="2:19" ht="39" x14ac:dyDescent="0.35">
+      <c r="B18" s="391"/>
       <c r="C18" s="135"/>
       <c r="D18" s="135"/>
       <c r="E18" s="127" t="s">
@@ -6900,8 +6901,8 @@
       <c r="R18" s="136"/>
       <c r="S18" s="136"/>
     </row>
-    <row r="19" spans="2:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="356"/>
+    <row r="19" spans="2:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="391"/>
       <c r="C19" s="135"/>
       <c r="D19" s="135"/>
       <c r="E19" s="136"/>
@@ -6922,8 +6923,8 @@
       <c r="R19" s="136"/>
       <c r="S19" s="136"/>
     </row>
-    <row r="20" spans="2:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="356"/>
+    <row r="20" spans="2:19" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="391"/>
       <c r="C20" s="135"/>
       <c r="D20" s="135"/>
       <c r="E20" s="136"/>
@@ -6944,8 +6945,8 @@
       <c r="R20" s="136"/>
       <c r="S20" s="136"/>
     </row>
-    <row r="21" spans="2:19" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="356"/>
+    <row r="21" spans="2:19" ht="52.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="391"/>
       <c r="C21" s="135"/>
       <c r="D21" s="135"/>
       <c r="E21" s="136"/>
@@ -6966,8 +6967,8 @@
       <c r="R21" s="136"/>
       <c r="S21" s="136"/>
     </row>
-    <row r="22" spans="2:19" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="357"/>
+    <row r="22" spans="2:19" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="392"/>
       <c r="C22" s="135"/>
       <c r="D22" s="135"/>
       <c r="E22" s="136"/>
@@ -6988,8 +6989,8 @@
       <c r="R22" s="136"/>
       <c r="S22" s="136"/>
     </row>
-    <row r="23" spans="2:19" ht="95.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="373" t="s">
+    <row r="23" spans="2:19" ht="95.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="353" t="s">
         <v>123</v>
       </c>
       <c r="C23" s="138"/>
@@ -7012,43 +7013,43 @@
       <c r="J23" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="K23" s="370" t="s">
+      <c r="K23" s="350" t="s">
         <v>351</v>
       </c>
-      <c r="L23" s="372"/>
-      <c r="M23" s="370"/>
-      <c r="N23" s="371"/>
-      <c r="O23" s="371"/>
-      <c r="P23" s="371"/>
-      <c r="Q23" s="371"/>
-      <c r="R23" s="371"/>
-      <c r="S23" s="372"/>
-    </row>
-    <row r="24" spans="2:19" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="374"/>
+      <c r="L23" s="352"/>
+      <c r="M23" s="350"/>
+      <c r="N23" s="351"/>
+      <c r="O23" s="351"/>
+      <c r="P23" s="351"/>
+      <c r="Q23" s="351"/>
+      <c r="R23" s="351"/>
+      <c r="S23" s="352"/>
+    </row>
+    <row r="24" spans="2:19" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="354"/>
       <c r="C24" s="140"/>
       <c r="D24" s="139"/>
-      <c r="E24" s="370" t="s">
+      <c r="E24" s="350" t="s">
         <v>354</v>
       </c>
-      <c r="F24" s="371"/>
-      <c r="G24" s="371"/>
-      <c r="H24" s="372"/>
-      <c r="I24" s="370" t="s">
+      <c r="F24" s="351"/>
+      <c r="G24" s="351"/>
+      <c r="H24" s="352"/>
+      <c r="I24" s="350" t="s">
         <v>294</v>
       </c>
-      <c r="J24" s="371"/>
-      <c r="K24" s="372"/>
+      <c r="J24" s="351"/>
+      <c r="K24" s="352"/>
       <c r="L24" s="290"/>
-      <c r="M24" s="370"/>
-      <c r="N24" s="371"/>
-      <c r="O24" s="371"/>
-      <c r="P24" s="371"/>
-      <c r="Q24" s="371"/>
-      <c r="R24" s="371"/>
-      <c r="S24" s="372"/>
-    </row>
-    <row r="25" spans="2:19" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M24" s="350"/>
+      <c r="N24" s="351"/>
+      <c r="O24" s="351"/>
+      <c r="P24" s="351"/>
+      <c r="Q24" s="351"/>
+      <c r="R24" s="351"/>
+      <c r="S24" s="352"/>
+    </row>
+    <row r="25" spans="2:19" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="319" t="s">
         <v>201</v>
       </c>
@@ -7058,23 +7059,23 @@
       </c>
       <c r="E25" s="141"/>
       <c r="F25" s="141"/>
-      <c r="G25" s="380" t="s">
+      <c r="G25" s="360" t="s">
         <v>228</v>
       </c>
-      <c r="H25" s="381"/>
-      <c r="I25" s="381"/>
-      <c r="J25" s="381"/>
-      <c r="K25" s="381"/>
-      <c r="L25" s="381"/>
-      <c r="M25" s="381"/>
-      <c r="N25" s="381"/>
-      <c r="O25" s="381"/>
-      <c r="P25" s="381"/>
-      <c r="Q25" s="381"/>
-      <c r="R25" s="381"/>
-      <c r="S25" s="382"/>
-    </row>
-    <row r="26" spans="2:19" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="361"/>
+      <c r="I25" s="361"/>
+      <c r="J25" s="361"/>
+      <c r="K25" s="361"/>
+      <c r="L25" s="361"/>
+      <c r="M25" s="361"/>
+      <c r="N25" s="361"/>
+      <c r="O25" s="361"/>
+      <c r="P25" s="361"/>
+      <c r="Q25" s="361"/>
+      <c r="R25" s="361"/>
+      <c r="S25" s="362"/>
+    </row>
+    <row r="26" spans="2:19" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="320"/>
       <c r="C26" s="142"/>
       <c r="D26" s="144"/>
@@ -7087,17 +7088,17 @@
       <c r="K26" s="294"/>
       <c r="L26" s="141"/>
       <c r="M26" s="141"/>
-      <c r="N26" s="386" t="s">
+      <c r="N26" s="366" t="s">
         <v>225</v>
       </c>
-      <c r="O26" s="387"/>
-      <c r="P26" s="387"/>
-      <c r="Q26" s="387"/>
-      <c r="R26" s="387"/>
-      <c r="S26" s="388"/>
-    </row>
-    <row r="27" spans="2:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="377" t="s">
+      <c r="O26" s="367"/>
+      <c r="P26" s="367"/>
+      <c r="Q26" s="367"/>
+      <c r="R26" s="367"/>
+      <c r="S26" s="368"/>
+    </row>
+    <row r="27" spans="2:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="357" t="s">
         <v>202</v>
       </c>
       <c r="C27" s="146"/>
@@ -7119,21 +7120,21 @@
       <c r="K27" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="L27" s="375" t="s">
+      <c r="L27" s="355" t="s">
         <v>233</v>
       </c>
-      <c r="M27" s="376"/>
-      <c r="N27" s="383"/>
-      <c r="O27" s="375" t="s">
+      <c r="M27" s="356"/>
+      <c r="N27" s="363"/>
+      <c r="O27" s="355" t="s">
         <v>235</v>
       </c>
-      <c r="P27" s="376"/>
-      <c r="Q27" s="376"/>
-      <c r="R27" s="376"/>
-      <c r="S27" s="383"/>
-    </row>
-    <row r="28" spans="2:19" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="378"/>
+      <c r="P27" s="356"/>
+      <c r="Q27" s="356"/>
+      <c r="R27" s="356"/>
+      <c r="S27" s="363"/>
+    </row>
+    <row r="28" spans="2:19" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="358"/>
       <c r="C28" s="147"/>
       <c r="D28" s="147"/>
       <c r="E28" s="106"/>
@@ -7152,18 +7153,18 @@
         <v>362</v>
       </c>
       <c r="L28" s="104"/>
-      <c r="M28" s="375" t="s">
+      <c r="M28" s="355" t="s">
         <v>327</v>
       </c>
-      <c r="N28" s="376"/>
-      <c r="O28" s="389"/>
+      <c r="N28" s="356"/>
+      <c r="O28" s="369"/>
       <c r="P28" s="107"/>
       <c r="Q28" s="107"/>
       <c r="R28" s="107"/>
       <c r="S28" s="107"/>
     </row>
-    <row r="29" spans="2:19" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="378"/>
+    <row r="29" spans="2:19" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="358"/>
       <c r="C29" s="147"/>
       <c r="D29" s="147"/>
       <c r="E29" s="111"/>
@@ -7176,18 +7177,18 @@
       </c>
       <c r="K29" s="109"/>
       <c r="L29" s="295"/>
-      <c r="M29" s="384" t="s">
+      <c r="M29" s="364" t="s">
         <v>363</v>
       </c>
-      <c r="N29" s="385"/>
+      <c r="N29" s="365"/>
       <c r="O29" s="107"/>
       <c r="P29" s="107"/>
       <c r="Q29" s="107"/>
       <c r="R29" s="107"/>
       <c r="S29" s="107"/>
     </row>
-    <row r="30" spans="2:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="378"/>
+    <row r="30" spans="2:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="358"/>
       <c r="C30" s="147"/>
       <c r="D30" s="147"/>
       <c r="E30" s="111"/>
@@ -7195,23 +7196,23 @@
       <c r="G30" s="296"/>
       <c r="H30" s="107"/>
       <c r="I30" s="107"/>
-      <c r="J30" s="375" t="s">
+      <c r="J30" s="355" t="s">
         <v>325</v>
       </c>
-      <c r="K30" s="376"/>
+      <c r="K30" s="356"/>
       <c r="L30" s="108"/>
       <c r="M30" s="105"/>
-      <c r="N30" s="375" t="s">
+      <c r="N30" s="355" t="s">
         <v>320</v>
       </c>
-      <c r="O30" s="376"/>
-      <c r="P30" s="376"/>
-      <c r="Q30" s="376"/>
-      <c r="R30" s="376"/>
-      <c r="S30" s="383"/>
-    </row>
-    <row r="31" spans="2:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="379"/>
+      <c r="O30" s="356"/>
+      <c r="P30" s="356"/>
+      <c r="Q30" s="356"/>
+      <c r="R30" s="356"/>
+      <c r="S30" s="363"/>
+    </row>
+    <row r="31" spans="2:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="359"/>
       <c r="C31" s="148"/>
       <c r="D31" s="148"/>
       <c r="E31" s="112"/>
@@ -7230,13 +7231,13 @@
       <c r="R31" s="103"/>
       <c r="S31" s="293"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -7245,6 +7246,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="M7:M8"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="J30:K30"/>
@@ -7260,19 +7274,6 @@
     <mergeCell ref="M23:S23"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="M24:S24"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B22"/>
   </mergeCells>
   <conditionalFormatting sqref="L21">
     <cfRule type="expression" dxfId="27" priority="84">
@@ -7533,36 +7534,36 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" style="42" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="79" customWidth="1"/>
+    <col min="1" max="1" width="1.90625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" style="79" customWidth="1"/>
     <col min="3" max="3" width="31" style="89" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="73" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" style="73" customWidth="1"/>
     <col min="5" max="5" width="31" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5546875" style="44" customWidth="1"/>
+    <col min="6" max="6" width="48.54296875" style="44" customWidth="1"/>
     <col min="7" max="7" width="51" style="44" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="42" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="42" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="84"/>
       <c r="C1" s="84"/>
       <c r="D1" s="85"/>
       <c r="E1" s="86"/>
       <c r="F1" s="87"/>
     </row>
-    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="391" t="s">
+    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="394" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="393"/>
-    </row>
-    <row r="3" spans="1:7" s="88" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="395"/>
+      <c r="D2" s="395"/>
+      <c r="E2" s="395"/>
+      <c r="F2" s="395"/>
+      <c r="G2" s="396"/>
+    </row>
+    <row r="3" spans="1:7" s="88" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="207" t="s">
         <v>10</v>
       </c>
@@ -7582,7 +7583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="213" t="s">
         <v>102</v>
       </c>
@@ -7597,7 +7598,7 @@
       <c r="F4" s="55"/>
       <c r="G4" s="328"/>
     </row>
-    <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="221" t="s">
         <v>103</v>
       </c>
@@ -7614,7 +7615,7 @@
       </c>
       <c r="G5" s="153"/>
     </row>
-    <row r="6" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="222" t="s">
         <v>105</v>
       </c>
@@ -7631,14 +7632,14 @@
       </c>
       <c r="G6" s="329"/>
     </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="223"/>
       <c r="C7" s="76"/>
       <c r="D7" s="72"/>
       <c r="E7" s="80"/>
       <c r="G7" s="46"/>
     </row>
-    <row r="8" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="224" t="s">
         <v>106</v>
       </c>
@@ -7653,7 +7654,7 @@
       <c r="F8" s="55"/>
       <c r="G8" s="328"/>
     </row>
-    <row r="9" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="221" t="s">
         <v>107</v>
       </c>
@@ -7672,7 +7673,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="225" t="s">
         <v>108</v>
       </c>
@@ -7689,7 +7690,7 @@
       </c>
       <c r="G10" s="331"/>
     </row>
-    <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="71"/>
       <c r="B11" s="222" t="s">
         <v>109</v>
@@ -7707,72 +7708,72 @@
       </c>
       <c r="G11" s="329"/>
     </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="226"/>
       <c r="D12" s="81"/>
       <c r="E12" s="80"/>
       <c r="G12" s="46"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C13" s="78"/>
       <c r="E13" s="80"/>
       <c r="G13" s="46"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C14" s="78"/>
       <c r="E14" s="80"/>
       <c r="G14" s="46"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="71"/>
       <c r="C15" s="78"/>
       <c r="E15" s="80"/>
       <c r="G15" s="46"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C16" s="78"/>
       <c r="E16" s="80"/>
       <c r="G16" s="46"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="71"/>
       <c r="C17" s="78"/>
       <c r="E17" s="80"/>
       <c r="G17" s="46"/>
     </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C18" s="78"/>
-      <c r="D18" s="390"/>
+      <c r="D18" s="393"/>
       <c r="E18" s="80"/>
       <c r="G18" s="46"/>
     </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C19" s="78"/>
-      <c r="D19" s="390"/>
+      <c r="D19" s="393"/>
       <c r="E19" s="80"/>
       <c r="G19" s="46"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C20" s="78"/>
       <c r="G20" s="46"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C21" s="78"/>
       <c r="G21" s="46"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C22" s="78"/>
       <c r="G22" s="46"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C23" s="78"/>
       <c r="G23" s="46"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C24" s="78"/>
       <c r="G24" s="46"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C25" s="78"/>
     </row>
   </sheetData>
@@ -7924,30 +7925,30 @@
       <selection activeCell="F17" sqref="F17:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="1.90625" style="21" customWidth="1"/>
     <col min="2" max="2" width="9" style="32"/>
-    <col min="3" max="3" width="20.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="30" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.44140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="44.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="39.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.453125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="44.36328125" style="21" customWidth="1"/>
     <col min="8" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="404" t="s">
+    <row r="1" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="399" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="405"/>
-      <c r="D2" s="405"/>
-      <c r="E2" s="405"/>
-      <c r="F2" s="405"/>
-      <c r="G2" s="406"/>
-    </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="401"/>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="240" t="s">
         <v>10</v>
       </c>
@@ -7967,7 +7968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="85.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="215" t="s">
         <v>90</v>
       </c>
@@ -7981,7 +7982,7 @@
       </c>
       <c r="G4" s="321"/>
     </row>
-    <row r="5" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="143" x14ac:dyDescent="0.35">
       <c r="B5" s="267" t="s">
         <v>77</v>
       </c>
@@ -7998,7 +7999,7 @@
       </c>
       <c r="G5" s="322"/>
     </row>
-    <row r="6" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="117" x14ac:dyDescent="0.35">
       <c r="B6" s="267" t="s">
         <v>78</v>
       </c>
@@ -8017,7 +8018,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="398" t="s">
         <v>79</v>
       </c>
@@ -8025,39 +8026,39 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D7" s="396"/>
-      <c r="E7" s="395" t="s">
+      <c r="D7" s="402"/>
+      <c r="E7" s="404" t="s">
         <v>342</v>
       </c>
-      <c r="F7" s="394" t="s">
+      <c r="F7" s="403" t="s">
         <v>260</v>
       </c>
       <c r="G7" s="323" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="398"/>
       <c r="C8" s="397"/>
-      <c r="D8" s="396"/>
-      <c r="E8" s="395"/>
-      <c r="F8" s="394"/>
+      <c r="D8" s="402"/>
+      <c r="E8" s="404"/>
+      <c r="F8" s="403"/>
       <c r="G8" s="323" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="28" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31"/>
       <c r="B9" s="398"/>
       <c r="C9" s="397"/>
-      <c r="D9" s="396"/>
-      <c r="E9" s="395"/>
-      <c r="F9" s="394"/>
+      <c r="D9" s="402"/>
+      <c r="E9" s="404"/>
+      <c r="F9" s="403"/>
       <c r="G9" s="323" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="169.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="169.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="398" t="s">
         <v>80</v>
       </c>
@@ -8065,28 +8066,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D10" s="396"/>
-      <c r="E10" s="395" t="s">
+      <c r="D10" s="402"/>
+      <c r="E10" s="404" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="394" t="s">
+      <c r="F10" s="403" t="s">
         <v>365</v>
       </c>
       <c r="G10" s="324" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="169.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="169.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="398"/>
       <c r="C11" s="397"/>
-      <c r="D11" s="396"/>
-      <c r="E11" s="395"/>
-      <c r="F11" s="394"/>
+      <c r="D11" s="402"/>
+      <c r="E11" s="404"/>
+      <c r="F11" s="403"/>
       <c r="G11" s="324" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="218" t="s">
         <v>81</v>
       </c>
@@ -8105,13 +8106,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="219"/>
       <c r="E13" s="25"/>
       <c r="F13" s="12"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="55.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="220" t="s">
         <v>83</v>
       </c>
@@ -8128,7 +8129,7 @@
       </c>
       <c r="G14" s="321"/>
     </row>
-    <row r="15" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="217" t="s">
         <v>82</v>
       </c>
@@ -8147,7 +8148,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="216" t="s">
         <v>148</v>
       </c>
@@ -8166,7 +8167,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="398" t="s">
         <v>149</v>
       </c>
@@ -8174,11 +8175,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D17" s="396"/>
-      <c r="E17" s="395" t="s">
+      <c r="D17" s="402"/>
+      <c r="E17" s="404" t="s">
         <v>209</v>
       </c>
-      <c r="F17" s="394" t="s">
+      <c r="F17" s="403" t="s">
         <v>366</v>
       </c>
       <c r="G17" s="326" t="s">
@@ -8186,28 +8187,28 @@
       </c>
       <c r="K17" s="200"/>
     </row>
-    <row r="18" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="398"/>
       <c r="C18" s="397"/>
-      <c r="D18" s="396"/>
-      <c r="E18" s="395"/>
-      <c r="F18" s="394"/>
+      <c r="D18" s="402"/>
+      <c r="E18" s="404"/>
+      <c r="F18" s="403"/>
       <c r="G18" s="326" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="403"/>
-      <c r="C19" s="402"/>
-      <c r="D19" s="401"/>
-      <c r="E19" s="400"/>
-      <c r="F19" s="399"/>
+    <row r="19" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="410"/>
+      <c r="C19" s="409"/>
+      <c r="D19" s="408"/>
+      <c r="E19" s="407"/>
+      <c r="F19" s="406"/>
       <c r="G19" s="327" t="s">
         <v>156</v>
       </c>
       <c r="K19" s="200"/>
     </row>
-    <row r="20" spans="1:11" s="28" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" s="28" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="31"/>
       <c r="B20" s="219"/>
       <c r="C20" s="35"/>
@@ -8216,7 +8217,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="249" t="s">
         <v>84</v>
       </c>
@@ -8231,7 +8232,7 @@
       <c r="F21" s="181"/>
       <c r="G21" s="69"/>
     </row>
-    <row r="22" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="91" x14ac:dyDescent="0.35">
       <c r="B22" s="217" t="s">
         <v>86</v>
       </c>
@@ -8250,7 +8251,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="28" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="28" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31"/>
       <c r="B23" s="280" t="s">
         <v>85</v>
@@ -8268,7 +8269,7 @@
       </c>
       <c r="G23" s="184"/>
     </row>
-    <row r="24" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="398" t="s">
         <v>87</v>
       </c>
@@ -8276,38 +8277,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D24" s="396"/>
-      <c r="E24" s="407" t="s">
+      <c r="D24" s="402"/>
+      <c r="E24" s="405" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="394" t="s">
+      <c r="F24" s="403" t="s">
         <v>266</v>
       </c>
       <c r="G24" s="184" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="398"/>
       <c r="C25" s="397"/>
-      <c r="D25" s="396"/>
-      <c r="E25" s="407"/>
-      <c r="F25" s="394"/>
+      <c r="D25" s="402"/>
+      <c r="E25" s="405"/>
+      <c r="F25" s="403"/>
       <c r="G25" s="184" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="398"/>
       <c r="C26" s="397"/>
-      <c r="D26" s="396"/>
-      <c r="E26" s="407"/>
-      <c r="F26" s="394"/>
+      <c r="D26" s="402"/>
+      <c r="E26" s="405"/>
+      <c r="F26" s="403"/>
       <c r="G26" s="184" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="398" t="s">
         <v>125</v>
       </c>
@@ -8315,28 +8316,28 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D27" s="396"/>
-      <c r="E27" s="395" t="s">
+      <c r="D27" s="402"/>
+      <c r="E27" s="404" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="394" t="s">
+      <c r="F27" s="403" t="s">
         <v>267</v>
       </c>
       <c r="G27" s="326" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="398"/>
       <c r="C28" s="397"/>
-      <c r="D28" s="396"/>
-      <c r="E28" s="395"/>
-      <c r="F28" s="394"/>
+      <c r="D28" s="402"/>
+      <c r="E28" s="404"/>
+      <c r="F28" s="403"/>
       <c r="G28" s="326" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="280" t="s">
         <v>158</v>
       </c>
@@ -8355,7 +8356,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="281" t="s">
         <v>159</v>
       </c>
@@ -8374,13 +8375,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="219"/>
       <c r="E31" s="26"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="220" t="s">
         <v>88</v>
       </c>
@@ -8397,7 +8398,7 @@
       </c>
       <c r="G32" s="51"/>
     </row>
-    <row r="33" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="218" t="s">
         <v>89</v>
       </c>
@@ -8414,327 +8415,337 @@
       </c>
       <c r="G33" s="332"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="219"/>
       <c r="E34" s="24"/>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="219"/>
       <c r="E35" s="21"/>
       <c r="G35" s="22"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="219"/>
       <c r="E36" s="21"/>
       <c r="G36" s="22"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="219"/>
       <c r="E37" s="21"/>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" s="219"/>
       <c r="E38" s="21"/>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E39" s="21"/>
       <c r="G39" s="22"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E40" s="21"/>
       <c r="G40" s="22"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E41" s="21"/>
       <c r="G41" s="22"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E42" s="21"/>
       <c r="G42" s="22"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E43" s="21"/>
       <c r="G43" s="22"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E44" s="21"/>
       <c r="G44" s="22"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E45" s="21"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E46" s="21"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E47" s="21"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" s="21"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" s="21"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" s="21"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E53" s="21"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E54" s="21"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E55" s="22"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E56" s="22"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E57" s="22"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E58" s="22"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E59" s="22"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E60" s="22"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E61" s="22"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E62" s="22"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E63" s="22"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E64" s="22"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E65" s="22"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E66" s="22"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E67" s="22"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E68" s="22"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E69" s="22"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E70" s="22"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E71" s="22"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E72" s="22"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E73" s="22"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E74" s="22"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E75" s="22"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E76" s="22"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E77" s="22"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E78" s="22"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E79" s="22"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E80" s="22"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E81" s="22"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E82" s="22"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E83" s="22"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E84" s="22"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E85" s="22"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E86" s="22"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E87" s="22"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E88" s="22"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E89" s="22"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E90" s="22"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E91" s="22"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E92" s="22"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E93" s="22"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E94" s="22"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E95" s="22"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E96" s="22"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E97" s="22"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E98" s="22"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E99" s="22"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E100" s="22"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E101" s="22"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E102" s="22"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E103" s="22"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E104" s="22"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E105" s="22"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E106" s="22"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E107" s="22"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E108" s="22"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E109" s="22"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E110" s="22"/>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E111" s="22"/>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E112" s="22"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E113" s="22"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E114" s="22"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E115" s="22"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E116" s="22"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E117" s="22"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E118" s="22"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E119" s="22"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E120" s="22"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E121" s="22"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E122" s="22"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E123" s="22"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E124" s="22"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E125" s="22"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E126" s="22"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E127" s="22"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E128" s="22"/>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E129" s="22"/>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E130" s="22"/>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E131" s="22"/>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E132" s="22"/>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E133" s="22"/>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E134" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B2:G2"/>
@@ -8751,16 +8762,6 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Validation Error" error="Please select appropriate status from the list." promptTitle="Task Status" prompt="Please select the status of this task from the list." sqref="D15:D17 D33 D22:D25 D5:D7 D10:D12 D27 D29:D30" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -8982,35 +8983,35 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="1.90625" style="21" customWidth="1"/>
     <col min="2" max="2" width="9" style="33"/>
-    <col min="3" max="3" width="25.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.33203125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="45.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="39.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.36328125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="45.453125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="32"/>
       <c r="C1" s="35"/>
       <c r="D1" s="30"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="404" t="s">
+    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="399" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="405"/>
-      <c r="D2" s="405"/>
-      <c r="E2" s="405"/>
-      <c r="F2" s="405"/>
-      <c r="G2" s="406"/>
-    </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="401"/>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="207" t="s">
         <v>10</v>
       </c>
@@ -9030,7 +9031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="249" t="s">
         <v>43</v>
       </c>
@@ -9045,7 +9046,7 @@
       <c r="F4" s="181"/>
       <c r="G4" s="251"/>
     </row>
-    <row r="5" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="217" t="s">
         <v>44</v>
       </c>
@@ -9064,7 +9065,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="31" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="31" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="280" t="s">
         <v>163</v>
@@ -9084,7 +9085,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="31" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="31" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21"/>
       <c r="B7" s="280" t="s">
         <v>165</v>
@@ -9104,7 +9105,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31"/>
       <c r="B8" s="398" t="s">
         <v>168</v>
@@ -9113,38 +9114,38 @@
         <f t="shared" ref="C8:C17" si="0">IF(D8="Yes",0,IF(D8="No",2,IF(D8="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D8" s="412"/>
-      <c r="E8" s="410" t="s">
+      <c r="D8" s="415"/>
+      <c r="E8" s="413" t="s">
         <v>279</v>
       </c>
-      <c r="F8" s="409" t="s">
+      <c r="F8" s="412" t="s">
         <v>281</v>
       </c>
       <c r="G8" s="283" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="31" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="31" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="398"/>
       <c r="C9" s="397"/>
-      <c r="D9" s="412"/>
-      <c r="E9" s="411"/>
-      <c r="F9" s="409"/>
+      <c r="D9" s="415"/>
+      <c r="E9" s="414"/>
+      <c r="F9" s="412"/>
       <c r="G9" s="283" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="31" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="31" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="398"/>
       <c r="C10" s="397"/>
-      <c r="D10" s="412"/>
-      <c r="E10" s="411"/>
-      <c r="F10" s="409"/>
+      <c r="D10" s="415"/>
+      <c r="E10" s="414"/>
+      <c r="F10" s="412"/>
       <c r="G10" s="283" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="280" t="s">
         <v>169</v>
       </c>
@@ -9163,7 +9164,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="31" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="31" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A12" s="21"/>
       <c r="B12" s="280" t="s">
         <v>170</v>
@@ -9183,7 +9184,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="117" x14ac:dyDescent="0.35">
       <c r="B13" s="280" t="s">
         <v>171</v>
       </c>
@@ -9202,7 +9203,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="280" t="s">
         <v>172</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21"/>
       <c r="B15" s="280" t="s">
         <v>173</v>
@@ -9241,7 +9242,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="280" t="s">
         <v>174</v>
       </c>
@@ -9260,7 +9261,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="31"/>
       <c r="B17" s="281" t="s">
         <v>175</v>
@@ -9280,259 +9281,259 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B18" s="228"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B19" s="32"/>
     </row>
-    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D22" s="408"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D22" s="411"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B23" s="32"/>
-      <c r="D23" s="408"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="411"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B24" s="32"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B25" s="32"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B26" s="32"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B27" s="32"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B28" s="32"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B29" s="32"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B30" s="32"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B31" s="32"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B32" s="32"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="32"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="32"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="32"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="32"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="32"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="32"/>
       <c r="D38" s="185"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="32"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="32"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="32"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="32"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="32"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="32"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="32"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" s="32"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="32"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48" s="32"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="32"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="32"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="32"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="32"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="32"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="32"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="32"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" s="32"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" s="32"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" s="32"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" s="32"/>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" s="32"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" s="32"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" s="32"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="32"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="32"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" s="32"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="32"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" s="32"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" s="32"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" s="32"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="32"/>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" s="32"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" s="32"/>
       <c r="E72" s="16"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" s="32"/>
       <c r="E73" s="16"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" s="32"/>
       <c r="E74" s="16"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" s="32"/>
       <c r="E75" s="16"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" s="32"/>
       <c r="E76" s="16"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="32"/>
       <c r="E77" s="16"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" s="32"/>
       <c r="E78" s="16"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" s="32"/>
       <c r="E79" s="16"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" s="32"/>
       <c r="E80" s="16"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="32"/>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="32"/>
       <c r="E82" s="16"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="32"/>
       <c r="E83" s="16"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="32"/>
       <c r="E84" s="16"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="32"/>
       <c r="E85" s="16"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="32"/>
       <c r="E86" s="16"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="32"/>
       <c r="E87" s="16"/>
     </row>
@@ -9702,35 +9703,35 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="1.90625" style="21" customWidth="1"/>
     <col min="2" max="2" width="9" style="32"/>
-    <col min="3" max="3" width="19.88671875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="65" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.44140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="64.44140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="65" customWidth="1"/>
+    <col min="5" max="5" width="39.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.453125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="64.453125" style="21" customWidth="1"/>
     <col min="8" max="9" width="9" style="21"/>
     <col min="10" max="10" width="9" style="118"/>
     <col min="11" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="35"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="404" t="s">
+    <row r="2" spans="1:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="399" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="405"/>
-      <c r="D2" s="405"/>
-      <c r="E2" s="405"/>
-      <c r="F2" s="405"/>
-      <c r="G2" s="406"/>
-    </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="401"/>
+    </row>
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="207" t="s">
         <v>10</v>
       </c>
@@ -9751,7 +9752,7 @@
       </c>
       <c r="J3" s="119"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="220" t="s">
         <v>45</v>
       </c>
@@ -9766,7 +9767,7 @@
       <c r="F4" s="40"/>
       <c r="G4" s="41"/>
     </row>
-    <row r="5" spans="1:10" ht="207" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="169" x14ac:dyDescent="0.35">
       <c r="B5" s="217" t="s">
         <v>46</v>
       </c>
@@ -9785,7 +9786,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="218" t="s">
         <v>47</v>
       </c>
@@ -9804,11 +9805,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="228"/>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="220" t="s">
         <v>48</v>
       </c>
@@ -9823,7 +9824,7 @@
       <c r="F8" s="40"/>
       <c r="G8" s="41"/>
     </row>
-    <row r="9" spans="1:10" ht="138" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="130" x14ac:dyDescent="0.35">
       <c r="B9" s="217" t="s">
         <v>49</v>
       </c>
@@ -9838,11 +9839,11 @@
       <c r="F9" s="193" t="s">
         <v>300</v>
       </c>
-      <c r="G9" s="413" t="s">
+      <c r="G9" s="416" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="216" t="s">
         <v>50</v>
       </c>
@@ -9857,9 +9858,9 @@
       <c r="F10" s="194" t="s">
         <v>301</v>
       </c>
-      <c r="G10" s="414"/>
-    </row>
-    <row r="11" spans="1:10" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="417"/>
+    </row>
+    <row r="11" spans="1:10" ht="176.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="216" t="s">
         <v>51</v>
       </c>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="G11" s="43"/>
     </row>
-    <row r="12" spans="1:10" ht="220.8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="208" x14ac:dyDescent="0.45">
       <c r="B12" s="216" t="s">
         <v>52</v>
       </c>
@@ -9893,7 +9894,7 @@
       </c>
       <c r="G12" s="334"/>
     </row>
-    <row r="13" spans="1:10" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31"/>
       <c r="B13" s="216" t="s">
         <v>53</v>
@@ -9911,7 +9912,7 @@
       </c>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31"/>
       <c r="B14" s="216" t="s">
         <v>222</v>
@@ -9929,7 +9930,7 @@
       </c>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
         <v>54</v>
       </c>
@@ -9944,85 +9945,85 @@
       <c r="F15" s="183"/>
       <c r="G15" s="254"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="228"/>
       <c r="E16" s="27"/>
       <c r="F16" s="11"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D17" s="117"/>
       <c r="E17" s="116"/>
       <c r="F17" s="115"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
       <c r="G21" s="2"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E33" s="22"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E37" s="22"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E40" s="22"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E41" s="22"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E42" s="22"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E48" s="22"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" s="22"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" s="22"/>
     </row>
   </sheetData>
@@ -10192,38 +10193,38 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" style="155" customWidth="1"/>
+    <col min="1" max="1" width="1.90625" style="155" customWidth="1"/>
     <col min="2" max="2" width="9" style="171"/>
-    <col min="3" max="3" width="22.88671875" style="172" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="173" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" style="174" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.44140625" style="160" customWidth="1"/>
-    <col min="7" max="7" width="48.33203125" style="160" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" style="172" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="173" customWidth="1"/>
+    <col min="5" max="5" width="39.453125" style="174" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.453125" style="160" customWidth="1"/>
+    <col min="7" max="7" width="48.36328125" style="160" customWidth="1"/>
     <col min="8" max="16384" width="9" style="160"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="155" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="155" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="156"/>
       <c r="C1" s="157"/>
       <c r="D1" s="158"/>
       <c r="E1" s="159"/>
     </row>
-    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="415" t="s">
+    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="418" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="416"/>
-      <c r="D2" s="416"/>
-      <c r="E2" s="416"/>
-      <c r="F2" s="416"/>
-      <c r="G2" s="417"/>
-    </row>
-    <row r="3" spans="1:7" s="161" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="419"/>
+      <c r="D2" s="419"/>
+      <c r="E2" s="419"/>
+      <c r="F2" s="419"/>
+      <c r="G2" s="420"/>
+    </row>
+    <row r="3" spans="1:7" s="161" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="229" t="s">
         <v>10</v>
       </c>
@@ -10243,7 +10244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="232" t="s">
         <v>55</v>
       </c>
@@ -10258,7 +10259,7 @@
       <c r="F4" s="164"/>
       <c r="G4" s="165"/>
     </row>
-    <row r="5" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="117" x14ac:dyDescent="0.35">
       <c r="B5" s="233" t="s">
         <v>56</v>
       </c>
@@ -10267,17 +10268,17 @@
         <v>1</v>
       </c>
       <c r="D5" s="167"/>
-      <c r="E5" s="431" t="s">
+      <c r="E5" s="349" t="s">
         <v>223</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="G5" s="429" t="s">
+      <c r="G5" s="347" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="233" t="s">
         <v>57</v>
       </c>
@@ -10292,11 +10293,11 @@
       <c r="F6" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="G6" s="429" t="s">
+      <c r="G6" s="347" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="234" t="s">
         <v>127</v>
       </c>
@@ -10311,17 +10312,17 @@
       <c r="F7" s="199" t="s">
         <v>308</v>
       </c>
-      <c r="G7" s="430" t="s">
+      <c r="G7" s="348" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G14" s="177"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="175"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="175"/>
     </row>
   </sheetData>
@@ -10450,35 +10451,35 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="1.90625" style="21" customWidth="1"/>
     <col min="2" max="2" width="9" style="34"/>
-    <col min="3" max="3" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="62" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="50.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="39.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="50.36328125" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="21" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="32"/>
       <c r="C1" s="35"/>
       <c r="D1" s="30"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="415" t="s">
+    <row r="2" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="418" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="416"/>
-      <c r="D2" s="416"/>
-      <c r="E2" s="416"/>
-      <c r="F2" s="416"/>
-      <c r="G2" s="417"/>
-    </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="419"/>
+      <c r="D2" s="419"/>
+      <c r="E2" s="419"/>
+      <c r="F2" s="419"/>
+      <c r="G2" s="420"/>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="207" t="s">
         <v>10</v>
       </c>
@@ -10498,7 +10499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="236" t="s">
         <v>58</v>
       </c>
@@ -10513,7 +10514,7 @@
       <c r="F4" s="57"/>
       <c r="G4" s="58"/>
     </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
       <c r="B5" s="237" t="s">
         <v>59</v>
@@ -10529,14 +10530,14 @@
       <c r="F5" s="204" t="s">
         <v>310</v>
       </c>
-      <c r="G5" s="420" t="s">
+      <c r="G5" s="423" t="s">
         <v>186</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31"/>
       <c r="B6" s="269" t="s">
         <v>60</v>
@@ -10552,9 +10553,9 @@
       <c r="F6" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="G6" s="421"/>
-    </row>
-    <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="424"/>
+    </row>
+    <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31"/>
       <c r="B7" s="269" t="s">
         <v>61</v>
@@ -10567,14 +10568,14 @@
       <c r="E7" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="418" t="s">
+      <c r="F7" s="421" t="s">
         <v>312</v>
       </c>
-      <c r="G7" s="421" t="s">
+      <c r="G7" s="424" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="31"/>
       <c r="B8" s="270" t="s">
         <v>97</v>
@@ -10587,14 +10588,14 @@
       <c r="E8" s="346" t="s">
         <v>359</v>
       </c>
-      <c r="F8" s="419"/>
-      <c r="G8" s="422"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="422"/>
+      <c r="G8" s="425"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="238"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="239" t="s">
         <v>62</v>
       </c>
@@ -10609,7 +10610,7 @@
       <c r="F10" s="55"/>
       <c r="G10" s="56"/>
     </row>
-    <row r="11" spans="1:11" ht="69" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="65" x14ac:dyDescent="0.35">
       <c r="B11" s="237" t="s">
         <v>63</v>
       </c>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="G11" s="58"/>
     </row>
-    <row r="12" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="286" t="s">
         <v>64</v>
       </c>
@@ -10641,11 +10642,11 @@
       <c r="F12" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="G12" s="421" t="s">
+      <c r="G12" s="424" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="286" t="s">
         <v>65</v>
       </c>
@@ -10660,9 +10661,9 @@
       <c r="F13" s="44" t="s">
         <v>315</v>
       </c>
-      <c r="G13" s="421"/>
-    </row>
-    <row r="14" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="424"/>
+    </row>
+    <row r="14" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="287" t="s">
         <v>66</v>
       </c>
@@ -10679,12 +10680,12 @@
       </c>
       <c r="G14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="238"/>
       <c r="E15" s="11"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="49.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="31"/>
       <c r="B16" s="239" t="s">
         <v>67</v>
@@ -10700,7 +10701,7 @@
       <c r="F16" s="55"/>
       <c r="G16" s="336"/>
     </row>
-    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="237" t="s">
         <v>68</v>
       </c>
@@ -10715,11 +10716,11 @@
       <c r="F17" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="G17" s="420" t="s">
+      <c r="G17" s="423" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31"/>
       <c r="B18" s="233" t="s">
         <v>69</v>
@@ -10735,9 +10736,9 @@
       <c r="F18" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="G18" s="421"/>
-    </row>
-    <row r="19" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="G18" s="424"/>
+    </row>
+    <row r="19" spans="1:7" ht="52" x14ac:dyDescent="0.35">
       <c r="B19" s="233" t="s">
         <v>70</v>
       </c>
@@ -10752,9 +10753,9 @@
       <c r="F19" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="G19" s="421"/>
-    </row>
-    <row r="20" spans="1:7" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="424"/>
+    </row>
+    <row r="20" spans="1:7" ht="78.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="234" t="s">
         <v>71</v>
       </c>
@@ -10773,11 +10774,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="238"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:7" s="160" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="160" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="175"/>
       <c r="B22" s="239" t="s">
         <v>72</v>
@@ -10793,7 +10794,7 @@
       <c r="F22" s="164"/>
       <c r="G22" s="56"/>
     </row>
-    <row r="23" spans="1:7" s="160" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="160" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="155"/>
       <c r="B23" s="237" t="s">
         <v>73</v>
@@ -10809,11 +10810,11 @@
       <c r="F23" s="193" t="s">
         <v>323</v>
       </c>
-      <c r="G23" s="420" t="s">
+      <c r="G23" s="423" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="160" customFormat="1" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="160" customFormat="1" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="155"/>
       <c r="B24" s="234" t="s">
         <v>74</v>
@@ -10829,13 +10830,13 @@
       <c r="F24" s="257" t="s">
         <v>190</v>
       </c>
-      <c r="G24" s="422"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="425"/>
+    </row>
+    <row r="25" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="238"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="236" t="s">
         <v>192</v>
       </c>
@@ -10850,7 +10851,7 @@
       <c r="F26" s="57"/>
       <c r="G26" s="58"/>
     </row>
-    <row r="27" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="237" t="s">
         <v>193</v>
       </c>
@@ -10867,258 +10868,258 @@
       </c>
       <c r="G27" s="58"/>
     </row>
-    <row r="28" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="423" t="s">
+    <row r="28" spans="1:7" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="426" t="s">
         <v>198</v>
       </c>
       <c r="C28" s="397">
         <f t="shared" ref="C28" si="4">IF(D28="Yes",0,IF(D28="No",2,IF(D28="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D28" s="390"/>
-      <c r="E28" s="411" t="s">
+      <c r="D28" s="393"/>
+      <c r="E28" s="414" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="426" t="s">
+      <c r="F28" s="429" t="s">
         <v>324</v>
       </c>
       <c r="G28" s="335" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="424"/>
-      <c r="C29" s="402"/>
-      <c r="D29" s="428"/>
-      <c r="E29" s="425"/>
-      <c r="F29" s="427"/>
+    <row r="29" spans="1:7" ht="31.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="427"/>
+      <c r="C29" s="409"/>
+      <c r="D29" s="431"/>
+      <c r="E29" s="428"/>
+      <c r="F29" s="430"/>
       <c r="G29" s="338" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E33" s="22"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E37" s="22"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E40" s="22"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E41" s="22"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E42" s="22"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" s="9"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E56" s="9"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E58" s="9"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E60" s="9"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E61" s="9"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E62" s="9"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E64" s="9"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E66" s="9"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E68" s="9"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E70" s="9"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E72" s="9"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E73" s="9"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E74" s="9"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E76" s="9"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E78" s="9"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E80" s="9"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E82" s="9"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E84" s="9"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E86" s="9"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E88" s="9"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E90" s="9"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E92" s="9"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E94" s="9"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E96" s="9"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E98" s="9"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E100" s="9"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E101" s="9"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E102" s="9"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E104" s="9"/>
     </row>
   </sheetData>
@@ -11502,288 +11503,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B055786AA6CCD144A43B4D1A72D31918" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9be344113af49ad8c84174e645e99cc7">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="d9df8399-d7e1-41f8-95ac-5a4dae0ea32f" xmlns:ns3="cadf7e3d-23d2-4f1e-80e3-ae8f1a9bd9c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="076d891f571e6919975dcc82dcdaaa74" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="d9df8399-d7e1-41f8-95ac-5a4dae0ea32f"/>
-    <xsd:import namespace="cadf7e3d-23d2-4f1e-80e3-ae8f1a9bd9c7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
-                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:LastSharedByUser" minOccurs="0"/>
-                <xsd:element ref="ns3:LastSharedByTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="10" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:description="" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="11" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:description="" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d9df8399-d7e1-41f8-95ac-5a4dae0ea32f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="MediaServiceLocation" ma:description="" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="MediaServiceOCR" ma:description="" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cadf7e3d-23d2-4f1e-80e3-ae8f1a9bd9c7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LastSharedByUser" ma:index="14" nillable="true" ma:displayName="Last Shared By User" ma:description="" ma:hidden="true" ma:internalName="LastSharedByUser" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LastSharedByTime" ma:index="15" nillable="true" ma:displayName="Last Shared By Time" ma:description="" ma:hidden="true" ma:internalName="LastSharedByTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6390A0-E980-4208-B262-23AD401ED8C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25E4A2C-6AD8-4440-BB46-1D3A3F5B637B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="cadf7e3d-23d2-4f1e-80e3-ae8f1a9bd9c7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d9df8399-d7e1-41f8-95ac-5a4dae0ea32f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63E630D2-155C-4AD8-82CA-05C984FAC2AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="d9df8399-d7e1-41f8-95ac-5a4dae0ea32f"/>
-    <ds:schemaRef ds:uri="cadf7e3d-23d2-4f1e-80e3-ae8f1a9bd9c7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Teams/downloads/site-enablement-playbook-for-voice-(playbook).xlsx
+++ b/Teams/downloads/site-enablement-playbook-for-voice-(playbook).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19316"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0DEC13-93DF-4779-B909-82664FBFA025}" xr6:coauthVersionLast="30" xr6:coauthVersionMax="30" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604DDB3E-DB3C-44DE-8B4E-0F183B504650}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" tabRatio="692" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12816" tabRatio="692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
@@ -77,19 +77,19 @@
     <definedName name="_3.2.5">'[1]3-User Enablement'!#REF!</definedName>
     <definedName name="_3.2.9">'[1]3-User Enablement'!#REF!</definedName>
     <definedName name="_4.1.1">'4-Endpoints'!$B$5</definedName>
-    <definedName name="_4.1.2">'4-Endpoints'!$B$6</definedName>
+    <definedName name="_4.1.2">'4-Endpoints'!$B$7</definedName>
     <definedName name="_4.1.3">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.2.1">'4-Endpoints'!$B$9</definedName>
+    <definedName name="_4.2.1">'4-Endpoints'!$B$10</definedName>
     <definedName name="_4.2.10">'[1]4-Endpoints'!#REF!</definedName>
     <definedName name="_4.2.11">'[1]4-Endpoints'!#REF!</definedName>
     <definedName name="_4.2.12">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.2.2">'4-Endpoints'!$B$10</definedName>
-    <definedName name="_4.2.3">'4-Endpoints'!$B$11</definedName>
-    <definedName name="_4.2.4">'4-Endpoints'!$B$12</definedName>
-    <definedName name="_4.2.5">'4-Endpoints'!$B$13</definedName>
+    <definedName name="_4.2.2">'4-Endpoints'!$B$11</definedName>
+    <definedName name="_4.2.3">'4-Endpoints'!$B$12</definedName>
+    <definedName name="_4.2.4">'4-Endpoints'!$B$13</definedName>
+    <definedName name="_4.2.5">'4-Endpoints'!$B$14</definedName>
     <definedName name="_4.2.6" localSheetId="1">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.2.6">'4-Endpoints'!$B$14</definedName>
-    <definedName name="_4.2.7">'4-Endpoints'!$B$15</definedName>
+    <definedName name="_4.2.6">'4-Endpoints'!$B$15</definedName>
+    <definedName name="_4.2.7">'4-Endpoints'!$B$16</definedName>
     <definedName name="_4.2.8">'[1]4-Endpoints'!#REF!</definedName>
     <definedName name="_4.3.1">'[1]4-Endpoints'!#REF!</definedName>
     <definedName name="_4.3.10">'[1]4-Endpoints'!#REF!</definedName>
@@ -961,9 +961,6 @@
     <t>Operations Guide</t>
   </si>
   <si>
-    <t>Assessing Teams Usage</t>
-  </si>
-  <si>
     <t>Capture detailed information that will assist you in planning the rollout of Teams voice workloads to the site</t>
   </si>
   <si>
@@ -1292,35 +1289,6 @@
   </si>
   <si>
     <t>4.1.1 - Deploy the Teams client on user workstations, laptops, and mobile devices</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teams has clients available for web, desktop (Windows and Mac), and mobile (Android, iOS, and Windows Phone). These clients all require an active internet connection.
-Desktop clients can be downloaded and installed by users directly from https://teams.microsoft.com/downloads, or IT admins can use existing software management solutions to distribute installation files to client machines.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Distribution of the Teams client via software management solutions is only available for the initial installation of Teams clients, and not for future updates.
-Teams clients are updated automatically by the Teams service with no IT administrator intervention required.</t>
-    </r>
   </si>
   <si>
     <t>Notify users about the Office 365 self-service portal for installing software to personal devices</t>
@@ -1619,6 +1587,39 @@
   <si>
     <t>Set up Communications Credits for your tenant to provide toll-free access for your organization’s conference bridge phone numbers, or give conference organizers the ability to dial out to international meeting participants.
 Validate that Communications Credits have been added to your tenant to support the functionalities described above.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teams has clients available for web, desktop (Windows and Mac), and mobile (Android, iOS, and Windows Phone). These clients all require an active internet connection.
+Desktop clients can be downloaded and installed by users directly from https://teams.microsoft.com/downloads, or IT admins can use existing software management solutions to distribute installation files to client machines.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Distribution of the Teams client via software management solutions is only available for the initial installation of Teams clients, and not for future updates.
+Teams clients are updated automatically by the Teams service with no IT administrator intervention required.
+Teams also has MSI package available to IT Administrators for deployment via ITPro tools.</t>
+    </r>
+  </si>
+  <si>
+    <t>Install Microsoft Teams using MSI</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2295,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="432">
+  <cellXfs count="440">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3308,14 +3309,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3377,75 +3453,6 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3458,33 +3465,21 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3500,6 +3495,18 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3561,6 +3568,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6229,19 +6254,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="Q12:W20"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="23:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W12"/>
     </row>
-    <row r="20" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q20"/>
     </row>
   </sheetData>
@@ -6257,27 +6280,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="101" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="100" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="98" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="99" t="s">
         <v>40</v>
       </c>
@@ -6296,7 +6319,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="298"/>
     <col min="2" max="2" width="61" style="298" customWidth="1"/>
@@ -6304,7 +6327,7 @@
     <col min="4" max="16384" width="9" style="298"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="308" t="s">
         <v>116</v>
       </c>
@@ -6315,7 +6338,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="299" t="s">
         <v>139</v>
       </c>
@@ -6326,28 +6349,28 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="301"/>
       <c r="B3" s="302"/>
       <c r="C3" s="300"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="303"/>
       <c r="B4" s="304"/>
       <c r="C4" s="305"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="303"/>
       <c r="B5" s="306"/>
       <c r="C5" s="305"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="307"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="307"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="307"/>
     </row>
   </sheetData>
@@ -6368,120 +6391,120 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="17" customWidth="1"/>
-    <col min="2" max="2" width="28.36328125" style="17" customWidth="1"/>
-    <col min="3" max="12" width="18.54296875" style="17" customWidth="1"/>
-    <col min="13" max="13" width="25.90625" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="18.54296875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="17" customWidth="1"/>
+    <col min="3" max="12" width="18.5546875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="25.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="18.5546875" style="17" customWidth="1"/>
     <col min="20" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:19" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="114" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="370" t="s">
+      <c r="D2" s="363" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="370"/>
-    </row>
-    <row r="3" spans="2:19" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="363"/>
+    </row>
+    <row r="3" spans="2:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="113" t="s">
         <v>114</v>
       </c>
       <c r="C3" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="371">
+      <c r="D3" s="364">
         <v>43179</v>
       </c>
-      <c r="E3" s="371"/>
-    </row>
-    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:19" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="375" t="str">
+      <c r="E3" s="364"/>
+    </row>
+    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="368" t="str">
         <f>"Site rollout schedule for site: " &amp; B3 &amp; " - " &amp; C3</f>
         <v>Site rollout schedule for site: {SiteName} - {SiteCode}</v>
       </c>
-      <c r="C5" s="376"/>
-      <c r="D5" s="376"/>
-      <c r="E5" s="376"/>
-      <c r="F5" s="376"/>
-      <c r="G5" s="376"/>
-      <c r="H5" s="376"/>
-      <c r="I5" s="376"/>
-      <c r="J5" s="376"/>
-      <c r="K5" s="376"/>
-      <c r="L5" s="376"/>
-      <c r="M5" s="376"/>
-      <c r="N5" s="376"/>
-      <c r="O5" s="376"/>
-      <c r="P5" s="376"/>
-      <c r="Q5" s="376"/>
-      <c r="R5" s="376"/>
-      <c r="S5" s="377"/>
-    </row>
-    <row r="6" spans="2:19" s="19" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="379" t="s">
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
+      <c r="G5" s="369"/>
+      <c r="H5" s="369"/>
+      <c r="I5" s="369"/>
+      <c r="J5" s="369"/>
+      <c r="K5" s="369"/>
+      <c r="L5" s="369"/>
+      <c r="M5" s="369"/>
+      <c r="N5" s="369"/>
+      <c r="O5" s="369"/>
+      <c r="P5" s="369"/>
+      <c r="Q5" s="369"/>
+      <c r="R5" s="369"/>
+      <c r="S5" s="370"/>
+    </row>
+    <row r="6" spans="2:19" s="19" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="372" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="372"/>
+      <c r="D6" s="372"/>
+      <c r="E6" s="372"/>
+      <c r="F6" s="372"/>
+      <c r="G6" s="372"/>
+      <c r="H6" s="372"/>
+      <c r="I6" s="372"/>
+      <c r="J6" s="372"/>
+      <c r="K6" s="372"/>
+      <c r="L6" s="372"/>
+      <c r="M6" s="316" t="s">
+        <v>327</v>
+      </c>
+      <c r="N6" s="371" t="s">
         <v>328</v>
       </c>
-      <c r="C6" s="379"/>
-      <c r="D6" s="379"/>
-      <c r="E6" s="379"/>
-      <c r="F6" s="379"/>
-      <c r="G6" s="379"/>
-      <c r="H6" s="379"/>
-      <c r="I6" s="379"/>
-      <c r="J6" s="379"/>
-      <c r="K6" s="379"/>
-      <c r="L6" s="379"/>
-      <c r="M6" s="316" t="s">
+      <c r="O6" s="371"/>
+      <c r="P6" s="371"/>
+      <c r="Q6" s="371"/>
+      <c r="R6" s="371"/>
+      <c r="S6" s="371"/>
+    </row>
+    <row r="7" spans="2:19" s="6" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="317" t="s">
         <v>329</v>
       </c>
-      <c r="N6" s="378" t="s">
+      <c r="C7" s="365" t="s">
         <v>330</v>
       </c>
-      <c r="O6" s="378"/>
-      <c r="P6" s="378"/>
-      <c r="Q6" s="378"/>
-      <c r="R6" s="378"/>
-      <c r="S6" s="378"/>
-    </row>
-    <row r="7" spans="2:19" s="6" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="317" t="s">
+      <c r="D7" s="366"/>
+      <c r="E7" s="366"/>
+      <c r="F7" s="366"/>
+      <c r="G7" s="366"/>
+      <c r="H7" s="366"/>
+      <c r="I7" s="366"/>
+      <c r="J7" s="366"/>
+      <c r="K7" s="366"/>
+      <c r="L7" s="367"/>
+      <c r="M7" s="373" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="365" t="s">
         <v>331</v>
       </c>
-      <c r="C7" s="372" t="s">
-        <v>332</v>
-      </c>
-      <c r="D7" s="373"/>
-      <c r="E7" s="373"/>
-      <c r="F7" s="373"/>
-      <c r="G7" s="373"/>
-      <c r="H7" s="373"/>
-      <c r="I7" s="373"/>
-      <c r="J7" s="373"/>
-      <c r="K7" s="373"/>
-      <c r="L7" s="374"/>
-      <c r="M7" s="380" t="s">
-        <v>96</v>
-      </c>
-      <c r="N7" s="372" t="s">
-        <v>333</v>
-      </c>
-      <c r="O7" s="373"/>
-      <c r="P7" s="373"/>
-      <c r="Q7" s="373"/>
-      <c r="R7" s="373"/>
-      <c r="S7" s="374"/>
-    </row>
-    <row r="8" spans="2:19" s="18" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O7" s="366"/>
+      <c r="P7" s="366"/>
+      <c r="Q7" s="366"/>
+      <c r="R7" s="366"/>
+      <c r="S7" s="367"/>
+    </row>
+    <row r="8" spans="2:19" s="18" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="317" t="s">
         <v>31</v>
       </c>
@@ -6515,7 +6538,7 @@
       <c r="L8" s="309" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="381"/>
+      <c r="M8" s="374"/>
       <c r="N8" s="309" t="s">
         <v>32</v>
       </c>
@@ -6535,7 +6558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:19" s="18" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:19" s="18" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="317" t="s">
         <v>101</v>
       </c>
@@ -6608,9 +6631,9 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="10" spans="2:19" s="61" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:19" s="61" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="318" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C10" s="60">
         <f>MAX('1-Playbook Preparation'!C5,'1-Playbook Preparation'!C9)</f>
@@ -6621,35 +6644,35 @@
         <v>1</v>
       </c>
       <c r="E10" s="60">
-        <f>MAX('1-Playbook Preparation'!C6,'2-Site Voice Readiness'!C5,'2-Site Voice Readiness'!C6,'3-User Enablement'!C6,'4-Endpoints'!C9,'4-Endpoints'!C10)</f>
+        <f>MAX('1-Playbook Preparation'!C6,'2-Site Voice Readiness'!C5,'2-Site Voice Readiness'!C6,'3-User Enablement'!C6,'4-Endpoints'!C10,'4-Endpoints'!C11)</f>
         <v>1</v>
       </c>
       <c r="F10" s="60">
-        <f>MAX('1-Playbook Preparation'!C10,'1-Playbook Preparation'!C11,'2-Site Voice Readiness'!C33,'2-Site Voice Readiness'!C7:C9,'2-Site Voice Readiness'!C15,'4-Endpoints'!C10,'4-Endpoints'!C13,'6-Adoption'!C11)</f>
+        <f>MAX('1-Playbook Preparation'!C10,'1-Playbook Preparation'!C11,'2-Site Voice Readiness'!C33,'2-Site Voice Readiness'!C7:C9,'2-Site Voice Readiness'!C15,'4-Endpoints'!C11,'4-Endpoints'!C14,'6-Adoption'!C11)</f>
         <v>1</v>
       </c>
       <c r="G10" s="93">
-        <f>MAX('2-Site Voice Readiness'!C16,'2-Site Voice Readiness'!C17:C19,'2-Site Voice Readiness'!C22,'2-Site Voice Readiness'!C10:C11,'4-Endpoints'!C10,'4-Endpoints'!C11,'6-Adoption'!C12,'6-Adoption'!C7,'5-Usage &amp; Quality'!C7)</f>
+        <f>MAX('2-Site Voice Readiness'!C16,'2-Site Voice Readiness'!C17:C19,'2-Site Voice Readiness'!C22,'2-Site Voice Readiness'!C10:C11,'4-Endpoints'!C11,'4-Endpoints'!C12,'6-Adoption'!C12,'6-Adoption'!C7,'5-Usage &amp; Quality'!C7)</f>
         <v>1</v>
       </c>
       <c r="H10" s="93">
-        <f>MAX('2-Site Voice Readiness'!C12,'4-Endpoints'!C10,'4-Endpoints'!C12,'6-Adoption'!C5,'6-Adoption'!C13,'5-Usage &amp; Quality'!C7)</f>
+        <f>MAX('2-Site Voice Readiness'!C12,'4-Endpoints'!C11,'4-Endpoints'!C13,'6-Adoption'!C5,'6-Adoption'!C13,'5-Usage &amp; Quality'!C7)</f>
         <v>1</v>
       </c>
       <c r="I10" s="93">
-        <f>MAX('3-User Enablement'!C8:C10,'3-User Enablement'!C11,'4-Endpoints'!C5,'4-Endpoints'!C6,'5-Usage &amp; Quality'!C7)</f>
+        <f>MAX('3-User Enablement'!C8:C10,'3-User Enablement'!C11,'4-Endpoints'!C5,'4-Endpoints'!C7,'5-Usage &amp; Quality'!C7)</f>
         <v>1</v>
       </c>
       <c r="J10" s="93">
-        <f>MAX('4-Endpoints'!C14,'4-Endpoints'!C5,'6-Adoption'!C23,'6-Adoption'!C17,'6-Adoption'!C27,'6-Adoption'!C8,'5-Usage &amp; Quality'!C7)</f>
+        <f>MAX('4-Endpoints'!C15,'4-Endpoints'!C5,'6-Adoption'!C23,'6-Adoption'!C17,'6-Adoption'!C27,'6-Adoption'!C8,'5-Usage &amp; Quality'!C7)</f>
         <v>1</v>
       </c>
       <c r="K10" s="93">
-        <f>MAX('2-Site Voice Readiness'!C23,'2-Site Voice Readiness'!C24:C26,'2-Site Voice Readiness'!C27,'2-Site Voice Readiness'!C30,'4-Endpoints'!C15,'4-Endpoints'!C5,'6-Adoption'!C18,'6-Adoption'!C6,'6-Adoption'!C27,'5-Usage &amp; Quality'!C7)</f>
+        <f>MAX('2-Site Voice Readiness'!C23,'2-Site Voice Readiness'!C24:C26,'2-Site Voice Readiness'!C27,'2-Site Voice Readiness'!C30,'4-Endpoints'!C16,'4-Endpoints'!C5,'6-Adoption'!C18,'6-Adoption'!C6,'6-Adoption'!C27,'5-Usage &amp; Quality'!C7)</f>
         <v>1</v>
       </c>
       <c r="L10" s="93">
-        <f>MAX('2-Site Voice Readiness'!C29,'3-User Enablement'!C12,'3-User Enablement'!C13,'3-User Enablement'!C14,'3-User Enablement'!C15,'3-User Enablement'!C16,'3-User Enablement'!C17,'4-Endpoints'!C15,'5-Usage &amp; Quality'!C7,'6-Adoption'!C20)</f>
+        <f>MAX('2-Site Voice Readiness'!C29,'3-User Enablement'!C12,'3-User Enablement'!C13,'3-User Enablement'!C14,'3-User Enablement'!C15,'3-User Enablement'!C16,'3-User Enablement'!C17,'4-Endpoints'!C16,'5-Usage &amp; Quality'!C7,'6-Adoption'!C20)</f>
         <v>1</v>
       </c>
       <c r="M10" s="93">
@@ -6681,8 +6704,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:19" s="61" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="382" t="s">
+    <row r="11" spans="2:19" s="61" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="352" t="s">
         <v>199</v>
       </c>
       <c r="C11" s="94" t="s">
@@ -6691,10 +6714,10 @@
       <c r="D11" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="E11" s="384" t="s">
-        <v>337</v>
-      </c>
-      <c r="F11" s="386"/>
+      <c r="E11" s="354" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" s="356"/>
       <c r="G11" s="95"/>
       <c r="H11" s="95"/>
       <c r="I11" s="95"/>
@@ -6709,15 +6732,15 @@
       <c r="R11" s="95"/>
       <c r="S11" s="95"/>
     </row>
-    <row r="12" spans="2:19" s="61" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="383"/>
-      <c r="C12" s="384" t="s">
+    <row r="12" spans="2:19" s="61" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="353"/>
+      <c r="C12" s="354" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="385"/>
+      <c r="D12" s="355"/>
       <c r="E12" s="96"/>
       <c r="F12" s="97" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G12" s="289"/>
       <c r="H12" s="289"/>
@@ -6733,8 +6756,8 @@
       <c r="R12" s="289"/>
       <c r="S12" s="289"/>
     </row>
-    <row r="13" spans="2:19" s="9" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="387" t="s">
+    <row r="13" spans="2:19" s="9" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="357" t="s">
         <v>200</v>
       </c>
       <c r="C13" s="130"/>
@@ -6743,7 +6766,7 @@
         <v>91</v>
       </c>
       <c r="F13" s="121" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G13" s="122" t="s">
         <v>210</v>
@@ -6767,15 +6790,15 @@
       <c r="R13" s="131"/>
       <c r="S13" s="131"/>
     </row>
-    <row r="14" spans="2:19" s="9" customFormat="1" ht="91.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="388"/>
+    <row r="14" spans="2:19" s="9" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="358"/>
       <c r="C14" s="132"/>
       <c r="D14" s="132"/>
       <c r="E14" s="122" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F14" s="122" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G14" s="122" t="s">
         <v>211</v>
@@ -6795,16 +6818,16 @@
       <c r="R14" s="131"/>
       <c r="S14" s="131"/>
     </row>
-    <row r="15" spans="2:19" s="9" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="388"/>
+    <row r="15" spans="2:19" s="9" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="358"/>
       <c r="C15" s="132"/>
       <c r="D15" s="132"/>
       <c r="E15" s="131"/>
       <c r="F15" s="122" t="s">
+        <v>342</v>
+      </c>
+      <c r="G15" s="122" t="s">
         <v>344</v>
-      </c>
-      <c r="G15" s="122" t="s">
-        <v>346</v>
       </c>
       <c r="H15" s="122"/>
       <c r="I15" s="131"/>
@@ -6821,8 +6844,8 @@
       <c r="R15" s="131"/>
       <c r="S15" s="131"/>
     </row>
-    <row r="16" spans="2:19" s="9" customFormat="1" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="389"/>
+    <row r="16" spans="2:19" s="9" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="359"/>
       <c r="C16" s="132"/>
       <c r="D16" s="132"/>
       <c r="E16" s="133"/>
@@ -6845,27 +6868,27 @@
       <c r="R16" s="131"/>
       <c r="S16" s="131"/>
     </row>
-    <row r="17" spans="2:19" ht="89.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="390" t="s">
+    <row r="17" spans="2:19" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="360" t="s">
         <v>122</v>
       </c>
       <c r="C17" s="123"/>
       <c r="D17" s="123" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E17" s="127" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F17" s="124"/>
       <c r="G17" s="134"/>
       <c r="H17" s="123"/>
       <c r="I17" s="123" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J17" s="125"/>
       <c r="K17" s="134"/>
       <c r="L17" s="123" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M17" s="129"/>
       <c r="N17" s="134"/>
@@ -6875,8 +6898,8 @@
       <c r="R17" s="134"/>
       <c r="S17" s="134"/>
     </row>
-    <row r="18" spans="2:19" ht="39" x14ac:dyDescent="0.35">
-      <c r="B18" s="391"/>
+    <row r="18" spans="2:19" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="361"/>
       <c r="C18" s="135"/>
       <c r="D18" s="135"/>
       <c r="E18" s="127" t="s">
@@ -6891,7 +6914,7 @@
       <c r="J18" s="127"/>
       <c r="K18" s="136"/>
       <c r="L18" s="127" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M18" s="137"/>
       <c r="N18" s="136"/>
@@ -6901,8 +6924,8 @@
       <c r="R18" s="136"/>
       <c r="S18" s="136"/>
     </row>
-    <row r="19" spans="2:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="391"/>
+    <row r="19" spans="2:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="361"/>
       <c r="C19" s="135"/>
       <c r="D19" s="135"/>
       <c r="E19" s="136"/>
@@ -6923,8 +6946,8 @@
       <c r="R19" s="136"/>
       <c r="S19" s="136"/>
     </row>
-    <row r="20" spans="2:19" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="391"/>
+    <row r="20" spans="2:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="361"/>
       <c r="C20" s="135"/>
       <c r="D20" s="135"/>
       <c r="E20" s="136"/>
@@ -6935,7 +6958,7 @@
       <c r="J20" s="137"/>
       <c r="K20" s="136"/>
       <c r="L20" s="128" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M20" s="137"/>
       <c r="N20" s="136"/>
@@ -6945,8 +6968,8 @@
       <c r="R20" s="136"/>
       <c r="S20" s="136"/>
     </row>
-    <row r="21" spans="2:19" ht="52.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="391"/>
+    <row r="21" spans="2:19" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="361"/>
       <c r="C21" s="135"/>
       <c r="D21" s="135"/>
       <c r="E21" s="136"/>
@@ -6957,7 +6980,7 @@
       <c r="J21" s="137"/>
       <c r="K21" s="136"/>
       <c r="L21" s="128" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M21" s="137"/>
       <c r="N21" s="136"/>
@@ -6967,8 +6990,8 @@
       <c r="R21" s="136"/>
       <c r="S21" s="136"/>
     </row>
-    <row r="22" spans="2:19" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="392"/>
+    <row r="22" spans="2:19" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="362"/>
       <c r="C22" s="135"/>
       <c r="D22" s="135"/>
       <c r="E22" s="136"/>
@@ -6989,14 +7012,14 @@
       <c r="R22" s="136"/>
       <c r="S22" s="136"/>
     </row>
-    <row r="23" spans="2:19" ht="95.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="353" t="s">
+    <row r="23" spans="2:19" ht="95.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="378" t="s">
         <v>123</v>
       </c>
       <c r="C23" s="138"/>
       <c r="D23" s="120"/>
       <c r="E23" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>93</v>
@@ -7008,48 +7031,48 @@
         <v>94</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="K23" s="350" t="s">
-        <v>351</v>
-      </c>
-      <c r="L23" s="352"/>
-      <c r="M23" s="350"/>
-      <c r="N23" s="351"/>
-      <c r="O23" s="351"/>
-      <c r="P23" s="351"/>
-      <c r="Q23" s="351"/>
-      <c r="R23" s="351"/>
-      <c r="S23" s="352"/>
-    </row>
-    <row r="24" spans="2:19" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="354"/>
+        <v>333</v>
+      </c>
+      <c r="K23" s="375" t="s">
+        <v>349</v>
+      </c>
+      <c r="L23" s="377"/>
+      <c r="M23" s="375"/>
+      <c r="N23" s="376"/>
+      <c r="O23" s="376"/>
+      <c r="P23" s="376"/>
+      <c r="Q23" s="376"/>
+      <c r="R23" s="376"/>
+      <c r="S23" s="377"/>
+    </row>
+    <row r="24" spans="2:19" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="379"/>
       <c r="C24" s="140"/>
       <c r="D24" s="139"/>
-      <c r="E24" s="350" t="s">
-        <v>354</v>
-      </c>
-      <c r="F24" s="351"/>
-      <c r="G24" s="351"/>
-      <c r="H24" s="352"/>
-      <c r="I24" s="350" t="s">
-        <v>294</v>
-      </c>
-      <c r="J24" s="351"/>
-      <c r="K24" s="352"/>
+      <c r="E24" s="375" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" s="376"/>
+      <c r="G24" s="376"/>
+      <c r="H24" s="377"/>
+      <c r="I24" s="375" t="s">
+        <v>293</v>
+      </c>
+      <c r="J24" s="376"/>
+      <c r="K24" s="377"/>
       <c r="L24" s="290"/>
-      <c r="M24" s="350"/>
-      <c r="N24" s="351"/>
-      <c r="O24" s="351"/>
-      <c r="P24" s="351"/>
-      <c r="Q24" s="351"/>
-      <c r="R24" s="351"/>
-      <c r="S24" s="352"/>
-    </row>
-    <row r="25" spans="2:19" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M24" s="375"/>
+      <c r="N24" s="376"/>
+      <c r="O24" s="376"/>
+      <c r="P24" s="376"/>
+      <c r="Q24" s="376"/>
+      <c r="R24" s="376"/>
+      <c r="S24" s="377"/>
+    </row>
+    <row r="25" spans="2:19" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="319" t="s">
         <v>201</v>
       </c>
@@ -7059,23 +7082,23 @@
       </c>
       <c r="E25" s="141"/>
       <c r="F25" s="141"/>
-      <c r="G25" s="360" t="s">
+      <c r="G25" s="385" t="s">
         <v>228</v>
       </c>
-      <c r="H25" s="361"/>
-      <c r="I25" s="361"/>
-      <c r="J25" s="361"/>
-      <c r="K25" s="361"/>
-      <c r="L25" s="361"/>
-      <c r="M25" s="361"/>
-      <c r="N25" s="361"/>
-      <c r="O25" s="361"/>
-      <c r="P25" s="361"/>
-      <c r="Q25" s="361"/>
-      <c r="R25" s="361"/>
-      <c r="S25" s="362"/>
-    </row>
-    <row r="26" spans="2:19" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H25" s="386"/>
+      <c r="I25" s="386"/>
+      <c r="J25" s="386"/>
+      <c r="K25" s="386"/>
+      <c r="L25" s="386"/>
+      <c r="M25" s="386"/>
+      <c r="N25" s="386"/>
+      <c r="O25" s="386"/>
+      <c r="P25" s="386"/>
+      <c r="Q25" s="386"/>
+      <c r="R25" s="386"/>
+      <c r="S25" s="387"/>
+    </row>
+    <row r="26" spans="2:19" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="320"/>
       <c r="C26" s="142"/>
       <c r="D26" s="144"/>
@@ -7088,17 +7111,17 @@
       <c r="K26" s="294"/>
       <c r="L26" s="141"/>
       <c r="M26" s="141"/>
-      <c r="N26" s="366" t="s">
+      <c r="N26" s="391" t="s">
         <v>225</v>
       </c>
-      <c r="O26" s="367"/>
-      <c r="P26" s="367"/>
-      <c r="Q26" s="367"/>
-      <c r="R26" s="367"/>
-      <c r="S26" s="368"/>
-    </row>
-    <row r="27" spans="2:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="357" t="s">
+      <c r="O26" s="392"/>
+      <c r="P26" s="392"/>
+      <c r="Q26" s="392"/>
+      <c r="R26" s="392"/>
+      <c r="S26" s="393"/>
+    </row>
+    <row r="27" spans="2:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="382" t="s">
         <v>202</v>
       </c>
       <c r="C27" s="146"/>
@@ -7108,33 +7131,33 @@
         <v>76</v>
       </c>
       <c r="G27" s="102" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H27" s="108" t="s">
         <v>229</v>
       </c>
       <c r="I27" s="105"/>
       <c r="J27" s="105" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K27" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="L27" s="355" t="s">
+      <c r="L27" s="380" t="s">
         <v>233</v>
       </c>
-      <c r="M27" s="356"/>
-      <c r="N27" s="363"/>
-      <c r="O27" s="355" t="s">
+      <c r="M27" s="381"/>
+      <c r="N27" s="388"/>
+      <c r="O27" s="380" t="s">
         <v>235</v>
       </c>
-      <c r="P27" s="356"/>
-      <c r="Q27" s="356"/>
-      <c r="R27" s="356"/>
-      <c r="S27" s="363"/>
-    </row>
-    <row r="28" spans="2:19" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="358"/>
+      <c r="P27" s="381"/>
+      <c r="Q27" s="381"/>
+      <c r="R27" s="381"/>
+      <c r="S27" s="388"/>
+    </row>
+    <row r="28" spans="2:19" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="383"/>
       <c r="C28" s="147"/>
       <c r="D28" s="147"/>
       <c r="E28" s="106"/>
@@ -7150,21 +7173,21 @@
         <v>95</v>
       </c>
       <c r="K28" s="108" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L28" s="104"/>
-      <c r="M28" s="355" t="s">
-        <v>327</v>
-      </c>
-      <c r="N28" s="356"/>
-      <c r="O28" s="369"/>
+      <c r="M28" s="380" t="s">
+        <v>325</v>
+      </c>
+      <c r="N28" s="381"/>
+      <c r="O28" s="394"/>
       <c r="P28" s="107"/>
       <c r="Q28" s="107"/>
       <c r="R28" s="107"/>
       <c r="S28" s="107"/>
     </row>
-    <row r="29" spans="2:19" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="358"/>
+    <row r="29" spans="2:19" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="383"/>
       <c r="C29" s="147"/>
       <c r="D29" s="147"/>
       <c r="E29" s="111"/>
@@ -7173,22 +7196,22 @@
       <c r="H29" s="107"/>
       <c r="I29" s="108"/>
       <c r="J29" s="108" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K29" s="109"/>
       <c r="L29" s="295"/>
-      <c r="M29" s="364" t="s">
-        <v>363</v>
-      </c>
-      <c r="N29" s="365"/>
+      <c r="M29" s="389" t="s">
+        <v>361</v>
+      </c>
+      <c r="N29" s="390"/>
       <c r="O29" s="107"/>
       <c r="P29" s="107"/>
       <c r="Q29" s="107"/>
       <c r="R29" s="107"/>
       <c r="S29" s="107"/>
     </row>
-    <row r="30" spans="2:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="358"/>
+    <row r="30" spans="2:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="383"/>
       <c r="C30" s="147"/>
       <c r="D30" s="147"/>
       <c r="E30" s="111"/>
@@ -7196,23 +7219,23 @@
       <c r="G30" s="296"/>
       <c r="H30" s="107"/>
       <c r="I30" s="107"/>
-      <c r="J30" s="355" t="s">
-        <v>325</v>
-      </c>
-      <c r="K30" s="356"/>
+      <c r="J30" s="380" t="s">
+        <v>323</v>
+      </c>
+      <c r="K30" s="381"/>
       <c r="L30" s="108"/>
       <c r="M30" s="105"/>
-      <c r="N30" s="355" t="s">
-        <v>320</v>
-      </c>
-      <c r="O30" s="356"/>
-      <c r="P30" s="356"/>
-      <c r="Q30" s="356"/>
-      <c r="R30" s="356"/>
-      <c r="S30" s="363"/>
-    </row>
-    <row r="31" spans="2:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="359"/>
+      <c r="N30" s="380" t="s">
+        <v>318</v>
+      </c>
+      <c r="O30" s="381"/>
+      <c r="P30" s="381"/>
+      <c r="Q30" s="381"/>
+      <c r="R30" s="381"/>
+      <c r="S30" s="388"/>
+    </row>
+    <row r="31" spans="2:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="384"/>
       <c r="C31" s="148"/>
       <c r="D31" s="148"/>
       <c r="E31" s="112"/>
@@ -7231,13 +7254,13 @@
       <c r="R31" s="103"/>
       <c r="S31" s="293"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -7246,19 +7269,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="M7:M8"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="J30:K30"/>
@@ -7274,6 +7284,19 @@
     <mergeCell ref="M23:S23"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="M24:S24"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B22"/>
   </mergeCells>
   <conditionalFormatting sqref="L21">
     <cfRule type="expression" dxfId="27" priority="84">
@@ -7534,36 +7557,36 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.90625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" style="79" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="79" customWidth="1"/>
     <col min="3" max="3" width="31" style="89" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" style="73" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="73" customWidth="1"/>
     <col min="5" max="5" width="31" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.54296875" style="44" customWidth="1"/>
+    <col min="6" max="6" width="48.5546875" style="44" customWidth="1"/>
     <col min="7" max="7" width="51" style="44" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="42" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="42" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="84"/>
       <c r="C1" s="84"/>
       <c r="D1" s="85"/>
       <c r="E1" s="86"/>
       <c r="F1" s="87"/>
     </row>
-    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="394" t="s">
+    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="396" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="395"/>
-      <c r="D2" s="395"/>
-      <c r="E2" s="395"/>
-      <c r="F2" s="395"/>
-      <c r="G2" s="396"/>
-    </row>
-    <row r="3" spans="1:7" s="88" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="397"/>
+      <c r="D2" s="397"/>
+      <c r="E2" s="397"/>
+      <c r="F2" s="397"/>
+      <c r="G2" s="398"/>
+    </row>
+    <row r="3" spans="1:7" s="88" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="207" t="s">
         <v>10</v>
       </c>
@@ -7571,7 +7594,7 @@
         <v>42</v>
       </c>
       <c r="D3" s="209" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E3" s="208" t="s">
         <v>3</v>
@@ -7583,7 +7606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="213" t="s">
         <v>102</v>
       </c>
@@ -7598,7 +7621,7 @@
       <c r="F4" s="55"/>
       <c r="G4" s="328"/>
     </row>
-    <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="221" t="s">
         <v>103</v>
       </c>
@@ -7611,11 +7634,11 @@
         <v>143</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G5" s="153"/>
     </row>
-    <row r="6" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="222" t="s">
         <v>105</v>
       </c>
@@ -7628,18 +7651,18 @@
         <v>204</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G6" s="329"/>
     </row>
-    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="223"/>
       <c r="C7" s="76"/>
       <c r="D7" s="72"/>
       <c r="E7" s="80"/>
       <c r="G7" s="46"/>
     </row>
-    <row r="8" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="224" t="s">
         <v>106</v>
       </c>
@@ -7654,7 +7677,7 @@
       <c r="F8" s="55"/>
       <c r="G8" s="328"/>
     </row>
-    <row r="9" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="221" t="s">
         <v>107</v>
       </c>
@@ -7673,7 +7696,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="225" t="s">
         <v>108</v>
       </c>
@@ -7683,14 +7706,14 @@
       </c>
       <c r="D10" s="77"/>
       <c r="E10" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="44" t="s">
-        <v>253</v>
-      </c>
       <c r="G10" s="331"/>
     </row>
-    <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="71"/>
       <c r="B11" s="222" t="s">
         <v>109</v>
@@ -7701,79 +7724,79 @@
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="F11" s="45" t="s">
-        <v>255</v>
-      </c>
       <c r="G11" s="329"/>
     </row>
-    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="226"/>
       <c r="D12" s="81"/>
       <c r="E12" s="80"/>
       <c r="G12" s="46"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="78"/>
       <c r="E13" s="80"/>
       <c r="G13" s="46"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="78"/>
       <c r="E14" s="80"/>
       <c r="G14" s="46"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="71"/>
       <c r="C15" s="78"/>
       <c r="E15" s="80"/>
       <c r="G15" s="46"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="78"/>
       <c r="E16" s="80"/>
       <c r="G16" s="46"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="71"/>
       <c r="C17" s="78"/>
       <c r="E17" s="80"/>
       <c r="G17" s="46"/>
     </row>
-    <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C18" s="78"/>
-      <c r="D18" s="393"/>
+      <c r="D18" s="395"/>
       <c r="E18" s="80"/>
       <c r="G18" s="46"/>
     </row>
-    <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C19" s="78"/>
-      <c r="D19" s="393"/>
+      <c r="D19" s="395"/>
       <c r="E19" s="80"/>
       <c r="G19" s="46"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" s="78"/>
       <c r="G20" s="46"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" s="78"/>
       <c r="G21" s="46"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" s="78"/>
       <c r="G22" s="46"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="78"/>
       <c r="G23" s="46"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" s="78"/>
       <c r="G24" s="46"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" s="78"/>
     </row>
   </sheetData>
@@ -7925,30 +7948,30 @@
       <selection activeCell="F17" sqref="F17:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.90625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="21" customWidth="1"/>
     <col min="2" max="2" width="9" style="32"/>
-    <col min="3" max="3" width="20.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="39.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.453125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="44.36328125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.44140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" style="21" customWidth="1"/>
     <col min="8" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="399" t="s">
+    <row r="1" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="409" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="401"/>
-    </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="410"/>
+      <c r="D2" s="410"/>
+      <c r="E2" s="410"/>
+      <c r="F2" s="410"/>
+      <c r="G2" s="411"/>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="240" t="s">
         <v>10</v>
       </c>
@@ -7956,7 +7979,7 @@
         <v>42</v>
       </c>
       <c r="D3" s="242" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E3" s="243" t="s">
         <v>3</v>
@@ -7968,7 +7991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="85.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="215" t="s">
         <v>90</v>
       </c>
@@ -7978,11 +8001,11 @@
       <c r="D4" s="48"/>
       <c r="E4" s="49"/>
       <c r="F4" s="196" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G4" s="321"/>
     </row>
-    <row r="5" spans="1:7" ht="143" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
       <c r="B5" s="267" t="s">
         <v>77</v>
       </c>
@@ -7995,11 +8018,11 @@
         <v>206</v>
       </c>
       <c r="F5" s="194" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G5" s="322"/>
     </row>
-    <row r="6" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="B6" s="267" t="s">
         <v>78</v>
       </c>
@@ -8009,85 +8032,85 @@
       </c>
       <c r="D6" s="190"/>
       <c r="E6" s="195" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F6" s="194" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G6" s="323" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="398" t="s">
+    <row r="7" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="403" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="397">
+      <c r="C7" s="402">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D7" s="402"/>
-      <c r="E7" s="404" t="s">
-        <v>342</v>
-      </c>
-      <c r="F7" s="403" t="s">
-        <v>260</v>
+      <c r="D7" s="401"/>
+      <c r="E7" s="400" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="399" t="s">
+        <v>259</v>
       </c>
       <c r="G7" s="323" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="398"/>
-      <c r="C8" s="397"/>
-      <c r="D8" s="402"/>
-      <c r="E8" s="404"/>
-      <c r="F8" s="403"/>
+    <row r="8" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="403"/>
+      <c r="C8" s="402"/>
+      <c r="D8" s="401"/>
+      <c r="E8" s="400"/>
+      <c r="F8" s="399"/>
       <c r="G8" s="323" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="28" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
-      <c r="B9" s="398"/>
-      <c r="C9" s="397"/>
-      <c r="D9" s="402"/>
-      <c r="E9" s="404"/>
-      <c r="F9" s="403"/>
+      <c r="B9" s="403"/>
+      <c r="C9" s="402"/>
+      <c r="D9" s="401"/>
+      <c r="E9" s="400"/>
+      <c r="F9" s="399"/>
       <c r="G9" s="323" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="169.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="398" t="s">
+    <row r="10" spans="1:7" ht="169.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="403" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="397">
+      <c r="C10" s="402">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D10" s="402"/>
-      <c r="E10" s="404" t="s">
+      <c r="D10" s="401"/>
+      <c r="E10" s="400" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="403" t="s">
-        <v>365</v>
+      <c r="F10" s="399" t="s">
+        <v>363</v>
       </c>
       <c r="G10" s="324" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="169.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="398"/>
-      <c r="C11" s="397"/>
-      <c r="D11" s="402"/>
-      <c r="E11" s="404"/>
-      <c r="F11" s="403"/>
+    <row r="11" spans="1:7" ht="169.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="403"/>
+      <c r="C11" s="402"/>
+      <c r="D11" s="401"/>
+      <c r="E11" s="400"/>
+      <c r="F11" s="399"/>
       <c r="G11" s="324" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="218" t="s">
         <v>81</v>
       </c>
@@ -8100,19 +8123,19 @@
         <v>124</v>
       </c>
       <c r="F12" s="183" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G12" s="325" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="219"/>
       <c r="E13" s="25"/>
       <c r="F13" s="12"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" ht="55.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="220" t="s">
         <v>83</v>
       </c>
@@ -8125,11 +8148,11 @@
       </c>
       <c r="E14" s="50"/>
       <c r="F14" s="196" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G14" s="321"/>
     </row>
-    <row r="15" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="217" t="s">
         <v>82</v>
       </c>
@@ -8139,7 +8162,7 @@
       </c>
       <c r="D15" s="182"/>
       <c r="E15" s="68" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F15" s="247" t="s">
         <v>6</v>
@@ -8148,7 +8171,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="216" t="s">
         <v>148</v>
       </c>
@@ -8161,54 +8184,54 @@
         <v>152</v>
       </c>
       <c r="F16" s="192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G16" s="326" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="398" t="s">
+    <row r="17" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="403" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="397">
+      <c r="C17" s="402">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D17" s="402"/>
-      <c r="E17" s="404" t="s">
+      <c r="D17" s="401"/>
+      <c r="E17" s="400" t="s">
         <v>209</v>
       </c>
-      <c r="F17" s="403" t="s">
-        <v>366</v>
+      <c r="F17" s="399" t="s">
+        <v>364</v>
       </c>
       <c r="G17" s="326" t="s">
         <v>154</v>
       </c>
       <c r="K17" s="200"/>
     </row>
-    <row r="18" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="398"/>
-      <c r="C18" s="397"/>
-      <c r="D18" s="402"/>
-      <c r="E18" s="404"/>
-      <c r="F18" s="403"/>
+    <row r="18" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="403"/>
+      <c r="C18" s="402"/>
+      <c r="D18" s="401"/>
+      <c r="E18" s="400"/>
+      <c r="F18" s="399"/>
       <c r="G18" s="326" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="410"/>
-      <c r="C19" s="409"/>
-      <c r="D19" s="408"/>
-      <c r="E19" s="407"/>
-      <c r="F19" s="406"/>
+    <row r="19" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="408"/>
+      <c r="C19" s="407"/>
+      <c r="D19" s="406"/>
+      <c r="E19" s="405"/>
+      <c r="F19" s="404"/>
       <c r="G19" s="327" t="s">
         <v>156</v>
       </c>
       <c r="K19" s="200"/>
     </row>
-    <row r="20" spans="1:11" s="28" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" s="28" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31"/>
       <c r="B20" s="219"/>
       <c r="C20" s="35"/>
@@ -8217,7 +8240,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="249" t="s">
         <v>84</v>
       </c>
@@ -8232,7 +8255,7 @@
       <c r="F21" s="181"/>
       <c r="G21" s="69"/>
     </row>
-    <row r="22" spans="1:11" ht="91" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="B22" s="217" t="s">
         <v>86</v>
       </c>
@@ -8242,16 +8265,16 @@
       </c>
       <c r="D22" s="182"/>
       <c r="E22" s="180" t="s">
+        <v>262</v>
+      </c>
+      <c r="F22" s="181" t="s">
         <v>263</v>
-      </c>
-      <c r="F22" s="181" t="s">
-        <v>264</v>
       </c>
       <c r="G22" s="69" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="28" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" s="28" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="280" t="s">
         <v>85</v>
@@ -8265,79 +8288,79 @@
         <v>9</v>
       </c>
       <c r="F23" s="273" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G23" s="184"/>
     </row>
-    <row r="24" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="398" t="s">
+    <row r="24" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="403" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="397">
+      <c r="C24" s="402">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D24" s="402"/>
-      <c r="E24" s="405" t="s">
+      <c r="D24" s="401"/>
+      <c r="E24" s="412" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="403" t="s">
-        <v>266</v>
+      <c r="F24" s="399" t="s">
+        <v>265</v>
       </c>
       <c r="G24" s="184" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="398"/>
-      <c r="C25" s="397"/>
-      <c r="D25" s="402"/>
-      <c r="E25" s="405"/>
-      <c r="F25" s="403"/>
+    <row r="25" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="403"/>
+      <c r="C25" s="402"/>
+      <c r="D25" s="401"/>
+      <c r="E25" s="412"/>
+      <c r="F25" s="399"/>
       <c r="G25" s="184" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="398"/>
-      <c r="C26" s="397"/>
-      <c r="D26" s="402"/>
-      <c r="E26" s="405"/>
-      <c r="F26" s="403"/>
+    <row r="26" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="403"/>
+      <c r="C26" s="402"/>
+      <c r="D26" s="401"/>
+      <c r="E26" s="412"/>
+      <c r="F26" s="399"/>
       <c r="G26" s="184" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="398" t="s">
+    <row r="27" spans="1:11" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="403" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="397">
+      <c r="C27" s="402">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D27" s="402"/>
-      <c r="E27" s="404" t="s">
+      <c r="D27" s="401"/>
+      <c r="E27" s="400" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="403" t="s">
-        <v>267</v>
+      <c r="F27" s="399" t="s">
+        <v>266</v>
       </c>
       <c r="G27" s="326" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="398"/>
-      <c r="C28" s="397"/>
-      <c r="D28" s="402"/>
-      <c r="E28" s="404"/>
-      <c r="F28" s="403"/>
+    <row r="28" spans="1:11" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="403"/>
+      <c r="C28" s="402"/>
+      <c r="D28" s="401"/>
+      <c r="E28" s="400"/>
+      <c r="F28" s="399"/>
       <c r="G28" s="326" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="280" t="s">
         <v>158</v>
       </c>
@@ -8350,13 +8373,13 @@
         <v>215</v>
       </c>
       <c r="F29" s="284" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G29" s="326" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="281" t="s">
         <v>159</v>
       </c>
@@ -8369,19 +8392,19 @@
         <v>7</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="219"/>
       <c r="E31" s="26"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="220" t="s">
         <v>88</v>
       </c>
@@ -8394,11 +8417,11 @@
       </c>
       <c r="E32" s="52"/>
       <c r="F32" s="197" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G32" s="51"/>
     </row>
-    <row r="33" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="218" t="s">
         <v>89</v>
       </c>
@@ -8411,341 +8434,331 @@
         <v>12</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G33" s="332"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="219"/>
       <c r="E34" s="24"/>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="219"/>
       <c r="E35" s="21"/>
       <c r="G35" s="22"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="219"/>
       <c r="E36" s="21"/>
       <c r="G36" s="22"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="219"/>
       <c r="E37" s="21"/>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="219"/>
       <c r="E38" s="21"/>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E39" s="21"/>
       <c r="G39" s="22"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E40" s="21"/>
       <c r="G40" s="22"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E41" s="21"/>
       <c r="G41" s="22"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E42" s="21"/>
       <c r="G42" s="22"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E43" s="21"/>
       <c r="G43" s="22"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E44" s="21"/>
       <c r="G44" s="22"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E45" s="21"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E46" s="21"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E47" s="21"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="21"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="21"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="21"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E53" s="21"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E54" s="21"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E55" s="22"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E56" s="22"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E57" s="22"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E58" s="22"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E59" s="22"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E60" s="22"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E61" s="22"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E62" s="22"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E63" s="22"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E64" s="22"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E65" s="22"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E66" s="22"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E67" s="22"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E68" s="22"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E69" s="22"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E70" s="22"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E71" s="22"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E72" s="22"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E73" s="22"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E74" s="22"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E75" s="22"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E76" s="22"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E77" s="22"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E78" s="22"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E79" s="22"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E80" s="22"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E81" s="22"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E82" s="22"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E83" s="22"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E84" s="22"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E85" s="22"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E86" s="22"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E87" s="22"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E88" s="22"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E89" s="22"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E90" s="22"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E91" s="22"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E92" s="22"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E93" s="22"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E94" s="22"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E95" s="22"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E96" s="22"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E97" s="22"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E98" s="22"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E99" s="22"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E100" s="22"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E101" s="22"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E102" s="22"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E103" s="22"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E104" s="22"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E105" s="22"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E106" s="22"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E107" s="22"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E108" s="22"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E109" s="22"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E110" s="22"/>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E111" s="22"/>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E112" s="22"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E113" s="22"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E114" s="22"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E115" s="22"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E116" s="22"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E117" s="22"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E118" s="22"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E119" s="22"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E120" s="22"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E121" s="22"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E122" s="22"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E123" s="22"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E124" s="22"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E125" s="22"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E126" s="22"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E127" s="22"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E128" s="22"/>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" s="22"/>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" s="22"/>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" s="22"/>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E132" s="22"/>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E133" s="22"/>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E134" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B2:G2"/>
@@ -8762,6 +8775,16 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Validation Error" error="Please select appropriate status from the list." promptTitle="Task Status" prompt="Please select the status of this task from the list." sqref="D15:D17 D33 D22:D25 D5:D7 D10:D12 D27 D29:D30" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -8983,35 +9006,35 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.90625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="21" customWidth="1"/>
     <col min="2" max="2" width="9" style="33"/>
-    <col min="3" max="3" width="25.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="65" customWidth="1"/>
-    <col min="5" max="5" width="39.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.36328125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="45.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.33203125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="45.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="32"/>
       <c r="C1" s="35"/>
       <c r="D1" s="30"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="399" t="s">
+    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="409" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="401"/>
-    </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="410"/>
+      <c r="D2" s="410"/>
+      <c r="E2" s="410"/>
+      <c r="F2" s="410"/>
+      <c r="G2" s="411"/>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="207" t="s">
         <v>10</v>
       </c>
@@ -9019,7 +9042,7 @@
         <v>42</v>
       </c>
       <c r="D3" s="209" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E3" s="208" t="s">
         <v>3</v>
@@ -9031,7 +9054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="249" t="s">
         <v>43</v>
       </c>
@@ -9046,7 +9069,7 @@
       <c r="F4" s="181"/>
       <c r="G4" s="251"/>
     </row>
-    <row r="5" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="217" t="s">
         <v>44</v>
       </c>
@@ -9056,16 +9079,16 @@
       </c>
       <c r="D5" s="202"/>
       <c r="E5" s="341" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F5" s="193" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G5" s="201" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="31" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="31" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
       <c r="B6" s="280" t="s">
         <v>163</v>
@@ -9076,16 +9099,16 @@
       </c>
       <c r="D6" s="285"/>
       <c r="E6" s="282" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F6" s="273" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G6" s="252" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="31" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="31" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="280" t="s">
         <v>165</v>
@@ -9099,53 +9122,53 @@
         <v>164</v>
       </c>
       <c r="F7" s="273" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G7" s="248" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
-      <c r="B8" s="398" t="s">
+      <c r="B8" s="403" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="397">
+      <c r="C8" s="402">
         <f t="shared" ref="C8:C17" si="0">IF(D8="Yes",0,IF(D8="No",2,IF(D8="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D8" s="415"/>
-      <c r="E8" s="413" t="s">
-        <v>279</v>
-      </c>
-      <c r="F8" s="412" t="s">
-        <v>281</v>
+      <c r="D8" s="417"/>
+      <c r="E8" s="415" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="414" t="s">
+        <v>280</v>
       </c>
       <c r="G8" s="283" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="31" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="398"/>
-      <c r="C9" s="397"/>
-      <c r="D9" s="415"/>
-      <c r="E9" s="414"/>
-      <c r="F9" s="412"/>
+    <row r="9" spans="1:7" s="31" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="403"/>
+      <c r="C9" s="402"/>
+      <c r="D9" s="417"/>
+      <c r="E9" s="416"/>
+      <c r="F9" s="414"/>
       <c r="G9" s="283" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="31" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="398"/>
-      <c r="C10" s="397"/>
-      <c r="D10" s="415"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="412"/>
+    <row r="10" spans="1:7" s="31" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="403"/>
+      <c r="C10" s="402"/>
+      <c r="D10" s="417"/>
+      <c r="E10" s="416"/>
+      <c r="F10" s="414"/>
       <c r="G10" s="283" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="280" t="s">
         <v>169</v>
       </c>
@@ -9164,7 +9187,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="31" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="31" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="280" t="s">
         <v>170</v>
@@ -9175,16 +9198,16 @@
       </c>
       <c r="D12" s="285"/>
       <c r="E12" s="342" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F12" s="273" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G12" s="283" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B13" s="280" t="s">
         <v>171</v>
       </c>
@@ -9194,16 +9217,16 @@
       </c>
       <c r="D13" s="285"/>
       <c r="E13" s="344" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G13" s="283" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="280" t="s">
         <v>172</v>
       </c>
@@ -9222,7 +9245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="280" t="s">
         <v>173</v>
@@ -9233,7 +9256,7 @@
       </c>
       <c r="D15" s="285"/>
       <c r="E15" s="342" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F15" s="284" t="s">
         <v>134</v>
@@ -9242,7 +9265,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="280" t="s">
         <v>174</v>
       </c>
@@ -9252,16 +9275,16 @@
       </c>
       <c r="D16" s="285"/>
       <c r="E16" s="342" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F16" s="284" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G16" s="184" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31"/>
       <c r="B17" s="281" t="s">
         <v>175</v>
@@ -9272,268 +9295,268 @@
       </c>
       <c r="D17" s="253"/>
       <c r="E17" s="343" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" s="183" t="s">
         <v>291</v>
-      </c>
-      <c r="F17" s="183" t="s">
-        <v>292</v>
       </c>
       <c r="G17" s="333" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="228"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="32"/>
     </row>
-    <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D22" s="411"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D22" s="413"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="32"/>
-      <c r="D23" s="411"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D23" s="413"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="32"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="32"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="32"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="32"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="32"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="32"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="32"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="32"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="32"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="32"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="32"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="32"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="32"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="32"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="32"/>
       <c r="D38" s="185"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="32"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="32"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="32"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="32"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="32"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="32"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="32"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="32"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="32"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="32"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="32"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="32"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="32"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="32"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="32"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="32"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="32"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="32"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="32"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="32"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="32"/>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="32"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="32"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="32"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="32"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="32"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="32"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="32"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="32"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="32"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="32"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="32"/>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="32"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="32"/>
       <c r="E72" s="16"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="32"/>
       <c r="E73" s="16"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="32"/>
       <c r="E74" s="16"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="32"/>
       <c r="E75" s="16"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="32"/>
       <c r="E76" s="16"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="32"/>
       <c r="E77" s="16"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="32"/>
       <c r="E78" s="16"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="32"/>
       <c r="E79" s="16"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="32"/>
       <c r="E80" s="16"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="32"/>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="32"/>
       <c r="E82" s="16"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="32"/>
       <c r="E83" s="16"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="32"/>
       <c r="E84" s="16"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="32"/>
       <c r="E85" s="16"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="32"/>
       <c r="E86" s="16"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="32"/>
       <c r="E87" s="16"/>
     </row>
@@ -9697,41 +9720,41 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.90625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="21" customWidth="1"/>
     <col min="2" max="2" width="9" style="32"/>
-    <col min="3" max="3" width="19.90625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="65" customWidth="1"/>
-    <col min="5" max="5" width="39.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.453125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="64.453125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="65" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.44140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="64.44140625" style="21" customWidth="1"/>
     <col min="8" max="9" width="9" style="21"/>
     <col min="10" max="10" width="9" style="118"/>
     <col min="11" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="35"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="399" t="s">
+    <row r="2" spans="1:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="409" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="401"/>
-    </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="410"/>
+      <c r="D2" s="410"/>
+      <c r="E2" s="410"/>
+      <c r="F2" s="410"/>
+      <c r="G2" s="411"/>
+    </row>
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="207" t="s">
         <v>10</v>
       </c>
@@ -9739,7 +9762,7 @@
         <v>42</v>
       </c>
       <c r="D3" s="209" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E3" s="208" t="s">
         <v>3</v>
@@ -9752,7 +9775,7 @@
       </c>
       <c r="J3" s="119"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="220" t="s">
         <v>45</v>
       </c>
@@ -9760,144 +9783,136 @@
         <v>14</v>
       </c>
       <c r="D4" s="48">
-        <f>MAX(C5:C6)</f>
+        <f>MAX(C5:C7)</f>
         <v>1</v>
       </c>
       <c r="E4" s="49"/>
       <c r="F4" s="40"/>
       <c r="G4" s="41"/>
     </row>
-    <row r="5" spans="1:10" ht="169" x14ac:dyDescent="0.35">
-      <c r="B5" s="217" t="s">
+    <row r="5" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="439" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="188">
-        <f t="shared" ref="C5:C6" si="0">IF(D5="Yes",0,IF(D5="No",2,IF(D5="Not Applicable","",1)))</f>
+      <c r="C5" s="438">
+        <f t="shared" ref="C5:C7" si="0">IF(D5="Yes",0,IF(D5="No",2,IF(D5="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D5" s="202"/>
-      <c r="E5" s="341" t="s">
-        <v>293</v>
-      </c>
-      <c r="F5" s="193" t="s">
-        <v>295</v>
-      </c>
-      <c r="G5" s="69" t="s">
+      <c r="D5" s="437"/>
+      <c r="E5" s="436" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="435" t="s">
+        <v>365</v>
+      </c>
+      <c r="G5" s="350" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="218" t="s">
+    <row r="6" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="403"/>
+      <c r="C6" s="402"/>
+      <c r="D6" s="417"/>
+      <c r="E6" s="415"/>
+      <c r="F6" s="414"/>
+      <c r="G6" s="351" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="76.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="349" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="187">
+      <c r="C7" s="348">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="343" t="s">
+      <c r="D7" s="253"/>
+      <c r="E7" s="343" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="G7" s="254" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="228"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="220" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="227" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="48">
+        <f>MAX(C10:C16)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:10" ht="138" x14ac:dyDescent="0.3">
+      <c r="B10" s="217" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="188">
+        <f t="shared" ref="C10:C16" si="1">IF(D10="Yes",0,IF(D10="No",2,IF(D10="Not Applicable","",1)))</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="345" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="193" t="s">
         <v>298</v>
       </c>
-      <c r="G6" s="254" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="228"/>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="220" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="227" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" s="48">
-        <f>MAX(C9:C15)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:10" ht="130" x14ac:dyDescent="0.35">
-      <c r="B9" s="217" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="188">
-        <f t="shared" ref="C9:C15" si="1">IF(D9="Yes",0,IF(D9="No",2,IF(D9="Not Applicable","",1)))</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="345" t="s">
-        <v>350</v>
-      </c>
-      <c r="F9" s="193" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9" s="416" t="s">
+      <c r="G10" s="418" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="216" t="s">
+    <row r="11" spans="1:10" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="216" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="189">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="342" t="s">
-        <v>353</v>
-      </c>
-      <c r="F10" s="194" t="s">
-        <v>301</v>
-      </c>
-      <c r="G10" s="417"/>
-    </row>
-    <row r="11" spans="1:10" ht="176.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="216" t="s">
-        <v>51</v>
       </c>
       <c r="C11" s="189">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D11" s="66"/>
-      <c r="E11" s="198" t="s">
-        <v>179</v>
+      <c r="E11" s="342" t="s">
+        <v>351</v>
       </c>
       <c r="F11" s="194" t="s">
-        <v>302</v>
-      </c>
-      <c r="G11" s="43"/>
-    </row>
-    <row r="12" spans="1:10" ht="208" x14ac:dyDescent="0.45">
+        <v>299</v>
+      </c>
+      <c r="G11" s="419"/>
+    </row>
+    <row r="12" spans="1:10" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="216" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="189">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D12" s="66"/>
-      <c r="E12" s="152" t="s">
-        <v>15</v>
+      <c r="E12" s="198" t="s">
+        <v>179</v>
       </c>
       <c r="F12" s="194" t="s">
-        <v>303</v>
-      </c>
-      <c r="G12" s="334"/>
-    </row>
-    <row r="13" spans="1:10" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
+        <v>300</v>
+      </c>
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" spans="1:10" ht="220.8" x14ac:dyDescent="0.35">
       <c r="B13" s="216" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="189">
         <f t="shared" si="1"/>
@@ -9905,144 +9920,168 @@
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="194" t="s">
-        <v>304</v>
-      </c>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+      <c r="G13" s="334"/>
+    </row>
+    <row r="14" spans="1:10" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="216" t="s">
-        <v>222</v>
+        <v>53</v>
       </c>
       <c r="C14" s="189">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D14" s="66"/>
-      <c r="E14" s="340" t="s">
-        <v>336</v>
+      <c r="E14" s="152" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="194" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="187">
+    <row r="15" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="216" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="189">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D15" s="255"/>
-      <c r="E15" s="206" t="s">
-        <v>352</v>
-      </c>
-      <c r="F15" s="183"/>
-      <c r="G15" s="254"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="228"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D17" s="117"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="115"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="340" t="s">
+        <v>334</v>
+      </c>
+      <c r="F15" s="194" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="218" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="187">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="255"/>
+      <c r="E16" s="206" t="s">
+        <v>350</v>
+      </c>
+      <c r="F16" s="183"/>
+      <c r="G16" s="254"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="228"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="117"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="115"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G21" s="2"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="22"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" s="22"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E41" s="22"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="22"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E48" s="22"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="22"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="22"/>
     </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Validation Error" error="Please select appropriate status from the list." promptTitle="Task Status" prompt="Please select the status of this task from the list." sqref="D5:D6 D9:D15" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Validation Error" error="Please select appropriate status from the list." promptTitle="Task Status" prompt="Please select the status of this task from the list." sqref="D10:D16 D5 D7" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>_Completion_Status</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="G7" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
     <hyperlink ref="G5" r:id="rId2" xr:uid="{F1605408-0052-447F-B99C-268551B5CFF6}"/>
-    <hyperlink ref="G9" r:id="rId3" xr:uid="{A04FF89D-F5D0-4306-A39A-73F1D85470B2}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{A04FF89D-F5D0-4306-A39A-73F1D85470B2}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{A87698AE-8C90-443A-8648-CDFE0DD20C64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -10063,7 +10102,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C16:C990 C3:C4 C7:C8</xm:sqref>
+          <xm:sqref>C17:C991 C3:C4 C8:C9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="19" id="{61F52F1B-F3C7-46C2-9E92-25986D0503F7}">
@@ -10101,7 +10140,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>D8</xm:sqref>
+          <xm:sqref>D9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="14" id="{25C5F5D0-9A72-45A5-9967-F8E90B8E0F02}">
@@ -10139,7 +10178,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C6</xm:sqref>
+          <xm:sqref>C7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="12" id="{A47A37B5-4CFD-418C-8CD7-E897E5D36FA2}">
@@ -10158,7 +10197,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9</xm:sqref>
+          <xm:sqref>C10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="141" id="{5A689BC8-C014-4F29-9708-77EEB70C66B4}">
@@ -10177,7 +10216,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C10:C15</xm:sqref>
+          <xm:sqref>C11:C16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10192,39 +10231,37 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.90625" style="155" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="155" customWidth="1"/>
     <col min="2" max="2" width="9" style="171"/>
-    <col min="3" max="3" width="22.90625" style="172" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="173" customWidth="1"/>
-    <col min="5" max="5" width="39.453125" style="174" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.453125" style="160" customWidth="1"/>
-    <col min="7" max="7" width="48.36328125" style="160" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="172" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="173" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" style="174" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.44140625" style="160" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" style="160" customWidth="1"/>
     <col min="8" max="16384" width="9" style="160"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="155" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="155" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="156"/>
       <c r="C1" s="157"/>
       <c r="D1" s="158"/>
       <c r="E1" s="159"/>
     </row>
-    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="418" t="s">
+    <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="420" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="419"/>
-      <c r="D2" s="419"/>
-      <c r="E2" s="419"/>
-      <c r="F2" s="419"/>
-      <c r="G2" s="420"/>
-    </row>
-    <row r="3" spans="1:7" s="161" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="421"/>
+      <c r="D2" s="421"/>
+      <c r="E2" s="421"/>
+      <c r="F2" s="421"/>
+      <c r="G2" s="422"/>
+    </row>
+    <row r="3" spans="1:7" s="161" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="229" t="s">
         <v>10</v>
       </c>
@@ -10232,7 +10269,7 @@
         <v>42</v>
       </c>
       <c r="D3" s="209" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E3" s="230" t="s">
         <v>3</v>
@@ -10244,7 +10281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="232" t="s">
         <v>55</v>
       </c>
@@ -10259,7 +10296,7 @@
       <c r="F4" s="164"/>
       <c r="G4" s="165"/>
     </row>
-    <row r="5" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B5" s="233" t="s">
         <v>56</v>
       </c>
@@ -10268,17 +10305,17 @@
         <v>1</v>
       </c>
       <c r="D5" s="167"/>
-      <c r="E5" s="349" t="s">
+      <c r="E5" s="347" t="s">
         <v>223</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="G5" s="347" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" s="324" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="233" t="s">
         <v>57</v>
       </c>
@@ -10291,13 +10328,13 @@
         <v>226</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="G6" s="347" t="s">
+        <v>305</v>
+      </c>
+      <c r="G6" s="324" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="234" t="s">
         <v>127</v>
       </c>
@@ -10310,19 +10347,17 @@
         <v>227</v>
       </c>
       <c r="F7" s="199" t="s">
-        <v>308</v>
-      </c>
-      <c r="G7" s="348" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+      <c r="G7" s="434"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G14" s="177"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="175"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="175"/>
     </row>
   </sheetData>
@@ -10334,8 +10369,12 @@
       <formula1>_Completion_Status</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{AF591578-0EE0-4AC2-A72F-B4073E678DC5}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{BD0DBFD7-DE10-4E33-ABD0-BCED2023B2D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -10451,35 +10490,35 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.90625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="21" customWidth="1"/>
     <col min="2" max="2" width="9" style="34"/>
-    <col min="3" max="3" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="62" customWidth="1"/>
-    <col min="5" max="5" width="39.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="50.36328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="50.33203125" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="21" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="32"/>
       <c r="C1" s="35"/>
       <c r="D1" s="30"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="418" t="s">
+    <row r="2" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="420" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="419"/>
-      <c r="D2" s="419"/>
-      <c r="E2" s="419"/>
-      <c r="F2" s="419"/>
-      <c r="G2" s="420"/>
-    </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="421"/>
+      <c r="D2" s="421"/>
+      <c r="E2" s="421"/>
+      <c r="F2" s="421"/>
+      <c r="G2" s="422"/>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="207" t="s">
         <v>10</v>
       </c>
@@ -10487,7 +10526,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="209" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E3" s="208" t="s">
         <v>3</v>
@@ -10499,7 +10538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="236" t="s">
         <v>58</v>
       </c>
@@ -10514,7 +10553,7 @@
       <c r="F4" s="57"/>
       <c r="G4" s="58"/>
     </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="237" t="s">
         <v>59</v>
@@ -10528,16 +10567,16 @@
         <v>135</v>
       </c>
       <c r="F5" s="204" t="s">
-        <v>310</v>
-      </c>
-      <c r="G5" s="423" t="s">
+        <v>308</v>
+      </c>
+      <c r="G5" s="425" t="s">
         <v>186</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
       <c r="B6" s="269" t="s">
         <v>60</v>
@@ -10548,14 +10587,14 @@
       </c>
       <c r="D6" s="265"/>
       <c r="E6" s="344" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="G6" s="424"/>
-    </row>
-    <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+      <c r="G6" s="426"/>
+    </row>
+    <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
       <c r="B7" s="269" t="s">
         <v>61</v>
@@ -10568,14 +10607,14 @@
       <c r="E7" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="421" t="s">
-        <v>312</v>
-      </c>
-      <c r="G7" s="424" t="s">
+      <c r="F7" s="423" t="s">
+        <v>310</v>
+      </c>
+      <c r="G7" s="426" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31"/>
       <c r="B8" s="270" t="s">
         <v>97</v>
@@ -10586,16 +10625,16 @@
       </c>
       <c r="D8" s="271"/>
       <c r="E8" s="346" t="s">
-        <v>359</v>
-      </c>
-      <c r="F8" s="422"/>
-      <c r="G8" s="425"/>
-    </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+        <v>357</v>
+      </c>
+      <c r="F8" s="424"/>
+      <c r="G8" s="427"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="238"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="239" t="s">
         <v>62</v>
       </c>
@@ -10610,7 +10649,7 @@
       <c r="F10" s="55"/>
       <c r="G10" s="56"/>
     </row>
-    <row r="11" spans="1:11" ht="65" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="69" x14ac:dyDescent="0.3">
       <c r="B11" s="237" t="s">
         <v>63</v>
       </c>
@@ -10623,11 +10662,11 @@
         <v>22</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G11" s="58"/>
     </row>
-    <row r="12" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="286" t="s">
         <v>64</v>
       </c>
@@ -10637,16 +10676,16 @@
       </c>
       <c r="D12" s="272"/>
       <c r="E12" s="344" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="G12" s="424" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" s="426" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="286" t="s">
         <v>65</v>
       </c>
@@ -10659,11 +10698,11 @@
         <v>21</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="G13" s="424"/>
-    </row>
-    <row r="14" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+      <c r="G13" s="426"/>
+    </row>
+    <row r="14" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="287" t="s">
         <v>66</v>
       </c>
@@ -10673,19 +10712,19 @@
       </c>
       <c r="D14" s="288"/>
       <c r="E14" s="346" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="238"/>
       <c r="E15" s="11"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="49.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31"/>
       <c r="B16" s="239" t="s">
         <v>67</v>
@@ -10701,7 +10740,7 @@
       <c r="F16" s="55"/>
       <c r="G16" s="336"/>
     </row>
-    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="237" t="s">
         <v>68</v>
       </c>
@@ -10714,13 +10753,13 @@
         <v>20</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="G17" s="423" t="s">
+        <v>315</v>
+      </c>
+      <c r="G17" s="425" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="233" t="s">
         <v>69</v>
@@ -10734,11 +10773,11 @@
         <v>231</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>318</v>
-      </c>
-      <c r="G18" s="424"/>
-    </row>
-    <row r="19" spans="1:7" ht="52" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+      <c r="G18" s="426"/>
+    </row>
+    <row r="19" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B19" s="233" t="s">
         <v>70</v>
       </c>
@@ -10748,14 +10787,14 @@
       </c>
       <c r="D19" s="186"/>
       <c r="E19" s="344" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="F19" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="G19" s="424"/>
-    </row>
-    <row r="20" spans="1:7" ht="78.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G19" s="426"/>
+    </row>
+    <row r="20" spans="1:7" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="234" t="s">
         <v>71</v>
       </c>
@@ -10768,17 +10807,17 @@
         <v>136</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G20" s="337" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="238"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:7" s="160" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" s="160" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="175"/>
       <c r="B22" s="239" t="s">
         <v>72</v>
@@ -10794,7 +10833,7 @@
       <c r="F22" s="164"/>
       <c r="G22" s="56"/>
     </row>
-    <row r="23" spans="1:7" s="160" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="160" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="155"/>
       <c r="B23" s="237" t="s">
         <v>73</v>
@@ -10805,16 +10844,16 @@
       </c>
       <c r="D23" s="256"/>
       <c r="E23" s="341" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F23" s="193" t="s">
-        <v>323</v>
-      </c>
-      <c r="G23" s="423" t="s">
+        <v>321</v>
+      </c>
+      <c r="G23" s="425" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="160" customFormat="1" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" s="160" customFormat="1" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="155"/>
       <c r="B24" s="234" t="s">
         <v>74</v>
@@ -10830,13 +10869,13 @@
       <c r="F24" s="257" t="s">
         <v>190</v>
       </c>
-      <c r="G24" s="425"/>
-    </row>
-    <row r="25" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G24" s="427"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="238"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="236" t="s">
         <v>192</v>
       </c>
@@ -10851,7 +10890,7 @@
       <c r="F26" s="57"/>
       <c r="G26" s="58"/>
     </row>
-    <row r="27" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="237" t="s">
         <v>193</v>
       </c>
@@ -10861,265 +10900,265 @@
       </c>
       <c r="D27" s="151"/>
       <c r="E27" s="345" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F27" s="57" t="s">
         <v>137</v>
       </c>
       <c r="G27" s="58"/>
     </row>
-    <row r="28" spans="1:7" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="426" t="s">
+    <row r="28" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="428" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="397">
+      <c r="C28" s="402">
         <f t="shared" ref="C28" si="4">IF(D28="Yes",0,IF(D28="No",2,IF(D28="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D28" s="393"/>
-      <c r="E28" s="414" t="s">
+      <c r="D28" s="395"/>
+      <c r="E28" s="416" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="429" t="s">
-        <v>324</v>
+      <c r="F28" s="431" t="s">
+        <v>322</v>
       </c>
       <c r="G28" s="335" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="31.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="427"/>
-      <c r="C29" s="409"/>
-      <c r="D29" s="431"/>
-      <c r="E29" s="428"/>
-      <c r="F29" s="430"/>
+    <row r="29" spans="1:7" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="429"/>
+      <c r="C29" s="407"/>
+      <c r="D29" s="433"/>
+      <c r="E29" s="430"/>
+      <c r="F29" s="432"/>
       <c r="G29" s="338" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" s="22"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="22"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" s="22"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E41" s="22"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="22"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="9"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E56" s="9"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E58" s="9"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E60" s="9"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E61" s="9"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E62" s="9"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E64" s="9"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E66" s="9"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E68" s="9"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E70" s="9"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E72" s="9"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E73" s="9"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E74" s="9"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E76" s="9"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E78" s="9"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E80" s="9"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E82" s="9"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E84" s="9"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E86" s="9"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E88" s="9"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E90" s="9"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E92" s="9"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E94" s="9"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E96" s="9"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E98" s="9"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E100" s="9"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E101" s="9"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E102" s="9"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E104" s="9"/>
     </row>
   </sheetData>

--- a/Teams/downloads/site-enablement-playbook-for-voice-(playbook).xlsx
+++ b/Teams/downloads/site-enablement-playbook-for-voice-(playbook).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604DDB3E-DB3C-44DE-8B4E-0F183B504650}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5529CAC2-6B8A-4061-B1E5-7A40C2D46F04}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12816" tabRatio="692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12816" tabRatio="692" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
@@ -19,10 +19,6 @@
     <sheet name="6-Adoption" sheetId="11" r:id="rId9"/>
     <sheet name="Values" sheetId="12" state="hidden" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_1.1.1">'1-Playbook Preparation'!$B$5</definedName>
     <definedName name="_1.1.2">'1-Playbook Preparation'!$B$6</definedName>
@@ -43,21 +39,16 @@
     <definedName name="_2.3.4">'2-Site Voice Readiness'!$B$27</definedName>
     <definedName name="_2.3.5">'2-Site Voice Readiness'!$B$29</definedName>
     <definedName name="_2.3.6">'2-Site Voice Readiness'!$B$30</definedName>
-    <definedName name="_2.4.1" localSheetId="1">'[1]2-Site Voice Readiness'!#REF!</definedName>
     <definedName name="_2.4.1">'2-Site Voice Readiness'!$B$33</definedName>
-    <definedName name="_2.4.2">'[1]2-Site Voice Readiness'!#REF!</definedName>
-    <definedName name="_2.4.3">'[1]2-Site Voice Readiness'!#REF!</definedName>
-    <definedName name="_2.4.4_configuretdp">'[1]2-Site Voice Readiness'!#REF!</definedName>
-    <definedName name="_2.5.1">'[1]2-Site Voice Readiness'!#REF!</definedName>
-    <definedName name="_2.5.2">'[1]2-Site Voice Readiness'!#REF!</definedName>
-    <definedName name="_2.5.3">'[1]2-Site Voice Readiness'!#REF!</definedName>
-    <definedName name="_2.5.4_configuretdp">'[1]2-Site Voice Readiness'!#REF!</definedName>
-    <definedName name="_2.7.1">'[1]2-Site Voice Readiness'!#REF!</definedName>
-    <definedName name="_2.8.1">'[1]2-Site Voice Readiness'!#REF!</definedName>
-    <definedName name="_2.8.1.aacq">'[1]2-Site Voice Readiness'!#REF!</definedName>
+    <definedName name="_2.4.2">'2-Site Voice Readiness'!$B$35</definedName>
+    <definedName name="_2.4.3">'2-Site Voice Readiness'!$B$37</definedName>
+    <definedName name="_2.4.4">'2-Site Voice Readiness'!$B$38</definedName>
+    <definedName name="_2.4.5">'2-Site Voice Readiness'!$B$39</definedName>
+    <definedName name="_2.5.1">'2-Site Voice Readiness'!$B$42</definedName>
     <definedName name="_3.1.1">'3-User Enablement'!$B$5</definedName>
     <definedName name="_3.1.10">'3-User Enablement'!$B$16</definedName>
     <definedName name="_3.1.11">'3-User Enablement'!$B$17</definedName>
+    <definedName name="_3.1.12">'3-User Enablement'!$B$18</definedName>
     <definedName name="_3.1.2">'3-User Enablement'!$B$6</definedName>
     <definedName name="_3.1.3">'3-User Enablement'!$B$7</definedName>
     <definedName name="_3.1.4">'3-User Enablement'!$B$8</definedName>
@@ -66,53 +57,19 @@
     <definedName name="_3.1.7">'3-User Enablement'!$B$13</definedName>
     <definedName name="_3.1.8">'3-User Enablement'!$B$14</definedName>
     <definedName name="_3.1.9">'3-User Enablement'!$B$15</definedName>
-    <definedName name="_3.2.10">'[1]3-User Enablement'!#REF!</definedName>
-    <definedName name="_3.2.11">'[1]3-User Enablement'!#REF!</definedName>
-    <definedName name="_3.2.12">'[1]3-User Enablement'!#REF!</definedName>
-    <definedName name="_3.2.13">'[1]3-User Enablement'!#REF!</definedName>
-    <definedName name="_3.2.14">'[1]3-User Enablement'!#REF!</definedName>
-    <definedName name="_3.2.2.1">'[1]3-User Enablement'!#REF!</definedName>
-    <definedName name="_3.2.2.2">'[1]3-User Enablement'!#REF!</definedName>
-    <definedName name="_3.2.3">'[1]3-User Enablement'!#REF!</definedName>
-    <definedName name="_3.2.5">'[1]3-User Enablement'!#REF!</definedName>
-    <definedName name="_3.2.9">'[1]3-User Enablement'!#REF!</definedName>
     <definedName name="_4.1.1">'4-Endpoints'!$B$5</definedName>
     <definedName name="_4.1.2">'4-Endpoints'!$B$7</definedName>
-    <definedName name="_4.1.3">'[1]4-Endpoints'!#REF!</definedName>
     <definedName name="_4.2.1">'4-Endpoints'!$B$10</definedName>
-    <definedName name="_4.2.10">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.2.11">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.2.12">'[1]4-Endpoints'!#REF!</definedName>
     <definedName name="_4.2.2">'4-Endpoints'!$B$11</definedName>
     <definedName name="_4.2.3">'4-Endpoints'!$B$12</definedName>
     <definedName name="_4.2.4">'4-Endpoints'!$B$13</definedName>
     <definedName name="_4.2.5">'4-Endpoints'!$B$14</definedName>
-    <definedName name="_4.2.6" localSheetId="1">'[1]4-Endpoints'!#REF!</definedName>
     <definedName name="_4.2.6">'4-Endpoints'!$B$15</definedName>
     <definedName name="_4.2.7">'4-Endpoints'!$B$16</definedName>
-    <definedName name="_4.2.8">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.3.1">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.3.10">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.3.11">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.3.12">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.3.13">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.3.14">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.3.15">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.3.2">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.3.3">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.3.4">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.3.5">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.3.6">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.3.7">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.3.8">'[1]4-Endpoints'!#REF!</definedName>
-    <definedName name="_4.3.9">'[1]4-Endpoints'!#REF!</definedName>
     <definedName name="_5.1.1">'5-Usage &amp; Quality'!$B$5</definedName>
     <definedName name="_5.1.2">'5-Usage &amp; Quality'!$B$6</definedName>
     <definedName name="_5.1.3">'5-Usage &amp; Quality'!$B$7</definedName>
-    <definedName name="_5.2.3">'[1]5-Usage &amp; Feedback'!#REF!</definedName>
-    <definedName name="_5.2.4">'[1]5-Usage &amp; Feedback'!#REF!</definedName>
     <definedName name="_6.1.1">'6-Adoption'!$B$5</definedName>
-    <definedName name="_6.1.2" localSheetId="1">'[1]6-Adoption'!#REF!</definedName>
     <definedName name="_6.1.2">'6-Adoption'!$B$6</definedName>
     <definedName name="_6.1.3">'6-Adoption'!$B$7</definedName>
     <definedName name="_6.1.4">'6-Adoption'!$B$8</definedName>
@@ -121,79 +78,14 @@
     <definedName name="_6.2.3">'6-Adoption'!$B$13</definedName>
     <definedName name="_6.2.4">'6-Adoption'!$B$14</definedName>
     <definedName name="_6.3.1">'6-Adoption'!$B$17</definedName>
-    <definedName name="_6.3.10">'[1]6-Adoption'!#REF!</definedName>
     <definedName name="_6.3.2">'6-Adoption'!$B$18</definedName>
-    <definedName name="_6.3.3" localSheetId="1">'[1]6-Adoption'!#REF!</definedName>
     <definedName name="_6.3.3">'6-Adoption'!$B$19</definedName>
     <definedName name="_6.3.4">'6-Adoption'!$B$20</definedName>
-    <definedName name="_6.3.5">'[1]6-Adoption'!#REF!</definedName>
-    <definedName name="_6.3.7">'[1]6-Adoption'!#REF!</definedName>
-    <definedName name="_6.3.8">'[1]6-Adoption'!#REF!</definedName>
-    <definedName name="_6.3.9">'[1]6-Adoption'!#REF!</definedName>
     <definedName name="_6.4.1">'6-Adoption'!$B$23</definedName>
     <definedName name="_6.4.2">'6-Adoption'!$B$24</definedName>
     <definedName name="_6.5.1">'6-Adoption'!$B$27</definedName>
     <definedName name="_6.5.2">'6-Adoption'!$B$28</definedName>
-    <definedName name="_Completion_Status" localSheetId="1">[1]Values!$A$2:$A$4</definedName>
     <definedName name="_Completion_Status">Values!$A$2:$A$4</definedName>
-    <definedName name="a">#REF!</definedName>
-    <definedName name="O">[2]!OpsRoles[Operational Role]</definedName>
-    <definedName name="Operational">[2]!OpsRoles[Operational Role]</definedName>
-    <definedName name="OperationalRoles">'[2]Team Input'!$H$5:$H$54</definedName>
-    <definedName name="OperationalRoles1">[2]!OpsRoles[Operational Role]</definedName>
-    <definedName name="Tasks">[2]!AllTasks[#Data]</definedName>
-    <definedName name="Team_01">'[2]Team Input'!$C$5</definedName>
-    <definedName name="Team_02">'[2]Team Input'!$C$6</definedName>
-    <definedName name="Team_03">'[2]Team Input'!$C$7</definedName>
-    <definedName name="Team_04">'[2]Team Input'!$C$8</definedName>
-    <definedName name="Team_05">'[2]Team Input'!$C$9</definedName>
-    <definedName name="Team_06">'[2]Team Input'!$C$10</definedName>
-    <definedName name="Team_07">'[2]Team Input'!$C$11</definedName>
-    <definedName name="Team_08">'[2]Team Input'!$C$12</definedName>
-    <definedName name="Team_09">'[2]Team Input'!$C$13</definedName>
-    <definedName name="Team_10">'[2]Team Input'!$C$14</definedName>
-    <definedName name="Team_11">'[2]Team Input'!$C$15</definedName>
-    <definedName name="Team_12">'[2]Team Input'!$C$16</definedName>
-    <definedName name="Team_13">'[2]Team Input'!$C$17</definedName>
-    <definedName name="Team_14">'[2]Team Input'!$C$18</definedName>
-    <definedName name="Team_15">'[2]Team Input'!$C$19</definedName>
-    <definedName name="Team_16">'[2]Team Input'!$C$20</definedName>
-    <definedName name="Team_17">'[2]Team Input'!$C$21</definedName>
-    <definedName name="Team_18">'[2]Team Input'!$C$22</definedName>
-    <definedName name="Team_19">'[2]Team Input'!$C$23</definedName>
-    <definedName name="Team_20">'[2]Team Input'!$C$24</definedName>
-    <definedName name="Team_21">'[2]Team Input'!$C$25</definedName>
-    <definedName name="Team_22">'[2]Team Input'!$C$26</definedName>
-    <definedName name="Team_23">'[2]Team Input'!$C$27</definedName>
-    <definedName name="Team_24">'[2]Team Input'!$C$28</definedName>
-    <definedName name="Team_25">'[2]Team Input'!$C$29</definedName>
-    <definedName name="Team_26">'[2]Team Input'!$C$30</definedName>
-    <definedName name="Team_27">'[2]Team Input'!$C$31</definedName>
-    <definedName name="Team_28">'[2]Team Input'!$C$32</definedName>
-    <definedName name="Team_29">'[2]Team Input'!$C$33</definedName>
-    <definedName name="Team_30">'[2]Team Input'!$C$34</definedName>
-    <definedName name="Team_31">'[2]Team Input'!$C$35</definedName>
-    <definedName name="Team_32">'[2]Team Input'!$C$36</definedName>
-    <definedName name="Team_33">'[2]Team Input'!$C$37</definedName>
-    <definedName name="Team_34">'[2]Team Input'!$C$38</definedName>
-    <definedName name="Team_35">'[2]Team Input'!$C$39</definedName>
-    <definedName name="Team_36">'[2]Team Input'!$C$40</definedName>
-    <definedName name="Team_37">'[2]Team Input'!$C$41</definedName>
-    <definedName name="Team_38">'[2]Team Input'!$C$42</definedName>
-    <definedName name="Team_39">'[2]Team Input'!$C$43</definedName>
-    <definedName name="Team_40">'[2]Team Input'!$C$44</definedName>
-    <definedName name="Team_41">'[2]Team Input'!$C$45</definedName>
-    <definedName name="Team_42">'[2]Team Input'!$C$46</definedName>
-    <definedName name="Team_43">'[2]Team Input'!$C$47</definedName>
-    <definedName name="Team_44">'[2]Team Input'!$C$48</definedName>
-    <definedName name="Team_45">'[2]Team Input'!$C$49</definedName>
-    <definedName name="Team_46">'[2]Team Input'!$C$50</definedName>
-    <definedName name="Team_47">'[2]Team Input'!$C$51</definedName>
-    <definedName name="Team_48">'[2]Team Input'!$C$52</definedName>
-    <definedName name="Team_49">'[2]Team Input'!$C$53</definedName>
-    <definedName name="Team_50">'[2]Team Input'!$C$54</definedName>
-    <definedName name="TeamInput">#REF!</definedName>
-    <definedName name="Teams">'[2]Team Input'!$C$5:$C$54</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -211,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="404">
   <si>
     <t>Champions</t>
   </si>
@@ -932,9 +824,6 @@
   </si>
   <si>
     <t>Assign licenses to your pilot users for voice features like Audio Conferencing, Phone System, and Calling Plans.</t>
-  </si>
-  <si>
-    <t>Site Enablement Playbook for Voice</t>
   </si>
   <si>
     <t>Microsoft Teams and Skype for Business interoperability</t>
@@ -1470,9 +1359,6 @@
   </si>
   <si>
     <t>1.2.3 - Get the playbook approved by stakeholders</t>
-  </si>
-  <si>
-    <t>2.4.1 - Import site building data to the Call Quality Dashboard (CQD)</t>
   </si>
   <si>
     <t>2.1.2 - Validate that the service from the existing provider meets prerequisites for number porting</t>
@@ -1621,6 +1507,182 @@
   <si>
     <t>Install Microsoft Teams using MSI</t>
   </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Updates to include Direct Routing with Microsoft Teams</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>2.4.3</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.5.1 - Import site building data to the Call Quality Dashboard (CQD)</t>
+  </si>
+  <si>
+    <t>Turning on and using Call Quality Dashboard for Microsoft Teams and Skype for Business Online</t>
+  </si>
+  <si>
+    <t>Enable users for Direct Routing</t>
+  </si>
+  <si>
+    <t>2.4.4</t>
+  </si>
+  <si>
+    <t>2.4.5</t>
+  </si>
+  <si>
+    <t>Set Microsoft Teams as the preferred calling client for the users</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Direct Routing lets you connect a supported, customer-provided Session Border Controller (SBC) to Microsoft Phone System, and it is only applicable to Microsoft Teams.</t>
+    </r>
+  </si>
+  <si>
+    <t>Direct Routing for Teams</t>
+  </si>
+  <si>
+    <t>Supported Session Border Controllers (SBCs)</t>
+  </si>
+  <si>
+    <t>Pair the SBC to Direct Routing Service of Phone System</t>
+  </si>
+  <si>
+    <t>Configure Voice Routing</t>
+  </si>
+  <si>
+    <t>Configure and validate voice routing for the users in the site</t>
+  </si>
+  <si>
+    <t>Configure SBC's for the site</t>
+  </si>
+  <si>
+    <t>SIP Signaling: FQDNs and firewall ports</t>
+  </si>
+  <si>
+    <t>Media traffic: IP addresses and port ranges</t>
+  </si>
+  <si>
+    <t>Public trusted certificate for the SBC</t>
+  </si>
+  <si>
+    <t>Deploy my service</t>
+  </si>
+  <si>
+    <t>3.1.12</t>
+  </si>
+  <si>
+    <t>3.1.12 - Enable users for Direct Routing</t>
+  </si>
+  <si>
+    <t>2.4.2 - Configure SBC's for the site</t>
+  </si>
+  <si>
+    <t>2.4.3 - Pair the SBC in this site to Direct Routing</t>
+  </si>
+  <si>
+    <t>2.4.4 - Validate the SBC pairing</t>
+  </si>
+  <si>
+    <t>Validate the SBC pairing</t>
+  </si>
+  <si>
+    <t>2.4.5 - Configure and validate voice routing for the users in the site</t>
+  </si>
+  <si>
+    <t>Configure firewalls to support SBCs for Direct Routing</t>
+  </si>
+  <si>
+    <t>2.4.1 - Configure firewalls to support SBCs for Direct Routing</t>
+  </si>
+  <si>
+    <t>Configure voice routing for the users by creating;
+• Voice Routing Policies
+• PSTN Usages
+• Voice Routes
+• Online PSTN Gateways
+Assign the voice routing policies to the users who will make and get PSTN calls using Direct Routing through the configured SBC.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Configure firewalls to allow inbound and outbound connections between Office 365 and the SBC.
+See the guidance on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Additional information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column for IP addresses and port ranges.</t>
+    </r>
+  </si>
+  <si>
+    <t>Microsoft only supports the certified SBCs to pair with Direct Routing.
+Configure SBCs by using vendor-specific guidance and the instructions in the article  in the Additional information column.
+The certificate needs to have the SBC FQDN in the subject, common name, or subject alternate name fields. Alternatively, Direct Routing supports a wildcard in the common name or subject alternate name.</t>
+  </si>
+  <si>
+    <t>Pair the SBC in this site with Direct Routing</t>
+  </si>
+  <si>
+    <t>SBCs in each site must be paired with Direct Routing to provide dial tone and PSTN calling capabilities by using your own trunks.
+Validate the SBC in that specific site is already paired with Direct Routing or configure the pair if not performed before.
+Microsoft supports only the certified SBC's to pair with Direct Routing. Validate the SBC in that site is certified.</t>
+  </si>
+  <si>
+    <t>Run the Get-CsOnlinePSTNGateway cmdlet for each SBC you paired for the specific site, and verify that the parameter Enabled displays the value True.
+Use the SBC management interface to verify that the SBC gets 200 “OK”  responses to the outgoing SIP OPTIONS.</t>
+  </si>
+  <si>
+    <t>Verify that the user accounts are either created directly in Office 365 or synchronized to Office 365 by using Directory synchronization.
+Verify that the necessary licenses are assigned to the users.
+For PSTN connectivity with Direct Routing, your users must be homed in Skype for Business Online and enabled for Microsoft Teams.
+Make sure that the user has relevant policies to make and receive PSTN calls in Microsoft Teams client.
+• Make sure that the user has a TeamsCallingPolicy with AllowCalling = True
+• Make sure that the user has the preferred calling client to set to Microsoft Teams.</t>
+  </si>
 </sst>
 </file>
 
@@ -1630,13 +1692,20 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-C09]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1982,7 +2051,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2040,12 +2109,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC2C3E4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2290,207 +2353,207 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="440">
+  <cellXfs count="461">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2499,19 +2562,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2520,22 +2583,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2544,46 +2607,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -2593,260 +2656,257 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2858,256 +2918,253 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3116,10 +3173,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3128,464 +3185,533 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3876,12 +4002,13 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Textfeld 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E69F32-47EC-47F5-A88A-7CCF781CED3C}"/>
@@ -3893,7 +4020,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="295275" y="1143000"/>
-          <a:ext cx="6741795" cy="6537960"/>
+          <a:ext cx="6741795" cy="6812280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4153,7 +4280,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Audio Conferencing and Calling Plans with Microsoft Teams </a:t>
+            <a:t>Audio Conferencing, Calling Plans and Direct Routing with Microsoft Teams </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100">
@@ -5287,9 +5414,6 @@
             </a:rPr>
             <a:t> not work correctly.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -5338,7 +5462,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Site Enablement Guidance</a:t>
+            <a:t>Deploy My Service Guidance</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" b="0" i="1" baseline="0">
@@ -5364,14 +5488,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>250507</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>70634</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>24914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>580989</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5387,14 +5511,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="867727" y="4825514"/>
+          <a:off x="867727" y="4962674"/>
           <a:ext cx="330482" cy="1339066"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5431,7 +5555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5466,481 +5590,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Introduction"/>
-      <sheetName val="Version history"/>
-      <sheetName val="How to use this workbook"/>
-      <sheetName val="0-Playbook for {SiteName-Code}"/>
-      <sheetName val="1-Playbook Preparation"/>
-      <sheetName val="2-Site Voice Readiness"/>
-      <sheetName val="3-User Enablement"/>
-      <sheetName val="4-Endpoints"/>
-      <sheetName val="5-Usage &amp; Feedback"/>
-      <sheetName val="6-Adoption"/>
-      <sheetName val="Values"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Yes</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>No</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Not Applicable</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Introduction "/>
-      <sheetName val="Version history"/>
-      <sheetName val="How to use"/>
-      <sheetName val="Team Input"/>
-      <sheetName val="Role Mapping Output"/>
-      <sheetName val="Tasks and Responsibilites"/>
-      <sheetName val="16 - Design-Operational Role Ma"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>-- UNIDENTIFIED --</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>Service Owner</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>Team 01</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>Skype for Business Operations</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>Team 02</v>
-          </cell>
-          <cell r="H7" t="str">
-            <v>Tenant Admin</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>Team 03</v>
-          </cell>
-          <cell r="H8" t="str">
-            <v>Help Desk</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>Team 04</v>
-          </cell>
-          <cell r="H9" t="str">
-            <v>Network Operations</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>Team 05</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>Client &amp; Endpoint Team</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>Team 06</v>
-          </cell>
-          <cell r="H11" t="str">
-            <v>Identity Operations</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>Team 07</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>Adoption / change management</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>Team 08</v>
-          </cell>
-          <cell r="H13" t="str">
-            <v>Contract Management</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>Team 09</v>
-          </cell>
-          <cell r="H14" t="str">
-            <v>Exchange Operations</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>Team 10</v>
-          </cell>
-          <cell r="H15" t="str">
-            <v>SIP trunks &amp; voice connectivity</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16" t="str">
-            <v>Team 11</v>
-          </cell>
-          <cell r="H16" t="str">
-            <v>Quality Champion</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>Team 12</v>
-          </cell>
-          <cell r="H17" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>Team 13</v>
-          </cell>
-          <cell r="H18" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>Team 14</v>
-          </cell>
-          <cell r="H19" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>Team 15</v>
-          </cell>
-          <cell r="H20" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>Team 16</v>
-          </cell>
-          <cell r="H21" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22" t="str">
-            <v>Team 17</v>
-          </cell>
-          <cell r="H22" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Team 18</v>
-          </cell>
-          <cell r="H23" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>Team 19</v>
-          </cell>
-          <cell r="H24" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25" t="str">
-            <v>Team 20</v>
-          </cell>
-          <cell r="H25" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26" t="str">
-            <v>Team 21</v>
-          </cell>
-          <cell r="H26" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>Team 22</v>
-          </cell>
-          <cell r="H27" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>Team 23</v>
-          </cell>
-          <cell r="H28" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>Team 24</v>
-          </cell>
-          <cell r="H29" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>Team 25</v>
-          </cell>
-          <cell r="H30" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31" t="str">
-            <v>Team 26</v>
-          </cell>
-          <cell r="H31" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>Team 27</v>
-          </cell>
-          <cell r="H32" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33" t="str">
-            <v>Team 28</v>
-          </cell>
-          <cell r="H33" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34" t="str">
-            <v>Team 29</v>
-          </cell>
-          <cell r="H34" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>Team 30</v>
-          </cell>
-          <cell r="H35" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36" t="str">
-            <v>Team 31</v>
-          </cell>
-          <cell r="H36" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>Team 32</v>
-          </cell>
-          <cell r="H37" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38" t="str">
-            <v>Team 33</v>
-          </cell>
-          <cell r="H38" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39" t="str">
-            <v>Team 34</v>
-          </cell>
-          <cell r="H39" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40" t="str">
-            <v>Team 35</v>
-          </cell>
-          <cell r="H40" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41" t="str">
-            <v>Team 36</v>
-          </cell>
-          <cell r="H41" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42" t="str">
-            <v>Team 37</v>
-          </cell>
-          <cell r="H42" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43" t="str">
-            <v>Team 38</v>
-          </cell>
-          <cell r="H43" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44" t="str">
-            <v>Team 39</v>
-          </cell>
-          <cell r="H44" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45" t="str">
-            <v>Team 40</v>
-          </cell>
-          <cell r="H45" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46" t="str">
-            <v>Team 41</v>
-          </cell>
-          <cell r="H46" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47" t="str">
-            <v>Team 42</v>
-          </cell>
-          <cell r="H47" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48" t="str">
-            <v>Team 43</v>
-          </cell>
-          <cell r="H48" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49" t="str">
-            <v>Team 44</v>
-          </cell>
-          <cell r="H49" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50" t="str">
-            <v>Team 45</v>
-          </cell>
-          <cell r="H50" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51" t="str">
-            <v>Team 46</v>
-          </cell>
-          <cell r="H51" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52" t="str">
-            <v>Team 47</v>
-          </cell>
-          <cell r="H52" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53" t="str">
-            <v>Team 48</v>
-          </cell>
-          <cell r="H53" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54" t="str">
-            <v>Team 49</v>
-          </cell>
-          <cell r="H54" t="str">
-            <v>&lt;add if required&gt;</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6254,7 +5903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="Q12:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6315,63 +5964,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410DE430-F2D8-4A9D-989A-4EA2AC6E7B8D}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="298"/>
-    <col min="2" max="2" width="61" style="298" customWidth="1"/>
-    <col min="3" max="3" width="11" style="298" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="298"/>
+    <col min="1" max="1" width="9" style="294"/>
+    <col min="2" max="2" width="61" style="294" customWidth="1"/>
+    <col min="3" max="3" width="11" style="294" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="294"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="302" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="308" t="s">
+      <c r="B1" s="302" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="308" t="s">
+      <c r="C1" s="302" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="299" t="s">
+      <c r="A2" s="295" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="298" t="s">
+      <c r="B2" s="294" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="300">
+      <c r="C2" s="296">
         <v>43126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="301"/>
-      <c r="B3" s="302"/>
-      <c r="C3" s="300"/>
+      <c r="A3" s="362" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="363" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="296">
+        <v>43245</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="303"/>
-      <c r="B4" s="304"/>
-      <c r="C4" s="305"/>
+      <c r="A4" s="297"/>
+      <c r="B4" s="298"/>
+      <c r="C4" s="299"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="303"/>
-      <c r="B5" s="306"/>
-      <c r="C5" s="305"/>
+      <c r="A5" s="297"/>
+      <c r="B5" s="300"/>
+      <c r="C5" s="299"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="307"/>
+      <c r="A6" s="301"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="307"/>
+      <c r="A7" s="301"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="307"/>
+      <c r="A8" s="301"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6384,11 +6037,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:S33"/>
+  <dimension ref="B1:S34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6409,10 +6062,10 @@
       <c r="C2" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="363" t="s">
+      <c r="D2" s="391" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="363"/>
+      <c r="E2" s="391"/>
     </row>
     <row r="3" spans="2:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="113" t="s">
@@ -6421,219 +6074,219 @@
       <c r="C3" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="364">
+      <c r="D3" s="392">
         <v>43179</v>
       </c>
-      <c r="E3" s="364"/>
+      <c r="E3" s="392"/>
     </row>
     <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="368" t="str">
+      <c r="B5" s="396" t="str">
         <f>"Site rollout schedule for site: " &amp; B3 &amp; " - " &amp; C3</f>
         <v>Site rollout schedule for site: {SiteName} - {SiteCode}</v>
       </c>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
-      <c r="G5" s="369"/>
-      <c r="H5" s="369"/>
-      <c r="I5" s="369"/>
-      <c r="J5" s="369"/>
-      <c r="K5" s="369"/>
-      <c r="L5" s="369"/>
-      <c r="M5" s="369"/>
-      <c r="N5" s="369"/>
-      <c r="O5" s="369"/>
-      <c r="P5" s="369"/>
-      <c r="Q5" s="369"/>
-      <c r="R5" s="369"/>
-      <c r="S5" s="370"/>
+      <c r="C5" s="397"/>
+      <c r="D5" s="397"/>
+      <c r="E5" s="397"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="397"/>
+      <c r="H5" s="397"/>
+      <c r="I5" s="397"/>
+      <c r="J5" s="397"/>
+      <c r="K5" s="397"/>
+      <c r="L5" s="397"/>
+      <c r="M5" s="397"/>
+      <c r="N5" s="397"/>
+      <c r="O5" s="397"/>
+      <c r="P5" s="397"/>
+      <c r="Q5" s="397"/>
+      <c r="R5" s="397"/>
+      <c r="S5" s="398"/>
     </row>
     <row r="6" spans="2:19" s="19" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="372" t="s">
+      <c r="B6" s="400" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="400"/>
+      <c r="D6" s="400"/>
+      <c r="E6" s="400"/>
+      <c r="F6" s="400"/>
+      <c r="G6" s="400"/>
+      <c r="H6" s="400"/>
+      <c r="I6" s="400"/>
+      <c r="J6" s="400"/>
+      <c r="K6" s="400"/>
+      <c r="L6" s="400"/>
+      <c r="M6" s="310" t="s">
         <v>326</v>
       </c>
-      <c r="C6" s="372"/>
-      <c r="D6" s="372"/>
-      <c r="E6" s="372"/>
-      <c r="F6" s="372"/>
-      <c r="G6" s="372"/>
-      <c r="H6" s="372"/>
-      <c r="I6" s="372"/>
-      <c r="J6" s="372"/>
-      <c r="K6" s="372"/>
-      <c r="L6" s="372"/>
-      <c r="M6" s="316" t="s">
+      <c r="N6" s="399" t="s">
         <v>327</v>
       </c>
-      <c r="N6" s="371" t="s">
+      <c r="O6" s="399"/>
+      <c r="P6" s="399"/>
+      <c r="Q6" s="399"/>
+      <c r="R6" s="399"/>
+      <c r="S6" s="399"/>
+    </row>
+    <row r="7" spans="2:19" s="6" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="311" t="s">
         <v>328</v>
       </c>
-      <c r="O6" s="371"/>
-      <c r="P6" s="371"/>
-      <c r="Q6" s="371"/>
-      <c r="R6" s="371"/>
-      <c r="S6" s="371"/>
-    </row>
-    <row r="7" spans="2:19" s="6" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="317" t="s">
+      <c r="C7" s="393" t="s">
         <v>329</v>
       </c>
-      <c r="C7" s="365" t="s">
+      <c r="D7" s="394"/>
+      <c r="E7" s="394"/>
+      <c r="F7" s="394"/>
+      <c r="G7" s="394"/>
+      <c r="H7" s="394"/>
+      <c r="I7" s="394"/>
+      <c r="J7" s="394"/>
+      <c r="K7" s="394"/>
+      <c r="L7" s="395"/>
+      <c r="M7" s="401" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="393" t="s">
         <v>330</v>
       </c>
-      <c r="D7" s="366"/>
-      <c r="E7" s="366"/>
-      <c r="F7" s="366"/>
-      <c r="G7" s="366"/>
-      <c r="H7" s="366"/>
-      <c r="I7" s="366"/>
-      <c r="J7" s="366"/>
-      <c r="K7" s="366"/>
-      <c r="L7" s="367"/>
-      <c r="M7" s="373" t="s">
-        <v>96</v>
-      </c>
-      <c r="N7" s="365" t="s">
-        <v>331</v>
-      </c>
-      <c r="O7" s="366"/>
-      <c r="P7" s="366"/>
-      <c r="Q7" s="366"/>
-      <c r="R7" s="366"/>
-      <c r="S7" s="367"/>
+      <c r="O7" s="394"/>
+      <c r="P7" s="394"/>
+      <c r="Q7" s="394"/>
+      <c r="R7" s="394"/>
+      <c r="S7" s="395"/>
     </row>
     <row r="8" spans="2:19" s="18" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="317" t="s">
+      <c r="B8" s="311" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="309" t="s">
+      <c r="C8" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="309" t="s">
+      <c r="D8" s="303" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="309" t="s">
+      <c r="E8" s="303" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="310" t="s">
+      <c r="F8" s="304" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="311" t="s">
+      <c r="G8" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="309" t="s">
+      <c r="H8" s="303" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="312" t="s">
+      <c r="I8" s="306" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="310" t="s">
+      <c r="J8" s="304" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="309" t="s">
+      <c r="K8" s="303" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="309" t="s">
+      <c r="L8" s="303" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="374"/>
-      <c r="N8" s="309" t="s">
+      <c r="M8" s="402"/>
+      <c r="N8" s="303" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="309" t="s">
+      <c r="O8" s="303" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="309" t="s">
+      <c r="P8" s="303" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="309" t="s">
+      <c r="Q8" s="303" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="309" t="s">
+      <c r="R8" s="303" t="s">
         <v>36</v>
       </c>
-      <c r="S8" s="309" t="s">
+      <c r="S8" s="303" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:19" s="18" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="317" t="s">
+      <c r="B9" s="311" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="313">
+      <c r="C9" s="307">
         <f t="shared" ref="C9:I9" si="0">D9-7</f>
         <v>43109</v>
       </c>
-      <c r="D9" s="313">
+      <c r="D9" s="307">
         <f t="shared" si="0"/>
         <v>43116</v>
       </c>
-      <c r="E9" s="313">
+      <c r="E9" s="307">
         <f t="shared" si="0"/>
         <v>43123</v>
       </c>
-      <c r="F9" s="313">
+      <c r="F9" s="307">
         <f t="shared" si="0"/>
         <v>43130</v>
       </c>
-      <c r="G9" s="314">
+      <c r="G9" s="308">
         <f t="shared" si="0"/>
         <v>43137</v>
       </c>
-      <c r="H9" s="313">
+      <c r="H9" s="307">
         <f t="shared" si="0"/>
         <v>43144</v>
       </c>
-      <c r="I9" s="313">
+      <c r="I9" s="307">
         <f t="shared" si="0"/>
         <v>43151</v>
       </c>
-      <c r="J9" s="314">
+      <c r="J9" s="308">
         <f>K9-7</f>
         <v>43158</v>
       </c>
-      <c r="K9" s="313">
+      <c r="K9" s="307">
         <f>L9-7</f>
         <v>43165</v>
       </c>
-      <c r="L9" s="313">
+      <c r="L9" s="307">
         <f>M9-7</f>
         <v>43172</v>
       </c>
-      <c r="M9" s="315">
+      <c r="M9" s="309">
         <f>$D$3</f>
         <v>43179</v>
       </c>
-      <c r="N9" s="313">
+      <c r="N9" s="307">
         <f>M9+7</f>
         <v>43186</v>
       </c>
-      <c r="O9" s="313">
+      <c r="O9" s="307">
         <f>N9+7</f>
         <v>43193</v>
       </c>
-      <c r="P9" s="313">
+      <c r="P9" s="307">
         <f t="shared" ref="P9:S9" si="1">O9+7</f>
         <v>43200</v>
       </c>
-      <c r="Q9" s="313">
+      <c r="Q9" s="307">
         <f t="shared" si="1"/>
         <v>43207</v>
       </c>
-      <c r="R9" s="313">
+      <c r="R9" s="307">
         <f t="shared" si="1"/>
         <v>43214</v>
       </c>
-      <c r="S9" s="313">
+      <c r="S9" s="307">
         <f t="shared" si="1"/>
         <v>43221</v>
       </c>
     </row>
     <row r="10" spans="2:19" s="61" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="318" t="s">
-        <v>332</v>
+      <c r="B10" s="312" t="s">
+        <v>331</v>
       </c>
       <c r="C10" s="60">
         <f>MAX('1-Playbook Preparation'!C5,'1-Playbook Preparation'!C9)</f>
@@ -6648,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="60">
-        <f>MAX('1-Playbook Preparation'!C10,'1-Playbook Preparation'!C11,'2-Site Voice Readiness'!C33,'2-Site Voice Readiness'!C7:C9,'2-Site Voice Readiness'!C15,'4-Endpoints'!C11,'4-Endpoints'!C14,'6-Adoption'!C11)</f>
+        <f>MAX('1-Playbook Preparation'!C10,'1-Playbook Preparation'!C11,'2-Site Voice Readiness'!C42,'2-Site Voice Readiness'!C7:C9,'2-Site Voice Readiness'!C15,'4-Endpoints'!C11,'4-Endpoints'!C14,'6-Adoption'!C11)</f>
         <v>1</v>
       </c>
       <c r="G10" s="93">
@@ -6660,11 +6313,11 @@
         <v>1</v>
       </c>
       <c r="I10" s="93">
-        <f>MAX('3-User Enablement'!C8:C10,'3-User Enablement'!C11,'4-Endpoints'!C5,'4-Endpoints'!C7,'5-Usage &amp; Quality'!C7)</f>
+        <f>MAX('3-User Enablement'!C8:C10,'3-User Enablement'!C11,'4-Endpoints'!C5,'4-Endpoints'!C7,'5-Usage &amp; Quality'!C7,'2-Site Voice Readiness'!C33:C34)</f>
         <v>1</v>
       </c>
       <c r="J10" s="93">
-        <f>MAX('4-Endpoints'!C15,'4-Endpoints'!C5,'6-Adoption'!C23,'6-Adoption'!C17,'6-Adoption'!C27,'6-Adoption'!C8,'5-Usage &amp; Quality'!C7)</f>
+        <f>MAX('4-Endpoints'!C15,'4-Endpoints'!C5,'6-Adoption'!C23,'6-Adoption'!C17,'6-Adoption'!C27,'6-Adoption'!C8,'2-Site Voice Readiness'!C35:C36,'2-Site Voice Readiness'!C37,'2-Site Voice Readiness'!C38)</f>
         <v>1</v>
       </c>
       <c r="K10" s="93">
@@ -6672,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="93">
-        <f>MAX('2-Site Voice Readiness'!C29,'3-User Enablement'!C12,'3-User Enablement'!C13,'3-User Enablement'!C14,'3-User Enablement'!C15,'3-User Enablement'!C16,'3-User Enablement'!C17,'4-Endpoints'!C16,'5-Usage &amp; Quality'!C7,'6-Adoption'!C20)</f>
+        <f>MAX('2-Site Voice Readiness'!C29,'3-User Enablement'!C12,'3-User Enablement'!C13,'3-User Enablement'!C14,'3-User Enablement'!C15,'3-User Enablement'!C16,'3-User Enablement'!C17,'4-Endpoints'!C16,'5-Usage &amp; Quality'!C7,'6-Adoption'!C20,'3-User Enablement'!C18,'2-Site Voice Readiness'!C39)</f>
         <v>1</v>
       </c>
       <c r="M10" s="93">
@@ -6705,7 +6358,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" s="61" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="352" t="s">
+      <c r="B11" s="403" t="s">
         <v>199</v>
       </c>
       <c r="C11" s="94" t="s">
@@ -6714,10 +6367,10 @@
       <c r="D11" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="E11" s="354" t="s">
-        <v>335</v>
-      </c>
-      <c r="F11" s="356"/>
+      <c r="E11" s="405" t="s">
+        <v>334</v>
+      </c>
+      <c r="F11" s="407"/>
       <c r="G11" s="95"/>
       <c r="H11" s="95"/>
       <c r="I11" s="95"/>
@@ -6733,40 +6386,40 @@
       <c r="S11" s="95"/>
     </row>
     <row r="12" spans="2:19" s="61" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="353"/>
-      <c r="C12" s="354" t="s">
+      <c r="B12" s="404"/>
+      <c r="C12" s="405" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="355"/>
+      <c r="D12" s="406"/>
       <c r="E12" s="96"/>
       <c r="F12" s="97" t="s">
-        <v>336</v>
-      </c>
-      <c r="G12" s="289"/>
-      <c r="H12" s="289"/>
-      <c r="I12" s="289"/>
-      <c r="J12" s="289"/>
-      <c r="K12" s="289"/>
-      <c r="L12" s="289"/>
-      <c r="M12" s="289"/>
-      <c r="N12" s="289"/>
-      <c r="O12" s="289"/>
-      <c r="P12" s="289"/>
-      <c r="Q12" s="289"/>
-      <c r="R12" s="289"/>
-      <c r="S12" s="289"/>
+        <v>335</v>
+      </c>
+      <c r="G12" s="285"/>
+      <c r="H12" s="285"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
+      <c r="K12" s="285"/>
+      <c r="L12" s="285"/>
+      <c r="M12" s="285"/>
+      <c r="N12" s="285"/>
+      <c r="O12" s="285"/>
+      <c r="P12" s="285"/>
+      <c r="Q12" s="285"/>
+      <c r="R12" s="285"/>
+      <c r="S12" s="285"/>
     </row>
     <row r="13" spans="2:19" s="9" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="357" t="s">
+      <c r="B13" s="408" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="121" t="s">
         <v>91</v>
       </c>
       <c r="F13" s="121" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="G13" s="122" t="s">
         <v>210</v>
@@ -6774,139 +6427,149 @@
       <c r="H13" s="122" t="s">
         <v>208</v>
       </c>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
+      <c r="I13" s="122" t="s">
+        <v>396</v>
+      </c>
+      <c r="J13" s="122" t="s">
+        <v>390</v>
+      </c>
       <c r="K13" s="126" t="s">
         <v>212</v>
       </c>
       <c r="L13" s="122" t="s">
         <v>216</v>
       </c>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="131"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="130"/>
     </row>
     <row r="14" spans="2:19" s="9" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="358"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
+      <c r="B14" s="409"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
       <c r="E14" s="122" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F14" s="122" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G14" s="122" t="s">
         <v>211</v>
       </c>
       <c r="H14" s="122"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="122" t="s">
+        <v>391</v>
+      </c>
       <c r="K14" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="L14" s="122"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="131"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="131"/>
+      <c r="L14" s="122" t="s">
+        <v>394</v>
+      </c>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="130"/>
     </row>
     <row r="15" spans="2:19" s="9" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="358"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="131"/>
+      <c r="B15" s="409"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="130"/>
       <c r="F15" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="G15" s="122" t="s">
         <v>342</v>
       </c>
-      <c r="G15" s="122" t="s">
-        <v>344</v>
-      </c>
       <c r="H15" s="122"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="122" t="s">
+        <v>392</v>
+      </c>
       <c r="K15" s="122" t="s">
         <v>214</v>
       </c>
       <c r="L15" s="122"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="131"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="131"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="130"/>
     </row>
     <row r="16" spans="2:19" s="9" customFormat="1" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="359"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
+      <c r="B16" s="410"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
       <c r="F16" s="122"/>
       <c r="G16" s="122" t="s">
         <v>207</v>
       </c>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
       <c r="K16" s="122" t="s">
         <v>217</v>
       </c>
       <c r="L16" s="122"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="131"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
     </row>
     <row r="17" spans="2:19" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="360" t="s">
+      <c r="B17" s="411" t="s">
         <v>122</v>
       </c>
       <c r="C17" s="123"/>
       <c r="D17" s="123" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E17" s="127" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F17" s="124"/>
-      <c r="G17" s="134"/>
+      <c r="G17" s="133"/>
       <c r="H17" s="123"/>
       <c r="I17" s="123" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J17" s="125"/>
-      <c r="K17" s="134"/>
+      <c r="K17" s="367"/>
       <c r="L17" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="M17" s="129"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="134"/>
-      <c r="Q17" s="134"/>
-      <c r="R17" s="134"/>
-      <c r="S17" s="134"/>
+        <v>281</v>
+      </c>
+      <c r="M17" s="369"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="133"/>
     </row>
     <row r="18" spans="2:19" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="361"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
+      <c r="B18" s="412"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
       <c r="E18" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="137"/>
-      <c r="G18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="135"/>
       <c r="H18" s="127"/>
       <c r="I18" s="127" t="s">
         <v>219</v>
@@ -6914,376 +6577,388 @@
       <c r="J18" s="127"/>
       <c r="K18" s="136"/>
       <c r="L18" s="127" t="s">
-        <v>345</v>
-      </c>
-      <c r="M18" s="137"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
-      <c r="S18" s="136"/>
+        <v>343</v>
+      </c>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
     </row>
     <row r="19" spans="2:19" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="361"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="154"/>
+      <c r="B19" s="412"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="153"/>
       <c r="K19" s="136"/>
       <c r="L19" s="128" t="s">
         <v>236</v>
       </c>
-      <c r="M19" s="137"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="136"/>
-      <c r="Q19" s="136"/>
-      <c r="R19" s="136"/>
-      <c r="S19" s="136"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
     </row>
     <row r="20" spans="2:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="361"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="137"/>
+      <c r="B20" s="412"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="136"/>
       <c r="K20" s="136"/>
       <c r="L20" s="128" t="s">
-        <v>286</v>
-      </c>
-      <c r="M20" s="137"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="136"/>
-      <c r="S20" s="136"/>
+        <v>285</v>
+      </c>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
     </row>
     <row r="21" spans="2:19" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="361"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="137"/>
+      <c r="B21" s="412"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="136"/>
       <c r="K21" s="136"/>
       <c r="L21" s="128" t="s">
-        <v>288</v>
-      </c>
-      <c r="M21" s="137"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="136"/>
-      <c r="S21" s="136"/>
-    </row>
-    <row r="22" spans="2:19" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="362"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="137"/>
+        <v>287</v>
+      </c>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+    </row>
+    <row r="22" spans="2:19" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="412"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
       <c r="K22" s="136"/>
       <c r="L22" s="128" t="s">
         <v>220</v>
       </c>
-      <c r="M22" s="137"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="136"/>
-      <c r="Q22" s="136"/>
-      <c r="R22" s="136"/>
-      <c r="S22" s="136"/>
-    </row>
-    <row r="23" spans="2:19" ht="95.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="378" t="s">
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="135"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+    </row>
+    <row r="23" spans="2:19" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="413"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="368" t="s">
+        <v>389</v>
+      </c>
+      <c r="M23" s="370"/>
+      <c r="N23" s="370"/>
+      <c r="O23" s="370"/>
+      <c r="P23" s="370"/>
+      <c r="Q23" s="370"/>
+      <c r="R23" s="370"/>
+      <c r="S23" s="370"/>
+    </row>
+    <row r="24" spans="2:19" ht="95.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="374" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="138"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="29" t="s">
+      <c r="C24" s="137"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="K24" s="371" t="s">
         <v>347</v>
       </c>
-      <c r="F23" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="K23" s="375" t="s">
-        <v>349</v>
-      </c>
-      <c r="L23" s="377"/>
-      <c r="M23" s="375"/>
-      <c r="N23" s="376"/>
-      <c r="O23" s="376"/>
-      <c r="P23" s="376"/>
-      <c r="Q23" s="376"/>
-      <c r="R23" s="376"/>
-      <c r="S23" s="377"/>
-    </row>
-    <row r="24" spans="2:19" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="379"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="375" t="s">
+      <c r="L24" s="373"/>
+      <c r="M24" s="371"/>
+      <c r="N24" s="372"/>
+      <c r="O24" s="372"/>
+      <c r="P24" s="372"/>
+      <c r="Q24" s="372"/>
+      <c r="R24" s="372"/>
+      <c r="S24" s="373"/>
+    </row>
+    <row r="25" spans="2:19" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="375"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="371" t="s">
+        <v>350</v>
+      </c>
+      <c r="F25" s="372"/>
+      <c r="G25" s="372"/>
+      <c r="H25" s="373"/>
+      <c r="I25" s="371" t="s">
+        <v>292</v>
+      </c>
+      <c r="J25" s="372"/>
+      <c r="K25" s="373"/>
+      <c r="L25" s="286"/>
+      <c r="M25" s="371"/>
+      <c r="N25" s="372"/>
+      <c r="O25" s="372"/>
+      <c r="P25" s="372"/>
+      <c r="Q25" s="372"/>
+      <c r="R25" s="372"/>
+      <c r="S25" s="373"/>
+    </row>
+    <row r="26" spans="2:19" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="313" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="141"/>
+      <c r="D26" s="287" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="381" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26" s="382"/>
+      <c r="I26" s="382"/>
+      <c r="J26" s="382"/>
+      <c r="K26" s="382"/>
+      <c r="L26" s="382"/>
+      <c r="M26" s="382"/>
+      <c r="N26" s="382"/>
+      <c r="O26" s="382"/>
+      <c r="P26" s="382"/>
+      <c r="Q26" s="382"/>
+      <c r="R26" s="382"/>
+      <c r="S26" s="383"/>
+    </row>
+    <row r="27" spans="2:19" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="314"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="290"/>
+      <c r="H27" s="290"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="290"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="387" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" s="388"/>
+      <c r="P27" s="388"/>
+      <c r="Q27" s="388"/>
+      <c r="R27" s="388"/>
+      <c r="S27" s="389"/>
+    </row>
+    <row r="28" spans="2:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="378" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="102" t="s">
         <v>352</v>
       </c>
-      <c r="F24" s="376"/>
-      <c r="G24" s="376"/>
-      <c r="H24" s="377"/>
-      <c r="I24" s="375" t="s">
-        <v>293</v>
-      </c>
-      <c r="J24" s="376"/>
-      <c r="K24" s="377"/>
-      <c r="L24" s="290"/>
-      <c r="M24" s="375"/>
-      <c r="N24" s="376"/>
-      <c r="O24" s="376"/>
-      <c r="P24" s="376"/>
-      <c r="Q24" s="376"/>
-      <c r="R24" s="376"/>
-      <c r="S24" s="377"/>
-    </row>
-    <row r="25" spans="2:19" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="319" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="142"/>
-      <c r="D25" s="291" t="s">
-        <v>224</v>
-      </c>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="385" t="s">
-        <v>228</v>
-      </c>
-      <c r="H25" s="386"/>
-      <c r="I25" s="386"/>
-      <c r="J25" s="386"/>
-      <c r="K25" s="386"/>
-      <c r="L25" s="386"/>
-      <c r="M25" s="386"/>
-      <c r="N25" s="386"/>
-      <c r="O25" s="386"/>
-      <c r="P25" s="386"/>
-      <c r="Q25" s="386"/>
-      <c r="R25" s="386"/>
-      <c r="S25" s="387"/>
-    </row>
-    <row r="26" spans="2:19" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="320"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="294"/>
-      <c r="H26" s="294"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="294"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="391" t="s">
-        <v>225</v>
-      </c>
-      <c r="O26" s="392"/>
-      <c r="P26" s="392"/>
-      <c r="Q26" s="392"/>
-      <c r="R26" s="392"/>
-      <c r="S26" s="393"/>
-    </row>
-    <row r="27" spans="2:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="382" t="s">
-        <v>202</v>
-      </c>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="102" t="s">
-        <v>354</v>
-      </c>
-      <c r="H27" s="108" t="s">
+      <c r="H28" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105" t="s">
-        <v>355</v>
-      </c>
-      <c r="K27" s="108" t="s">
+      <c r="I28" s="105"/>
+      <c r="J28" s="105" t="s">
+        <v>353</v>
+      </c>
+      <c r="K28" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="L27" s="380" t="s">
+      <c r="L28" s="376" t="s">
         <v>233</v>
       </c>
-      <c r="M27" s="381"/>
-      <c r="N27" s="388"/>
-      <c r="O27" s="380" t="s">
+      <c r="M28" s="377"/>
+      <c r="N28" s="384"/>
+      <c r="O28" s="376" t="s">
         <v>235</v>
       </c>
-      <c r="P27" s="381"/>
-      <c r="Q27" s="381"/>
-      <c r="R27" s="381"/>
-      <c r="S27" s="388"/>
-    </row>
-    <row r="28" spans="2:19" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="383"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="111" t="s">
+      <c r="P28" s="377"/>
+      <c r="Q28" s="377"/>
+      <c r="R28" s="377"/>
+      <c r="S28" s="384"/>
+    </row>
+    <row r="29" spans="2:19" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="379"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="111" t="s">
         <v>230</v>
       </c>
-      <c r="H28" s="108" t="s">
+      <c r="H29" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108" t="s">
-        <v>95</v>
-      </c>
-      <c r="K28" s="108" t="s">
-        <v>360</v>
-      </c>
-      <c r="L28" s="104"/>
-      <c r="M28" s="380" t="s">
-        <v>325</v>
-      </c>
-      <c r="N28" s="381"/>
-      <c r="O28" s="394"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="107"/>
-    </row>
-    <row r="29" spans="2:19" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="383"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="296"/>
-      <c r="H29" s="107"/>
       <c r="I29" s="108"/>
       <c r="J29" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="108" t="s">
         <v>358</v>
       </c>
-      <c r="K29" s="109"/>
-      <c r="L29" s="295"/>
-      <c r="M29" s="389" t="s">
-        <v>361</v>
-      </c>
-      <c r="N29" s="390"/>
-      <c r="O29" s="107"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="376" t="s">
+        <v>324</v>
+      </c>
+      <c r="N29" s="377"/>
+      <c r="O29" s="390"/>
       <c r="P29" s="107"/>
       <c r="Q29" s="107"/>
       <c r="R29" s="107"/>
       <c r="S29" s="107"/>
     </row>
-    <row r="30" spans="2:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="383"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="147"/>
+    <row r="30" spans="2:19" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="379"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
       <c r="E30" s="111"/>
       <c r="F30" s="107"/>
-      <c r="G30" s="296"/>
+      <c r="G30" s="292"/>
       <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="380" t="s">
-        <v>323</v>
-      </c>
-      <c r="K30" s="381"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="380" t="s">
-        <v>318</v>
-      </c>
-      <c r="O30" s="381"/>
-      <c r="P30" s="381"/>
-      <c r="Q30" s="381"/>
-      <c r="R30" s="381"/>
-      <c r="S30" s="388"/>
-    </row>
-    <row r="31" spans="2:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="384"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="297"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="293"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108" t="s">
+        <v>356</v>
+      </c>
+      <c r="K30" s="109"/>
+      <c r="L30" s="291"/>
+      <c r="M30" s="385" t="s">
+        <v>359</v>
+      </c>
+      <c r="N30" s="386"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+    </row>
+    <row r="31" spans="2:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="379"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="292"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="376" t="s">
+        <v>322</v>
+      </c>
+      <c r="K31" s="377"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="376" t="s">
+        <v>317</v>
+      </c>
+      <c r="O31" s="377"/>
+      <c r="P31" s="377"/>
+      <c r="Q31" s="377"/>
+      <c r="R31" s="377"/>
+      <c r="S31" s="384"/>
+    </row>
+    <row r="32" spans="2:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="380"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="293"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="289"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="J34" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="G25:S25"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="N30:S30"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M24:S24"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B23"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="C7:L7"/>
@@ -7292,11 +6967,21 @@
     <mergeCell ref="B6:L6"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="G26:S26"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="N31:S31"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M24:S24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M25:S25"/>
   </mergeCells>
   <conditionalFormatting sqref="L21">
     <cfRule type="expression" dxfId="27" priority="84">
@@ -7384,7 +7069,7 @@
       <formula>$H17="Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+  <conditionalFormatting sqref="L22:L23">
     <cfRule type="expression" dxfId="3" priority="152">
       <formula>#REF!="Completed"</formula>
     </cfRule>
@@ -7403,18 +7088,18 @@
     <hyperlink ref="E14" location="_2.1.2" display="2.1.2 - Validate the existing service from the provider meets prerequisites" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
     <hyperlink ref="F14" location="_2.1.3" display="2.1.3 - Acquire or port number for pilot users in the site" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
     <hyperlink ref="G16" location="_2.1.4" display="2.1.4 - Acquire or schedule number port for phone numbers for the site" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="F13" location="_2.4.1" display="2.4.1 - Import site building data to Call Quality Dashboard (CQD)" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="F13" location="_2.5.1" display="2.5.1 - Import site building data to the Call Quality Dashboard (CQD)" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
     <hyperlink ref="K14" location="_2.3.3" display="2.3.3 - Calling Plans: Assign dial plans to users" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
     <hyperlink ref="K13" location="_2.3.2" display="2.3.2 - Calling Plans: Update user phone numbers in other systems" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="E23" location="_4.2.1" display="4.2.1 - Create a user to device mapping table and validate end users will receive the correct device for their persona" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
-    <hyperlink ref="H23" location="_4.2.4" display="4.2.4 - Confirm the device distribution plan" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="J23" location="_4.2.6" display="4.2.6 - Confirm resources are available to connect devices alongside end user rollout" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="N26:S26" location="_5.1.2" display="5.1.2 - Monitor usage with Office 365 Reports" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="M28:O28" location="_6.5.2" display="6.4.2 - Organize on-site support" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
-    <hyperlink ref="E24:H24" location="_4.2.2" display="4.2.2 - Procure devices for end users and confirm adequate lead time for device delivery" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
-    <hyperlink ref="F23" location="_4.2.5" display="4.2.5 - Confirm that machines have spare input ports for devices." xr:uid="{00000000-0004-0000-0300-000041000000}"/>
-    <hyperlink ref="G25:S25" location="_5.1.3" display="5.1.3 - Quality Champion: Leverage Call Quality Dashboard (CQD) for monitoring media quality" xr:uid="{E4583B2E-D218-4EA5-AF8F-05D14D526CE8}"/>
-    <hyperlink ref="D25" location="_5.1.1" display="5.1.1 - Identify Quality Champion for the organization" xr:uid="{3E02B115-DA19-471A-8FE5-C988A48D8B21}"/>
+    <hyperlink ref="E24" location="_4.2.1" display="4.2.1 - Create a user to device mapping table and validate end users will receive the correct device for their persona" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="H24" location="_4.2.4" display="4.2.4 - Confirm the device distribution plan" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="J24" location="_4.2.6" display="4.2.6 - Confirm resources are available to connect devices alongside end user rollout" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="N27:S27" location="_5.1.2" display="5.1.2 - Monitor usage with Office 365 Reports" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="M29:O29" location="_6.5.2" display="6.4.2 - Organize on-site support" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="E25:H25" location="_4.2.2" display="4.2.2 - Procure devices for end users and confirm adequate lead time for device delivery" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
+    <hyperlink ref="F24" location="_4.2.5" display="4.2.5 - Confirm that machines have spare input ports for devices." xr:uid="{00000000-0004-0000-0300-000041000000}"/>
+    <hyperlink ref="G26:S26" location="_5.1.3" display="5.1.3 - Quality Champion: Leverage Call Quality Dashboard (CQD) for monitoring media quality" xr:uid="{E4583B2E-D218-4EA5-AF8F-05D14D526CE8}"/>
+    <hyperlink ref="D26" location="_5.1.1" display="5.1.1 - Identify Quality Champion for the organization" xr:uid="{3E02B115-DA19-471A-8FE5-C988A48D8B21}"/>
     <hyperlink ref="F12" location="_1.2.3" display="1.2.3 - Playbook approved by stakeholders" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
     <hyperlink ref="E11:F11" location="_1.2.2" display="1.2.2 - Finalize playbook for the site" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
     <hyperlink ref="C12:D12" location="_1.2.1" display="1.2.1 - Prepare the playbook for the site" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
@@ -7436,28 +7121,34 @@
     <hyperlink ref="L20" location="_3.1.9" display="3.1.9 - Assign tenant dial plans to users" xr:uid="{0B9D4907-1D29-4BA2-8774-254491CC12BD}"/>
     <hyperlink ref="L21" location="_3.1.10" display="3.1.10 - Assign Emergency Locations to users" xr:uid="{61157416-58F7-4A70-AB53-8D5ECF8EF84E}"/>
     <hyperlink ref="L22" location="_3.1.11" display="3.1.11 - Assign phone numbers to users" xr:uid="{D9C7A329-B80B-439E-A252-EF0EB1CA0FC9}"/>
-    <hyperlink ref="G23" location="_4.2.3" display="4.2.3 - Deploy devices to pilot users and champions" xr:uid="{E93AA0D1-BF47-4F07-93DE-EF3A52957BAF}"/>
-    <hyperlink ref="O27" location="_6.4.2" display="6.4.2 - Gather feedback from all users" xr:uid="{EA56944B-3AD8-45C4-A179-7D4F2A71ED43}"/>
+    <hyperlink ref="G24" location="_4.2.3" display="4.2.3 - Deploy devices to pilot users and champions" xr:uid="{E93AA0D1-BF47-4F07-93DE-EF3A52957BAF}"/>
+    <hyperlink ref="O28" location="_6.4.2" display="6.4.2 - Gather feedback from all users" xr:uid="{EA56944B-3AD8-45C4-A179-7D4F2A71ED43}"/>
     <hyperlink ref="H13" location="_2.1.5" display="2.1.5 - Manually submit a port order request" xr:uid="{34F1A1C1-8F94-46C3-B489-95ECE6EC4643}"/>
-    <hyperlink ref="I23" location="_4.1.2" display="4.1.2 - Notify users about Office 365 self service portal for installing software to personal devices" xr:uid="{92D3C7FC-B857-40C7-A635-EEF782E8F6C9}"/>
-    <hyperlink ref="K23:L23" location="_4.2.7" display="4.2.7 - Distribute headsets, cameras and other peripherals to users based on personas" xr:uid="{D1EDD999-FD8F-4288-85C1-56AEB1E0333A}"/>
-    <hyperlink ref="I24:K24" location="_4.1.1" display="4.1.1 - Deploy Office 365 on end users workstations, laptops, mobile devices" xr:uid="{49904757-E850-48E9-B1EE-C1D1099AD96D}"/>
+    <hyperlink ref="I24" location="_4.1.2" display="4.1.2 - Notify users about Office 365 self service portal for installing software to personal devices" xr:uid="{92D3C7FC-B857-40C7-A635-EEF782E8F6C9}"/>
+    <hyperlink ref="K24:L24" location="_4.2.7" display="4.2.7 - Distribute headsets, cameras and other peripherals to users based on personas" xr:uid="{D1EDD999-FD8F-4288-85C1-56AEB1E0333A}"/>
+    <hyperlink ref="I25:K25" location="_4.1.1" display="4.1.1 - Deploy Office 365 on end users workstations, laptops, mobile devices" xr:uid="{49904757-E850-48E9-B1EE-C1D1099AD96D}"/>
     <hyperlink ref="I17" location="_3.1.4" display="3.1.4 - Enable pilot users for Microsoft Teams" xr:uid="{1ED2DA6F-4796-4743-B39F-81BC49A57AC4}"/>
     <hyperlink ref="I18" location="_3.1.5" display="3.1.5 - Assign licenses to pilot users" xr:uid="{2AB0773C-BF5F-46C2-BF78-DF8ED80DBAE5}"/>
-    <hyperlink ref="J27" location="_6.4.1" display="6.4.1 - Gather feedback for the Pilot" xr:uid="{9D692EA1-2B85-4E77-BE5B-BD3C7816F26F}"/>
-    <hyperlink ref="H27" location="_6.1.1" display="6.1.1 - Modify Email templates for user notification" xr:uid="{D6215A18-08F1-4380-B0BD-E64F095D8DF5}"/>
-    <hyperlink ref="J29" location="_6.1.4" display="6.1.4 - Notify users on the Teams rollout" xr:uid="{77558703-78AA-47EA-8B0D-59577340F9A1}"/>
-    <hyperlink ref="J28" location="_6.3.1" display="6.3.1 - Prepare posters/flyers to attract users' interest before launch" xr:uid="{23E2472C-3171-44A4-977D-E0C3F947FD73}"/>
-    <hyperlink ref="K27" location="_6.3.2" display="6.3.2 - Launch engagement activities" xr:uid="{B95D2B13-C9BA-4EAC-840A-7D238B02A9CF}"/>
-    <hyperlink ref="K28" location="_6.1.2" display="6.1.2 - Let users aware of champions" xr:uid="{C6D8EC87-CB31-4B2C-A128-0D266B623B78}"/>
-    <hyperlink ref="H28" location="_6.2.3" display="6.2.3 - Train champions" xr:uid="{44F21E6D-4063-458D-82ED-AC90FABF6719}"/>
-    <hyperlink ref="F27" location="_6.2.1" display="6.2.1 - Create a collaboration environment for champions" xr:uid="{57103434-406E-4444-88F6-A72457304C20}"/>
-    <hyperlink ref="G27" location="_6.2.2" display="6.2.2 - Build champions for the site" xr:uid="{032190D7-2F6E-4A2F-A470-AAFC05BCAC94}"/>
-    <hyperlink ref="G28" location="_6.1.3" display="6.1.3 - Notify pilot users and champions" xr:uid="{6E7D581D-37F7-49A1-A390-F4A0A1D5C134}"/>
-    <hyperlink ref="L27" location="_6.3.4" display="6.3.4 - Leverage job aides" xr:uid="{E1CBCEAC-122A-4D57-9D23-00A3066D31CB}"/>
-    <hyperlink ref="M29:N29" location="_6.2.4" display="6.2.4 - Have champions noticed by users" xr:uid="{AE0B0CAF-AB5D-4D59-9BF8-7A6D49980717}"/>
-    <hyperlink ref="N30:S30" location="_6.3.3" display="6.3.3 - Organize weekly Tips&amp;Tricks email series" xr:uid="{97C41F33-6672-4ED9-AE18-9F9AF7955250}"/>
-    <hyperlink ref="J30:K30" location="_6.5.1" display="6.5.1 - Notify support teams about the site rollout schedule and details" xr:uid="{BA2DAE30-B933-4E19-8682-25A3E2A0F64F}"/>
+    <hyperlink ref="J28" location="_6.4.1" display="6.4.1 - Gather feedback for the Pilot" xr:uid="{9D692EA1-2B85-4E77-BE5B-BD3C7816F26F}"/>
+    <hyperlink ref="H28" location="_6.1.1" display="6.1.1 - Modify Email templates for user notification" xr:uid="{D6215A18-08F1-4380-B0BD-E64F095D8DF5}"/>
+    <hyperlink ref="J30" location="_6.1.4" display="6.1.4 - Notify users on the Teams rollout" xr:uid="{77558703-78AA-47EA-8B0D-59577340F9A1}"/>
+    <hyperlink ref="J29" location="_6.3.1" display="6.3.1 - Prepare posters/flyers to attract users' interest before launch" xr:uid="{23E2472C-3171-44A4-977D-E0C3F947FD73}"/>
+    <hyperlink ref="K28" location="_6.3.2" display="6.3.2 - Launch engagement activities" xr:uid="{B95D2B13-C9BA-4EAC-840A-7D238B02A9CF}"/>
+    <hyperlink ref="K29" location="_6.1.2" display="6.1.2 - Let users aware of champions" xr:uid="{C6D8EC87-CB31-4B2C-A128-0D266B623B78}"/>
+    <hyperlink ref="H29" location="_6.2.3" display="6.2.3 - Train champions" xr:uid="{44F21E6D-4063-458D-82ED-AC90FABF6719}"/>
+    <hyperlink ref="F28" location="_6.2.1" display="6.2.1 - Create a collaboration environment for champions" xr:uid="{57103434-406E-4444-88F6-A72457304C20}"/>
+    <hyperlink ref="G28" location="_6.2.2" display="6.2.2 - Build champions for the site" xr:uid="{032190D7-2F6E-4A2F-A470-AAFC05BCAC94}"/>
+    <hyperlink ref="G29" location="_6.1.3" display="6.1.3 - Notify pilot users and champions" xr:uid="{6E7D581D-37F7-49A1-A390-F4A0A1D5C134}"/>
+    <hyperlink ref="L28" location="_6.3.4" display="6.3.4 - Leverage job aides" xr:uid="{E1CBCEAC-122A-4D57-9D23-00A3066D31CB}"/>
+    <hyperlink ref="M30:N30" location="_6.2.4" display="6.2.4 - Have champions noticed by users" xr:uid="{AE0B0CAF-AB5D-4D59-9BF8-7A6D49980717}"/>
+    <hyperlink ref="N31:S31" location="_6.3.3" display="6.3.3 - Organize weekly Tips&amp;Tricks email series" xr:uid="{97C41F33-6672-4ED9-AE18-9F9AF7955250}"/>
+    <hyperlink ref="J31:K31" location="_6.5.1" display="6.5.1 - Notify support teams about the site rollout schedule and details" xr:uid="{BA2DAE30-B933-4E19-8682-25A3E2A0F64F}"/>
+    <hyperlink ref="L23" location="_3.1.12" display="3.1.12 - Enable users for Direct Routing" xr:uid="{1D152132-B8CC-43BF-83A1-75D6962FDCA4}"/>
+    <hyperlink ref="L14" location="_2.4.5" display="2.4.5 - Configure and validate voice routing for the users in the site" xr:uid="{66D34F8C-8063-4DA9-BC31-D14AFEEF1F4E}"/>
+    <hyperlink ref="I13" location="_2.4.1" display="2.4.1 - Configure firewalls to support SBC for Direct Routing" xr:uid="{A219F594-FCAC-43CF-88A5-0C95BE304ED9}"/>
+    <hyperlink ref="J13" location="_2.4.2" display="2.4.2 - Configure SBC's for the site" xr:uid="{4892A65E-ABDA-442C-B957-284515C404B9}"/>
+    <hyperlink ref="J14" location="_2.4.3" display="2.4.3 - Pair the SBC in this site to Direct Routing" xr:uid="{951B97DB-BECC-443A-A1DC-98686F81AE50}"/>
+    <hyperlink ref="J15" location="_2.4.4" display="2.4.4 - Validate the SBC pairing" xr:uid="{B68226C5-8DD8-480F-9508-DDCEB0ED42D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7553,9 +7244,7 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7577,40 +7266,40 @@
       <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="396" t="s">
+      <c r="B2" s="415" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="398"/>
+      <c r="C2" s="416"/>
+      <c r="D2" s="416"/>
+      <c r="E2" s="416"/>
+      <c r="F2" s="416"/>
+      <c r="G2" s="417"/>
     </row>
     <row r="3" spans="1:7" s="88" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="208" t="s">
+      <c r="C3" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="209" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="208" t="s">
+      <c r="D3" s="207" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="208" t="s">
+      <c r="F3" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="210" t="s">
+      <c r="G3" s="208" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="211" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="211" t="s">
+      <c r="C4" s="209" t="s">
         <v>140</v>
       </c>
       <c r="D4" s="48">
@@ -7619,10 +7308,10 @@
       </c>
       <c r="E4" s="83"/>
       <c r="F4" s="55"/>
-      <c r="G4" s="328"/>
+      <c r="G4" s="322"/>
     </row>
     <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="219" t="s">
         <v>103</v>
       </c>
       <c r="C5" s="75">
@@ -7634,12 +7323,12 @@
         <v>143</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="G5" s="153"/>
+        <v>248</v>
+      </c>
+      <c r="G5" s="152"/>
     </row>
     <row r="6" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="222" t="s">
+      <c r="B6" s="220" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="74">
@@ -7651,22 +7340,22 @@
         <v>204</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="G6" s="329"/>
+        <v>249</v>
+      </c>
+      <c r="G6" s="323"/>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="223"/>
+      <c r="B7" s="221"/>
       <c r="C7" s="76"/>
       <c r="D7" s="72"/>
       <c r="E7" s="80"/>
       <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="222" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="212" t="s">
+      <c r="C8" s="210" t="s">
         <v>128</v>
       </c>
       <c r="D8" s="48">
@@ -7675,13 +7364,13 @@
       </c>
       <c r="E8" s="83"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="328"/>
+      <c r="G8" s="322"/>
     </row>
     <row r="9" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="221" t="s">
+      <c r="B9" s="219" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="188">
+      <c r="C9" s="187">
         <f>IF(D9="Yes",0,IF(D9="No",2,IF(D9="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
@@ -7692,47 +7381,47 @@
       <c r="F9" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="330" t="s">
-        <v>240</v>
+      <c r="G9" s="418" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="225" t="s">
+      <c r="B10" s="223" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="278">
+      <c r="C10" s="276">
         <f t="shared" ref="C10:C11" si="1">IF(D10="Yes",0,IF(D10="No",2,IF(D10="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
       <c r="D10" s="77"/>
       <c r="E10" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="G10" s="331"/>
+      <c r="G10" s="419"/>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="71"/>
-      <c r="B11" s="222" t="s">
+      <c r="B11" s="220" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="279">
+      <c r="C11" s="277">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="82" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" s="329"/>
+      <c r="G11" s="420"/>
     </row>
     <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="226"/>
+      <c r="B12" s="224"/>
       <c r="D12" s="81"/>
       <c r="E12" s="80"/>
       <c r="G12" s="46"/>
@@ -7766,13 +7455,13 @@
     </row>
     <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C18" s="78"/>
-      <c r="D18" s="395"/>
+      <c r="D18" s="414"/>
       <c r="E18" s="80"/>
       <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C19" s="78"/>
-      <c r="D19" s="395"/>
+      <c r="D19" s="414"/>
       <c r="E19" s="80"/>
       <c r="G19" s="46"/>
     </row>
@@ -7800,17 +7489,21 @@
       <c r="C25" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G9:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Validation Error" error="Please select appropriate status from the list." promptTitle="Task Status" prompt="Please select the status of this task from the list." sqref="D5:D6 D9:D11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>_Completion_Status</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{8B923F3B-F26B-42AB-BBF2-BD0488EBCED7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <ignoredErrors>
     <ignoredError sqref="B5" twoDigitTextYear="1"/>
   </ignoredErrors>
@@ -7942,11 +7635,9 @@
   <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7962,184 +7653,184 @@
   <sheetData>
     <row r="1" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="409" t="s">
+      <c r="B2" s="423" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="410"/>
-      <c r="D2" s="410"/>
-      <c r="E2" s="410"/>
-      <c r="F2" s="410"/>
-      <c r="G2" s="411"/>
+      <c r="C2" s="424"/>
+      <c r="D2" s="424"/>
+      <c r="E2" s="424"/>
+      <c r="F2" s="424"/>
+      <c r="G2" s="425"/>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="241" t="s">
+      <c r="C3" s="239" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="242" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="243" t="s">
+      <c r="D3" s="240" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="241" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="243" t="s">
+      <c r="F3" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="244" t="s">
+      <c r="G3" s="242" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="213" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="214" t="s">
+      <c r="C4" s="212" t="s">
         <v>130</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="49"/>
-      <c r="F4" s="196" t="s">
-        <v>255</v>
-      </c>
-      <c r="G4" s="321"/>
+      <c r="F4" s="195" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" s="315"/>
     </row>
     <row r="5" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="267" t="s">
+      <c r="B5" s="265" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="189">
+      <c r="C5" s="188">
         <f>IF(D5="Yes",0,IF(D5="No",2,IF(D5="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D5" s="190"/>
-      <c r="E5" s="195" t="s">
+      <c r="D5" s="189"/>
+      <c r="E5" s="194" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="194" t="s">
-        <v>256</v>
-      </c>
-      <c r="G5" s="322"/>
+      <c r="F5" s="193" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="316"/>
     </row>
     <row r="6" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="B6" s="267" t="s">
+      <c r="B6" s="265" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <f t="shared" ref="C6:C12" si="0">IF(D6="Yes",0,IF(D6="No",2,IF(D6="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="195" t="s">
-        <v>339</v>
-      </c>
-      <c r="F6" s="194" t="s">
-        <v>257</v>
-      </c>
-      <c r="G6" s="323" t="s">
+      <c r="D6" s="189"/>
+      <c r="E6" s="194" t="s">
+        <v>337</v>
+      </c>
+      <c r="F6" s="193" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" s="317" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="403" t="s">
+      <c r="B7" s="422" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="402">
+      <c r="C7" s="421">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D7" s="401"/>
-      <c r="E7" s="400" t="s">
-        <v>340</v>
-      </c>
-      <c r="F7" s="399" t="s">
-        <v>259</v>
-      </c>
-      <c r="G7" s="323" t="s">
+      <c r="D7" s="426"/>
+      <c r="E7" s="428" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" s="427" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" s="317" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="403"/>
-      <c r="C8" s="402"/>
-      <c r="D8" s="401"/>
-      <c r="E8" s="400"/>
-      <c r="F8" s="399"/>
-      <c r="G8" s="323" t="s">
+      <c r="B8" s="422"/>
+      <c r="C8" s="421"/>
+      <c r="D8" s="426"/>
+      <c r="E8" s="428"/>
+      <c r="F8" s="427"/>
+      <c r="G8" s="317" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
-      <c r="B9" s="403"/>
-      <c r="C9" s="402"/>
-      <c r="D9" s="401"/>
-      <c r="E9" s="400"/>
-      <c r="F9" s="399"/>
-      <c r="G9" s="323" t="s">
+      <c r="B9" s="422"/>
+      <c r="C9" s="421"/>
+      <c r="D9" s="426"/>
+      <c r="E9" s="428"/>
+      <c r="F9" s="427"/>
+      <c r="G9" s="317" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="169.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="403" t="s">
+      <c r="B10" s="422" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="402">
+      <c r="C10" s="421">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D10" s="401"/>
-      <c r="E10" s="400" t="s">
+      <c r="D10" s="426"/>
+      <c r="E10" s="428" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="399" t="s">
-        <v>363</v>
-      </c>
-      <c r="G10" s="324" t="s">
+      <c r="F10" s="427" t="s">
+        <v>361</v>
+      </c>
+      <c r="G10" s="318" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="169.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="403"/>
-      <c r="C11" s="402"/>
-      <c r="D11" s="401"/>
-      <c r="E11" s="400"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="324" t="s">
+      <c r="B11" s="422"/>
+      <c r="C11" s="421"/>
+      <c r="D11" s="426"/>
+      <c r="E11" s="428"/>
+      <c r="F11" s="427"/>
+      <c r="G11" s="318" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="216" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="187">
+      <c r="C12" s="186">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D12" s="150"/>
-      <c r="E12" s="149" t="s">
+      <c r="D12" s="149"/>
+      <c r="E12" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="183" t="s">
-        <v>258</v>
-      </c>
-      <c r="G12" s="325" t="s">
+      <c r="F12" s="182" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" s="319" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="219"/>
+      <c r="B13" s="217"/>
       <c r="E13" s="25"/>
       <c r="F13" s="12"/>
       <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="220" t="s">
+      <c r="B14" s="218" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="214" t="s">
+      <c r="C14" s="212" t="s">
         <v>131</v>
       </c>
       <c r="D14" s="48">
@@ -8147,24 +7838,24 @@
         <v>1</v>
       </c>
       <c r="E14" s="50"/>
-      <c r="F14" s="196" t="s">
-        <v>260</v>
-      </c>
-      <c r="G14" s="321"/>
+      <c r="F14" s="195" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="315"/>
     </row>
     <row r="15" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="217" t="s">
+      <c r="B15" s="215" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="188">
+      <c r="C15" s="187">
         <f t="shared" ref="C15:C17" si="1">IF(D15="Yes",0,IF(D15="No",2,IF(D15="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D15" s="182"/>
+      <c r="D15" s="181"/>
       <c r="E15" s="68" t="s">
-        <v>343</v>
-      </c>
-      <c r="F15" s="247" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="245" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="69" t="s">
@@ -8172,68 +7863,68 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="216" t="s">
+      <c r="B16" s="214" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="189">
+      <c r="C16" s="188">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D16" s="190"/>
-      <c r="E16" s="191" t="s">
+      <c r="D16" s="189"/>
+      <c r="E16" s="190" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="192" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="326" t="s">
+      <c r="F16" s="191" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="320" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="403" t="s">
+      <c r="B17" s="422" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="402">
+      <c r="C17" s="421">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D17" s="401"/>
-      <c r="E17" s="400" t="s">
+      <c r="D17" s="426"/>
+      <c r="E17" s="428" t="s">
         <v>209</v>
       </c>
-      <c r="F17" s="399" t="s">
-        <v>364</v>
-      </c>
-      <c r="G17" s="326" t="s">
+      <c r="F17" s="427" t="s">
+        <v>362</v>
+      </c>
+      <c r="G17" s="320" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="200"/>
+      <c r="K17" s="199"/>
     </row>
     <row r="18" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="403"/>
-      <c r="C18" s="402"/>
-      <c r="D18" s="401"/>
-      <c r="E18" s="400"/>
-      <c r="F18" s="399"/>
-      <c r="G18" s="326" t="s">
+      <c r="B18" s="422"/>
+      <c r="C18" s="421"/>
+      <c r="D18" s="426"/>
+      <c r="E18" s="428"/>
+      <c r="F18" s="427"/>
+      <c r="G18" s="320" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="408"/>
-      <c r="C19" s="407"/>
-      <c r="D19" s="406"/>
-      <c r="E19" s="405"/>
-      <c r="F19" s="404"/>
-      <c r="G19" s="327" t="s">
+      <c r="B19" s="434"/>
+      <c r="C19" s="433"/>
+      <c r="D19" s="432"/>
+      <c r="E19" s="431"/>
+      <c r="F19" s="430"/>
+      <c r="G19" s="321" t="s">
         <v>156</v>
       </c>
-      <c r="K19" s="200"/>
+      <c r="K19" s="199"/>
     </row>
     <row r="20" spans="1:11" s="28" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31"/>
-      <c r="B20" s="219"/>
+      <c r="B20" s="217"/>
       <c r="C20" s="35"/>
       <c r="D20" s="30"/>
       <c r="E20" s="25"/>
@@ -8241,310 +7932,423 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="249" t="s">
+      <c r="B21" s="247" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="245" t="s">
+      <c r="C21" s="243" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="188">
+      <c r="D21" s="187">
         <f>MAX(C22:C30)</f>
         <v>1</v>
       </c>
-      <c r="E21" s="180"/>
-      <c r="F21" s="181"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="180"/>
       <c r="G21" s="69"/>
     </row>
     <row r="22" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="217" t="s">
+      <c r="B22" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="188">
+      <c r="C22" s="187">
         <f t="shared" ref="C22:C30" si="2">IF(D22="Yes",0,IF(D22="No",2,IF(D22="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D22" s="182"/>
-      <c r="E22" s="180" t="s">
+      <c r="D22" s="181"/>
+      <c r="E22" s="179" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="180" t="s">
         <v>262</v>
       </c>
-      <c r="F22" s="181" t="s">
-        <v>263</v>
-      </c>
       <c r="G22" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="28" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
-      <c r="B23" s="280" t="s">
+      <c r="B23" s="278" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="278">
+      <c r="C23" s="276">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D23" s="276"/>
-      <c r="E23" s="274" t="s">
+      <c r="D23" s="274"/>
+      <c r="E23" s="272" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="273" t="s">
-        <v>264</v>
-      </c>
-      <c r="G23" s="184"/>
+      <c r="F23" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="G23" s="183"/>
     </row>
     <row r="24" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="403" t="s">
+      <c r="B24" s="422" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="402">
+      <c r="C24" s="421">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D24" s="401"/>
-      <c r="E24" s="412" t="s">
+      <c r="D24" s="426"/>
+      <c r="E24" s="429" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="399" t="s">
-        <v>265</v>
-      </c>
-      <c r="G24" s="184" t="s">
+      <c r="F24" s="427" t="s">
+        <v>264</v>
+      </c>
+      <c r="G24" s="183" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="422"/>
+      <c r="C25" s="421"/>
+      <c r="D25" s="426"/>
+      <c r="E25" s="429"/>
+      <c r="F25" s="427"/>
+      <c r="G25" s="183" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="403"/>
-      <c r="C25" s="402"/>
-      <c r="D25" s="401"/>
-      <c r="E25" s="412"/>
-      <c r="F25" s="399"/>
-      <c r="G25" s="184" t="s">
-        <v>245</v>
-      </c>
-    </row>
     <row r="26" spans="1:11" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="403"/>
-      <c r="C26" s="402"/>
-      <c r="D26" s="401"/>
-      <c r="E26" s="412"/>
-      <c r="F26" s="399"/>
-      <c r="G26" s="184" t="s">
+      <c r="B26" s="422"/>
+      <c r="C26" s="421"/>
+      <c r="D26" s="426"/>
+      <c r="E26" s="429"/>
+      <c r="F26" s="427"/>
+      <c r="G26" s="183" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="403" t="s">
+      <c r="B27" s="422" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="402">
+      <c r="C27" s="421">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D27" s="401"/>
-      <c r="E27" s="400" t="s">
+      <c r="D27" s="426"/>
+      <c r="E27" s="428" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="399" t="s">
-        <v>266</v>
-      </c>
-      <c r="G27" s="326" t="s">
+      <c r="F27" s="427" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" s="320" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="422"/>
+      <c r="C28" s="421"/>
+      <c r="D28" s="426"/>
+      <c r="E28" s="428"/>
+      <c r="F28" s="427"/>
+      <c r="G28" s="320" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="403"/>
-      <c r="C28" s="402"/>
-      <c r="D28" s="401"/>
-      <c r="E28" s="400"/>
-      <c r="F28" s="399"/>
-      <c r="G28" s="326" t="s">
-        <v>243</v>
-      </c>
-    </row>
     <row r="29" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="280" t="s">
+      <c r="B29" s="278" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="278">
+      <c r="C29" s="276">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D29" s="276"/>
-      <c r="E29" s="274" t="s">
+      <c r="D29" s="274"/>
+      <c r="E29" s="272" t="s">
         <v>215</v>
       </c>
-      <c r="F29" s="284" t="s">
-        <v>267</v>
-      </c>
-      <c r="G29" s="326" t="s">
-        <v>246</v>
+      <c r="F29" s="281" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" s="320" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="281" t="s">
+      <c r="B30" s="279" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="279">
+      <c r="C30" s="277">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D30" s="277"/>
-      <c r="E30" s="275" t="s">
+      <c r="D30" s="275"/>
+      <c r="E30" s="273" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="219"/>
+      <c r="B31" s="217"/>
       <c r="E31" s="26"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="220" t="s">
+      <c r="B32" s="218" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="214" t="s">
+      <c r="C32" s="212" t="s">
+        <v>378</v>
+      </c>
+      <c r="D32" s="48">
+        <f>MAX(C33:C39)</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="52"/>
+      <c r="F32" s="196" t="s">
+        <v>377</v>
+      </c>
+      <c r="G32" s="51"/>
+    </row>
+    <row r="33" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="440" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="439">
+        <f>IF(D33="Yes",0,IF(D33="No",2,IF(D33="Not Applicable","",1)))</f>
+        <v>1</v>
+      </c>
+      <c r="D33" s="438"/>
+      <c r="E33" s="437" t="s">
+        <v>395</v>
+      </c>
+      <c r="F33" s="435" t="s">
+        <v>398</v>
+      </c>
+      <c r="G33" s="354" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="422"/>
+      <c r="C34" s="421"/>
+      <c r="D34" s="426"/>
+      <c r="E34" s="428"/>
+      <c r="F34" s="436"/>
+      <c r="G34" s="355" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="422" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" s="421">
+        <f>IF(D35="Yes",0,IF(D35="No",2,IF(D35="Not Applicable","",1)))</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="426"/>
+      <c r="E35" s="428" t="s">
+        <v>383</v>
+      </c>
+      <c r="F35" s="436" t="s">
+        <v>399</v>
+      </c>
+      <c r="G35" s="355" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="422"/>
+      <c r="C36" s="421"/>
+      <c r="D36" s="426"/>
+      <c r="E36" s="428"/>
+      <c r="F36" s="436"/>
+      <c r="G36" s="355" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="345" t="s">
+        <v>368</v>
+      </c>
+      <c r="C37" s="344">
+        <f t="shared" ref="C37:C39" si="3">IF(D37="Yes",0,IF(D37="No",2,IF(D37="Not Applicable","",1)))</f>
+        <v>1</v>
+      </c>
+      <c r="D37" s="343"/>
+      <c r="E37" s="350" t="s">
+        <v>400</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G37" s="355" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="345" t="s">
+        <v>374</v>
+      </c>
+      <c r="C38" s="344">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="343"/>
+      <c r="E38" s="350" t="s">
+        <v>393</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G38" s="355" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="121.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="349" t="s">
+        <v>375</v>
+      </c>
+      <c r="C39" s="348">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="347"/>
+      <c r="E39" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="F39" s="364" t="s">
+        <v>397</v>
+      </c>
+      <c r="G39" s="252" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="217"/>
+      <c r="E40" s="350"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="2:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="218" t="s">
+        <v>370</v>
+      </c>
+      <c r="C41" s="212" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="48">
-        <f>MAX(C33)</f>
+      <c r="D41" s="48">
+        <f>MAX(C42)</f>
         <v>1</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="197" t="s">
+      <c r="E41" s="52"/>
+      <c r="F41" s="196" t="s">
+        <v>268</v>
+      </c>
+      <c r="G41" s="51"/>
+    </row>
+    <row r="42" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="216" t="s">
+        <v>369</v>
+      </c>
+      <c r="C42" s="64">
+        <f t="shared" ref="C42" si="4">IF(D42="Yes",0,IF(D42="No",2,IF(D42="Not Applicable","",1)))</f>
+        <v>1</v>
+      </c>
+      <c r="D42" s="63"/>
+      <c r="E42" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="G32" s="51"/>
-    </row>
-    <row r="33" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="218" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="64">
-        <f t="shared" ref="C33" si="3">IF(D33="Yes",0,IF(D33="No",2,IF(D33="Not Applicable","",1)))</f>
-        <v>1</v>
-      </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="G33" s="332"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="219"/>
-      <c r="E34" s="24"/>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="219"/>
-      <c r="E35" s="21"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="219"/>
-      <c r="E36" s="21"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="219"/>
-      <c r="E37" s="21"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="219"/>
-      <c r="E38" s="21"/>
-      <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E39" s="21"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E40" s="21"/>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E41" s="21"/>
-      <c r="G41" s="22"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E42" s="21"/>
-      <c r="G42" s="22"/>
+      <c r="G42" s="38" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E43" s="21"/>
+      <c r="B43" s="217"/>
+      <c r="E43" s="24"/>
       <c r="G43" s="22"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="217"/>
       <c r="E44" s="21"/>
       <c r="G44" s="22"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="217"/>
       <c r="E45" s="21"/>
+      <c r="G45" s="22"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="217"/>
       <c r="E46" s="21"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="217"/>
       <c r="E47" s="21"/>
+      <c r="G47" s="22"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E48" s="21"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E49" s="21"/>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E50" s="21"/>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E51" s="21"/>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E52" s="21"/>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E53" s="21"/>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E54" s="21"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E55" s="22"/>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E56" s="22"/>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E57" s="22"/>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E58" s="22"/>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E59" s="22"/>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E60" s="22"/>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E61" s="22"/>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E62" s="22"/>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E63" s="22"/>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E59" s="21"/>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E60" s="21"/>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E61" s="21"/>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E64" s="22"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.3">
@@ -8757,8 +8561,55 @@
     <row r="134" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E134" s="22"/>
     </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E135" s="22"/>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E136" s="22"/>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E137" s="22"/>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E138" s="22"/>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E139" s="22"/>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E140" s="22"/>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E141" s="22"/>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E142" s="22"/>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E143" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="36">
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B2:G2"/>
@@ -8775,19 +8626,9 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Validation Error" error="Please select appropriate status from the list." promptTitle="Task Status" prompt="Please select the status of this task from the list." sqref="D15:D17 D33 D22:D25 D5:D7 D10:D12 D27 D29:D30" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Validation Error" error="Please select appropriate status from the list." promptTitle="Task Status" prompt="Please select the status of this task from the list." sqref="D15:D17 D42 D22:D25 D5:D7 D10:D12 D27 D29:D30 D33 D35 D37:D39" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>_Completion_Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -8812,14 +8653,22 @@
     <hyperlink ref="G24" r:id="rId18" location="dial-plans" xr:uid="{AF5F03FA-DAC3-4B83-B3E7-923829D3E80F}"/>
     <hyperlink ref="G25" r:id="rId19" display="https://docs.microsoft.com/SkypeForBusiness/what-are-calling-plans-in-office-365/what-are-dial-plans" xr:uid="{FDB45202-6D03-42E2-8F60-00FC004D0EE8}"/>
     <hyperlink ref="G29" r:id="rId20" location="phone-numbers-and-emergency-locations" display="https://docs.microsoft.com/MicrosoftTeams/phone-system-with-calling-plans - phone-numbers-and-emergency-locations" xr:uid="{D7693BCD-A9E2-43E0-B84B-6EF886AE61E3}"/>
+    <hyperlink ref="G42" r:id="rId21" xr:uid="{962F15AA-36A6-4F5F-B53B-D79AD4A04266}"/>
+    <hyperlink ref="G37" r:id="rId22" location="supported-session-border-controllers-sbcs" xr:uid="{AFF959CC-9550-47C0-A559-2178A3861A60}"/>
+    <hyperlink ref="G38" r:id="rId23" location="pair-the-sbc-to-direct-routing-service-of-phone-system" xr:uid="{81473BAE-01EF-4648-B9A1-6A10A377B51D}"/>
+    <hyperlink ref="G39" r:id="rId24" location="configure-voice-routing" xr:uid="{7A238FB7-C860-4486-92B1-51FDD4EAC7FE}"/>
+    <hyperlink ref="G35" r:id="rId25" location="supported-session-border-controllers-sbcs" xr:uid="{2338FA8B-95B5-4A50-9DA1-D1D3D8B3BB4A}"/>
+    <hyperlink ref="G33" r:id="rId26" location="sip-signaling-fqdns-and-firewall-ports" xr:uid="{8097BADC-CA28-42FD-B4E8-6C65663FD18E}"/>
+    <hyperlink ref="G34" r:id="rId27" location="media-traffic-ip-addresses-and-port-ranges" xr:uid="{AE8F1A1E-9210-4CFC-BC76-DFD9FFE51183}"/>
+    <hyperlink ref="G36" r:id="rId28" location="public-trusted-certificate-for-the-sbc" xr:uid="{30609588-47D1-41F6-8B4D-24522CE298E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{15A4E934-FF08-45F9-B6E1-4ACBFDA1BE85}">
+          <x14:cfRule type="iconSet" priority="27" id="{15A4E934-FF08-45F9-B6E1-4ACBFDA1BE85}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8838,7 +8687,7 @@
           <xm:sqref>D4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{A67393C2-61C3-45F4-BBDA-B06ADD857C3B}">
+          <x14:cfRule type="iconSet" priority="26" id="{A67393C2-61C3-45F4-BBDA-B06ADD857C3B}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8857,7 +8706,7 @@
           <xm:sqref>D14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{2CFDF7AB-4733-4598-9642-2782D965B434}">
+          <x14:cfRule type="iconSet" priority="25" id="{2CFDF7AB-4733-4598-9642-2782D965B434}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8876,7 +8725,102 @@
           <xm:sqref>D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{C8189666-EC23-47B1-A5A1-49DF0EA8D901}">
+          <x14:cfRule type="iconSet" priority="22" id="{C8189666-EC23-47B1-A5A1-49DF0EA8D901}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="20" id="{FA397D9C-9FAF-439F-BD21-C79B990B7365}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="18" id="{6BB0F012-2E5E-4A3F-96F1-3BA4C394D979}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C15:C17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{DB5B3568-B339-4EC3-A41A-43862589F155}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{5F4A732C-B5A1-4DF3-BFC9-358433FCFBF4}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{8EE94039-50C4-4564-B479-EC5884A5FC17}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8895,7 +8839,7 @@
           <xm:sqref>D32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{FA397D9C-9FAF-439F-BD21-C79B990B7365}">
+          <x14:cfRule type="iconSet" priority="2" id="{453B53F6-4830-45F3-B9A7-A51BFB824F61}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8911,10 +8855,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C10</xm:sqref>
+          <xm:sqref>C33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{6BB0F012-2E5E-4A3F-96F1-3BA4C394D979}">
+          <x14:cfRule type="iconSet" priority="1" id="{017DBF7E-49C5-4CA5-929D-59E70FAEB302}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8930,10 +8874,10 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C15:C17</xm:sqref>
+          <xm:sqref>C35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{DB5B3568-B339-4EC3-A41A-43862589F155}">
+          <x14:cfRule type="iconSet" priority="157" id="{C39ABBB9-A549-44A8-8A5B-BF9D183AE555}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8949,45 +8893,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="134" id="{C39ABBB9-A549-44A8-8A5B-BF9D183AE555}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C13:C14 C29:C999 C3:C7 C20:C25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{5F4A732C-B5A1-4DF3-BFC9-358433FCFBF4}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C27</xm:sqref>
+          <xm:sqref>C13:C14 C3:C7 C20:C25 C29:C32 C37:C1008</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9002,9 +8908,7 @@
   </sheetPr>
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9025,297 +8929,313 @@
       <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="409" t="s">
+      <c r="B2" s="423" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="410"/>
-      <c r="D2" s="410"/>
-      <c r="E2" s="410"/>
-      <c r="F2" s="410"/>
-      <c r="G2" s="411"/>
+      <c r="C2" s="424"/>
+      <c r="D2" s="424"/>
+      <c r="E2" s="424"/>
+      <c r="F2" s="424"/>
+      <c r="G2" s="425"/>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="208" t="s">
+      <c r="C3" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="209" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="208" t="s">
+      <c r="D3" s="207" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="208" t="s">
+      <c r="F3" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="210" t="s">
+      <c r="G3" s="208" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="247" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="250" t="s">
+      <c r="C4" s="248" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="188">
-        <f>MAX(C5:C17)</f>
+      <c r="D4" s="187">
+        <f>MAX(C5:C18)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="193"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="251"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="249"/>
     </row>
     <row r="5" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="361" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="188">
+      <c r="C5" s="360">
         <f>IF(D5="Yes",0,IF(D5="No",2,IF(D5="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D5" s="202"/>
-      <c r="E5" s="341" t="s">
-        <v>271</v>
-      </c>
-      <c r="F5" s="193" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="201" t="s">
+      <c r="D5" s="359"/>
+      <c r="E5" s="358" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="357" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" s="200" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="31" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
-      <c r="B6" s="280" t="s">
+      <c r="B6" s="345" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="278">
+      <c r="C6" s="344">
         <f>IF(D6="Yes",0,IF(D6="No",2,IF(D6="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D6" s="285"/>
-      <c r="E6" s="282" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="273" t="s">
-        <v>276</v>
-      </c>
-      <c r="G6" s="252" t="s">
+      <c r="D6" s="353"/>
+      <c r="E6" s="350" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="342" t="s">
+        <v>275</v>
+      </c>
+      <c r="G6" s="250" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="31" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
-      <c r="B7" s="280" t="s">
+      <c r="B7" s="345" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="278">
+      <c r="C7" s="344">
         <f>IF(D7="Yes",0,IF(D7="No",2,IF(D7="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D7" s="285"/>
-      <c r="E7" s="282" t="s">
+      <c r="D7" s="353"/>
+      <c r="E7" s="350" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="273" t="s">
-        <v>277</v>
-      </c>
-      <c r="G7" s="248" t="s">
+      <c r="F7" s="342" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" s="246" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
-      <c r="B8" s="403" t="s">
+      <c r="B8" s="422" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="402">
-        <f t="shared" ref="C8:C17" si="0">IF(D8="Yes",0,IF(D8="No",2,IF(D8="Not Applicable","",1)))</f>
+      <c r="C8" s="421">
+        <f t="shared" ref="C8:C18" si="0">IF(D8="Yes",0,IF(D8="No",2,IF(D8="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D8" s="417"/>
-      <c r="E8" s="415" t="s">
-        <v>278</v>
-      </c>
-      <c r="F8" s="414" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" s="283" t="s">
+      <c r="D8" s="444"/>
+      <c r="E8" s="442" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" s="436" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" s="280" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="31" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="403"/>
-      <c r="C9" s="402"/>
-      <c r="D9" s="417"/>
-      <c r="E9" s="416"/>
-      <c r="F9" s="414"/>
-      <c r="G9" s="283" t="s">
+      <c r="B9" s="422"/>
+      <c r="C9" s="421"/>
+      <c r="D9" s="444"/>
+      <c r="E9" s="443"/>
+      <c r="F9" s="436"/>
+      <c r="G9" s="280" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="31" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="403"/>
-      <c r="C10" s="402"/>
-      <c r="D10" s="417"/>
-      <c r="E10" s="416"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="283" t="s">
+      <c r="B10" s="422"/>
+      <c r="C10" s="421"/>
+      <c r="D10" s="444"/>
+      <c r="E10" s="443"/>
+      <c r="F10" s="436"/>
+      <c r="G10" s="280" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="280" t="s">
+      <c r="B11" s="345" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="278">
+      <c r="C11" s="344">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D11" s="285"/>
-      <c r="E11" s="282" t="s">
+      <c r="D11" s="353"/>
+      <c r="E11" s="350" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="273" t="s">
+      <c r="F11" s="342" t="s">
         <v>239</v>
       </c>
-      <c r="G11" s="283" t="s">
+      <c r="G11" s="280" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="31" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
-      <c r="B12" s="280" t="s">
+      <c r="B12" s="345" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="278">
+      <c r="C12" s="344">
         <f t="shared" ref="C12" si="1">IF(D12="Yes",0,IF(D12="No",2,IF(D12="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D12" s="285"/>
-      <c r="E12" s="342" t="s">
-        <v>281</v>
-      </c>
-      <c r="F12" s="273" t="s">
-        <v>283</v>
-      </c>
-      <c r="G12" s="283" t="s">
+      <c r="D12" s="353"/>
+      <c r="E12" s="352" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="342" t="s">
+        <v>282</v>
+      </c>
+      <c r="G12" s="280" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="280" t="s">
+      <c r="B13" s="345" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="278">
+      <c r="C13" s="344">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D13" s="285"/>
-      <c r="E13" s="344" t="s">
-        <v>346</v>
+      <c r="D13" s="353"/>
+      <c r="E13" s="334" t="s">
+        <v>344</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="G13" s="283" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" s="280" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="280" t="s">
+      <c r="B14" s="345" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="278">
+      <c r="C14" s="344">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D14" s="285"/>
-      <c r="E14" s="292" t="s">
+      <c r="D14" s="353"/>
+      <c r="E14" s="288" t="s">
         <v>237</v>
       </c>
-      <c r="F14" s="284" t="s">
+      <c r="F14" s="351" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="184" t="s">
+      <c r="G14" s="355" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="280" t="s">
+      <c r="B15" s="345" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="278">
+      <c r="C15" s="344">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D15" s="285"/>
-      <c r="E15" s="342" t="s">
-        <v>285</v>
-      </c>
-      <c r="F15" s="284" t="s">
+      <c r="D15" s="353"/>
+      <c r="E15" s="352" t="s">
+        <v>284</v>
+      </c>
+      <c r="F15" s="351" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="283" t="s">
+      <c r="G15" s="280" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="280" t="s">
+      <c r="B16" s="345" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="278">
+      <c r="C16" s="344">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D16" s="285"/>
-      <c r="E16" s="342" t="s">
-        <v>287</v>
-      </c>
-      <c r="F16" s="284" t="s">
-        <v>289</v>
-      </c>
-      <c r="G16" s="184" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="353"/>
+      <c r="E16" s="352" t="s">
+        <v>286</v>
+      </c>
+      <c r="F16" s="351" t="s">
+        <v>288</v>
+      </c>
+      <c r="G16" s="355" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
-      <c r="B17" s="281" t="s">
+      <c r="B17" s="345" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="279">
+      <c r="C17" s="344">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D17" s="253"/>
-      <c r="E17" s="343" t="s">
+      <c r="D17" s="353"/>
+      <c r="E17" s="352" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="351" t="s">
         <v>290</v>
       </c>
-      <c r="F17" s="183" t="s">
-        <v>291</v>
-      </c>
-      <c r="G17" s="333" t="s">
+      <c r="G17" s="366" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="228"/>
+    <row r="18" spans="1:7" ht="180" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="349" t="s">
+        <v>388</v>
+      </c>
+      <c r="C18" s="348">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="251"/>
+      <c r="E18" s="365" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="346" t="s">
+        <v>403</v>
+      </c>
+      <c r="G18" s="252" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="32"/>
     </row>
     <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D22" s="413"/>
+      <c r="D22" s="441"/>
     </row>
     <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="32"/>
-      <c r="D23" s="413"/>
+      <c r="D23" s="441"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="32"/>
@@ -9362,7 +9282,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="32"/>
-      <c r="D38" s="185"/>
+      <c r="D38" s="184"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="32"/>
@@ -9571,7 +9491,7 @@
     <mergeCell ref="C8:C10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Validation Error" error="Please select appropriate status from the list." promptTitle="Task Status" prompt="Please select the status of this task from the list." sqref="D5:D8 D11:D17" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Validation Error" error="Please select appropriate status from the list." promptTitle="Task Status" prompt="Please select the status of this task from the list." sqref="D5:D8 D11:D18" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>_Completion_Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -9589,9 +9509,10 @@
     <hyperlink ref="G15" r:id="rId11" xr:uid="{8A1F8FFB-1EDC-441C-8D90-D214F99EAD98}"/>
     <hyperlink ref="G8" r:id="rId12" location="step-5" xr:uid="{1FF841D1-A912-4B5A-8824-E7B98EAA7BED}"/>
     <hyperlink ref="G16" r:id="rId13" location="phone-numbers-and-emergency-locations" xr:uid="{225AFC1C-F727-45E5-A298-54D28DC4983B}"/>
+    <hyperlink ref="G18" r:id="rId14" location="set-microsoft-teams-as-the-preferred-calling-client-for-the-users" xr:uid="{27C8B30C-09D9-40A6-BE7A-6C3B6969C59C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -9612,7 +9533,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C18:C995 C3:C4</xm:sqref>
+          <xm:sqref>C19:C995 C3:C4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="8" id="{22D14E4F-73F4-4940-A6B4-71B5EF25DA05}">
@@ -9707,7 +9628,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C13:C17</xm:sqref>
+          <xm:sqref>C13:C18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9722,9 +9643,7 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9745,41 +9664,41 @@
       <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="409" t="s">
+      <c r="B2" s="423" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="410"/>
-      <c r="D2" s="410"/>
-      <c r="E2" s="410"/>
-      <c r="F2" s="410"/>
-      <c r="G2" s="411"/>
+      <c r="C2" s="424"/>
+      <c r="D2" s="424"/>
+      <c r="E2" s="424"/>
+      <c r="F2" s="424"/>
+      <c r="G2" s="425"/>
     </row>
     <row r="3" spans="1:10" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="208" t="s">
+      <c r="C3" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="209" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="208" t="s">
+      <c r="D3" s="207" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="208" t="s">
+      <c r="F3" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="210" t="s">
+      <c r="G3" s="208" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="119"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="227" t="s">
+      <c r="C4" s="225" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="48">
@@ -9791,63 +9710,63 @@
       <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="439" t="s">
+      <c r="B5" s="440" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="438">
+      <c r="C5" s="439">
         <f t="shared" ref="C5:C7" si="0">IF(D5="Yes",0,IF(D5="No",2,IF(D5="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D5" s="437"/>
-      <c r="E5" s="436" t="s">
-        <v>292</v>
+      <c r="D5" s="446"/>
+      <c r="E5" s="445" t="s">
+        <v>291</v>
       </c>
       <c r="F5" s="435" t="s">
-        <v>365</v>
-      </c>
-      <c r="G5" s="350" t="s">
+        <v>363</v>
+      </c>
+      <c r="G5" s="340" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="403"/>
-      <c r="C6" s="402"/>
-      <c r="D6" s="417"/>
-      <c r="E6" s="415"/>
-      <c r="F6" s="414"/>
-      <c r="G6" s="351" t="s">
-        <v>366</v>
+      <c r="B6" s="422"/>
+      <c r="C6" s="421"/>
+      <c r="D6" s="444"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="436"/>
+      <c r="G6" s="341" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="76.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="349" t="s">
+      <c r="B7" s="339" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="348">
+      <c r="C7" s="338">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D7" s="253"/>
-      <c r="E7" s="343" t="s">
-        <v>294</v>
+      <c r="D7" s="251"/>
+      <c r="E7" s="333" t="s">
+        <v>293</v>
       </c>
       <c r="F7" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="G7" s="252" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="226"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="218" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="225" t="s">
         <v>296</v>
-      </c>
-      <c r="G7" s="254" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="228"/>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="220" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="227" t="s">
-        <v>297</v>
       </c>
       <c r="D9" s="48">
         <f>MAX(C10:C16)</f>
@@ -9858,128 +9777,128 @@
       <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:10" ht="138" x14ac:dyDescent="0.3">
-      <c r="B10" s="217" t="s">
+      <c r="B10" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="188">
+      <c r="C10" s="187">
         <f t="shared" ref="C10:C16" si="1">IF(D10="Yes",0,IF(D10="No",2,IF(D10="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
       <c r="D10" s="70"/>
-      <c r="E10" s="345" t="s">
-        <v>348</v>
-      </c>
-      <c r="F10" s="193" t="s">
-        <v>298</v>
+      <c r="E10" s="335" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="192" t="s">
+        <v>297</v>
       </c>
       <c r="G10" s="418" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="216" t="s">
+      <c r="B11" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="189">
+      <c r="C11" s="188">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D11" s="66"/>
-      <c r="E11" s="342" t="s">
-        <v>351</v>
-      </c>
-      <c r="F11" s="194" t="s">
-        <v>299</v>
+      <c r="E11" s="332" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="193" t="s">
+        <v>298</v>
       </c>
       <c r="G11" s="419"/>
     </row>
     <row r="12" spans="1:10" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="216" t="s">
+      <c r="B12" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="189">
+      <c r="C12" s="188">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D12" s="66"/>
-      <c r="E12" s="198" t="s">
+      <c r="E12" s="197" t="s">
         <v>179</v>
       </c>
-      <c r="F12" s="194" t="s">
-        <v>300</v>
+      <c r="F12" s="193" t="s">
+        <v>299</v>
       </c>
       <c r="G12" s="43"/>
     </row>
     <row r="13" spans="1:10" ht="220.8" x14ac:dyDescent="0.35">
-      <c r="B13" s="216" t="s">
+      <c r="B13" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="189">
+      <c r="C13" s="188">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D13" s="66"/>
-      <c r="E13" s="152" t="s">
+      <c r="E13" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="194" t="s">
-        <v>301</v>
-      </c>
-      <c r="G13" s="334"/>
+      <c r="F13" s="193" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" s="324"/>
     </row>
     <row r="14" spans="1:10" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
-      <c r="B14" s="216" t="s">
+      <c r="B14" s="214" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="189">
+      <c r="C14" s="188">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D14" s="66"/>
-      <c r="E14" s="152" t="s">
+      <c r="E14" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="194" t="s">
-        <v>302</v>
+      <c r="F14" s="193" t="s">
+        <v>301</v>
       </c>
       <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
-      <c r="B15" s="216" t="s">
+      <c r="B15" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="189">
+      <c r="C15" s="188">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D15" s="66"/>
-      <c r="E15" s="340" t="s">
-        <v>334</v>
-      </c>
-      <c r="F15" s="194" t="s">
-        <v>303</v>
+      <c r="E15" s="330" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" s="193" t="s">
+        <v>302</v>
       </c>
       <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="218" t="s">
+      <c r="B16" s="216" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="187">
+      <c r="C16" s="186">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D16" s="255"/>
-      <c r="E16" s="206" t="s">
-        <v>350</v>
-      </c>
-      <c r="F16" s="183"/>
-      <c r="G16" s="254"/>
+      <c r="D16" s="253"/>
+      <c r="E16" s="204" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="182"/>
+      <c r="G16" s="252"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="228"/>
+      <c r="B17" s="226"/>
       <c r="E17" s="27"/>
       <c r="F17" s="11"/>
       <c r="G17" s="2"/>
@@ -10235,130 +10154,130 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" style="155" customWidth="1"/>
-    <col min="2" max="2" width="9" style="171"/>
-    <col min="3" max="3" width="22.88671875" style="172" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="173" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" style="174" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.44140625" style="160" customWidth="1"/>
-    <col min="7" max="7" width="48.33203125" style="160" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="160"/>
+    <col min="1" max="1" width="1.88671875" style="154" customWidth="1"/>
+    <col min="2" max="2" width="9" style="170"/>
+    <col min="3" max="3" width="22.88671875" style="171" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="172" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" style="173" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.44140625" style="159" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" style="159" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="159"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="155" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="156"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="159"/>
+    <row r="1" spans="1:7" s="154" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="155"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="158"/>
     </row>
     <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="420" t="s">
+      <c r="B2" s="447" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="421"/>
-      <c r="D2" s="421"/>
-      <c r="E2" s="421"/>
-      <c r="F2" s="421"/>
-      <c r="G2" s="422"/>
-    </row>
-    <row r="3" spans="1:7" s="161" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="229" t="s">
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
+      <c r="F2" s="448"/>
+      <c r="G2" s="449"/>
+    </row>
+    <row r="3" spans="1:7" s="160" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="230" t="s">
+      <c r="C3" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="209" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="230" t="s">
+      <c r="D3" s="207" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="230" t="s">
+      <c r="F3" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="231" t="s">
+      <c r="G3" s="229" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="232" t="s">
+      <c r="B4" s="230" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="212" t="s">
+      <c r="C4" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="162">
+      <c r="D4" s="161">
         <f>MAX(C5:C7)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="163"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="165"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="164"/>
     </row>
     <row r="5" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="233" t="s">
+      <c r="B5" s="231" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="166">
+      <c r="C5" s="165">
         <f t="shared" ref="C5:C7" si="0">IF(D5="Yes",0,IF(D5="No",2,IF(D5="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="347" t="s">
+      <c r="D5" s="166"/>
+      <c r="E5" s="337" t="s">
         <v>223</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="G5" s="324" t="s">
-        <v>247</v>
+        <v>303</v>
+      </c>
+      <c r="G5" s="318" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="233" t="s">
+      <c r="B6" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="168">
+      <c r="C6" s="167">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D6" s="258"/>
-      <c r="E6" s="261" t="s">
+      <c r="D6" s="256"/>
+      <c r="E6" s="259" t="s">
         <v>226</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="G6" s="324" t="s">
-        <v>248</v>
+        <v>304</v>
+      </c>
+      <c r="G6" s="318" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="234" t="s">
+      <c r="B7" s="232" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="169">
+      <c r="C7" s="168">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D7" s="259"/>
-      <c r="E7" s="262" t="s">
+      <c r="D7" s="257"/>
+      <c r="E7" s="260" t="s">
         <v>227</v>
       </c>
-      <c r="F7" s="199" t="s">
-        <v>306</v>
-      </c>
-      <c r="G7" s="434"/>
+      <c r="F7" s="198" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="356"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G14" s="177"/>
+      <c r="G14" s="176"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="175"/>
+      <c r="A15" s="174"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="175"/>
+      <c r="A17" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10486,9 +10405,7 @@
   </sheetPr>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10509,40 +10426,40 @@
       <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="420" t="s">
+      <c r="B2" s="447" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="421"/>
-      <c r="D2" s="421"/>
-      <c r="E2" s="421"/>
-      <c r="F2" s="421"/>
-      <c r="G2" s="422"/>
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
+      <c r="F2" s="448"/>
+      <c r="G2" s="449"/>
     </row>
     <row r="3" spans="1:11" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="208" t="s">
+      <c r="C3" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="209" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="208" t="s">
+      <c r="D3" s="207" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="208" t="s">
+      <c r="F3" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="210" t="s">
+      <c r="G3" s="208" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="236" t="s">
+      <c r="B4" s="234" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="235" t="s">
+      <c r="C4" s="233" t="s">
         <v>187</v>
       </c>
       <c r="D4" s="67">
@@ -10555,21 +10472,21 @@
     </row>
     <row r="5" spans="1:11" s="10" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
-      <c r="B5" s="237" t="s">
+      <c r="B5" s="235" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="188">
+      <c r="C5" s="187">
         <f>IF(D5="Yes",0,IF(D5="No",2,IF(D5="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D5" s="151"/>
-      <c r="E5" s="203" t="s">
+      <c r="D5" s="150"/>
+      <c r="E5" s="201" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="204" t="s">
-        <v>308</v>
-      </c>
-      <c r="G5" s="425" t="s">
+      <c r="F5" s="202" t="s">
+        <v>307</v>
+      </c>
+      <c r="G5" s="452" t="s">
         <v>186</v>
       </c>
       <c r="I5" s="5"/>
@@ -10578,67 +10495,67 @@
     </row>
     <row r="6" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
-      <c r="B6" s="269" t="s">
+      <c r="B6" s="267" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="266">
+      <c r="C6" s="264">
         <f t="shared" ref="C6:C8" si="0">IF(D6="Yes",0,IF(D6="No",2,IF(D6="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D6" s="265"/>
-      <c r="E6" s="344" t="s">
-        <v>359</v>
+      <c r="D6" s="263"/>
+      <c r="E6" s="334" t="s">
+        <v>357</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="426"/>
+        <v>308</v>
+      </c>
+      <c r="G6" s="453"/>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
-      <c r="B7" s="269" t="s">
+      <c r="B7" s="267" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="266">
+      <c r="C7" s="264">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D7" s="265"/>
-      <c r="E7" s="260" t="s">
+      <c r="D7" s="263"/>
+      <c r="E7" s="258" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="423" t="s">
-        <v>310</v>
-      </c>
-      <c r="G7" s="426" t="s">
+      <c r="F7" s="450" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="453" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31"/>
-      <c r="B8" s="270" t="s">
+      <c r="B8" s="268" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="268">
+      <c r="C8" s="266">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D8" s="271"/>
-      <c r="E8" s="346" t="s">
-        <v>357</v>
-      </c>
-      <c r="F8" s="424"/>
-      <c r="G8" s="427"/>
+      <c r="D8" s="269"/>
+      <c r="E8" s="336" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" s="451"/>
+      <c r="G8" s="454"/>
     </row>
     <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="238"/>
+      <c r="B9" s="236"/>
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="239" t="s">
+      <c r="B10" s="237" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="212" t="s">
+      <c r="C10" s="210" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="48">
@@ -10650,86 +10567,86 @@
       <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:11" ht="69" x14ac:dyDescent="0.3">
-      <c r="B11" s="237" t="s">
+      <c r="B11" s="235" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="188">
+      <c r="C11" s="187">
         <f t="shared" ref="C11:C14" si="1">IF(D11="Yes",0,IF(D11="No",2,IF(D11="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D11" s="151"/>
-      <c r="E11" s="339" t="s">
+      <c r="D11" s="150"/>
+      <c r="E11" s="329" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="286" t="s">
+      <c r="B12" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="278">
+      <c r="C12" s="276">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D12" s="272"/>
-      <c r="E12" s="344" t="s">
-        <v>353</v>
+      <c r="D12" s="270"/>
+      <c r="E12" s="334" t="s">
+        <v>351</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>312</v>
-      </c>
-      <c r="G12" s="426" t="s">
+        <v>311</v>
+      </c>
+      <c r="G12" s="453" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="286" t="s">
+      <c r="B13" s="282" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="278">
+      <c r="C13" s="276">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D13" s="272"/>
-      <c r="E13" s="178" t="s">
+      <c r="D13" s="270"/>
+      <c r="E13" s="177" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="G13" s="426"/>
+        <v>312</v>
+      </c>
+      <c r="G13" s="453"/>
     </row>
     <row r="14" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="287" t="s">
+      <c r="B14" s="283" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="279">
+      <c r="C14" s="277">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D14" s="288"/>
-      <c r="E14" s="346" t="s">
-        <v>362</v>
+      <c r="D14" s="284"/>
+      <c r="E14" s="336" t="s">
+        <v>360</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="238"/>
+      <c r="B15" s="236"/>
       <c r="E15" s="11"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31"/>
-      <c r="B16" s="239" t="s">
+      <c r="B16" s="237" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="212" t="s">
+      <c r="C16" s="210" t="s">
         <v>195</v>
       </c>
       <c r="D16" s="48">
@@ -10738,169 +10655,169 @@
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="55"/>
-      <c r="G16" s="336"/>
+      <c r="G16" s="326"/>
     </row>
     <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="237" t="s">
+      <c r="B17" s="235" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="188">
+      <c r="C17" s="187">
         <f t="shared" ref="C17:C20" si="2">IF(D17="Yes",0,IF(D17="No",2,IF(D17="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D17" s="151"/>
-      <c r="E17" s="179" t="s">
+      <c r="D17" s="150"/>
+      <c r="E17" s="178" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>315</v>
-      </c>
-      <c r="G17" s="425" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" s="452" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
-      <c r="B18" s="233" t="s">
+      <c r="B18" s="231" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="189">
+      <c r="C18" s="188">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D18" s="186"/>
-      <c r="E18" s="260" t="s">
+      <c r="D18" s="185"/>
+      <c r="E18" s="258" t="s">
         <v>231</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>316</v>
-      </c>
-      <c r="G18" s="426"/>
+        <v>315</v>
+      </c>
+      <c r="G18" s="453"/>
     </row>
     <row r="19" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="233" t="s">
+      <c r="B19" s="231" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="189">
+      <c r="C19" s="188">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D19" s="186"/>
-      <c r="E19" s="344" t="s">
-        <v>317</v>
+      <c r="D19" s="185"/>
+      <c r="E19" s="334" t="s">
+        <v>316</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="426"/>
+        <v>318</v>
+      </c>
+      <c r="G19" s="453"/>
     </row>
     <row r="20" spans="1:7" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="234" t="s">
+      <c r="B20" s="232" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="187">
+      <c r="C20" s="186">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D20" s="205"/>
-      <c r="E20" s="263" t="s">
+      <c r="D20" s="203"/>
+      <c r="E20" s="261" t="s">
         <v>136</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="G20" s="337" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="327" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="238"/>
+      <c r="B21" s="236"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:7" s="160" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="175"/>
-      <c r="B22" s="239" t="s">
+    <row r="22" spans="1:7" s="159" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="174"/>
+      <c r="B22" s="237" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="212" t="s">
+      <c r="C22" s="210" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f>MAX(C23:C24)</f>
         <v>1</v>
       </c>
-      <c r="E22" s="176"/>
-      <c r="F22" s="164"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="163"/>
       <c r="G22" s="56"/>
     </row>
-    <row r="23" spans="1:7" s="160" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="155"/>
-      <c r="B23" s="237" t="s">
+    <row r="23" spans="1:7" s="159" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="154"/>
+      <c r="B23" s="235" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="166">
+      <c r="C23" s="165">
         <f>IF(D23="Yes",0,IF(D23="No",2,IF(D23="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D23" s="256"/>
-      <c r="E23" s="341" t="s">
-        <v>356</v>
-      </c>
-      <c r="F23" s="193" t="s">
-        <v>321</v>
-      </c>
-      <c r="G23" s="425" t="s">
+      <c r="D23" s="254"/>
+      <c r="E23" s="331" t="s">
+        <v>354</v>
+      </c>
+      <c r="F23" s="192" t="s">
+        <v>320</v>
+      </c>
+      <c r="G23" s="452" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="160" customFormat="1" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="155"/>
-      <c r="B24" s="234" t="s">
+    <row r="24" spans="1:7" s="159" customFormat="1" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="154"/>
+      <c r="B24" s="232" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="169">
+      <c r="C24" s="168">
         <f>IF(D24="Yes",0,IF(D24="No",2,IF(D24="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D24" s="170"/>
-      <c r="E24" s="264" t="s">
+      <c r="D24" s="169"/>
+      <c r="E24" s="262" t="s">
         <v>234</v>
       </c>
-      <c r="F24" s="257" t="s">
+      <c r="F24" s="255" t="s">
         <v>190</v>
       </c>
-      <c r="G24" s="427"/>
+      <c r="G24" s="454"/>
     </row>
     <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="238"/>
+      <c r="B25" s="236"/>
       <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="236" t="s">
+      <c r="B26" s="234" t="s">
         <v>192</v>
       </c>
-      <c r="C26" s="235" t="s">
+      <c r="C26" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="188">
+      <c r="D26" s="187">
         <f>MAX(C27:C29)</f>
         <v>1</v>
       </c>
-      <c r="E26" s="246"/>
+      <c r="E26" s="244"/>
       <c r="F26" s="57"/>
       <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="237" t="s">
+      <c r="B27" s="235" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="188">
+      <c r="C27" s="187">
         <f t="shared" ref="C27" si="3">IF(D27="Yes",0,IF(D27="No",2,IF(D27="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D27" s="151"/>
-      <c r="E27" s="345" t="s">
-        <v>324</v>
+      <c r="D27" s="150"/>
+      <c r="E27" s="335" t="s">
+        <v>323</v>
       </c>
       <c r="F27" s="57" t="s">
         <v>137</v>
@@ -10908,31 +10825,31 @@
       <c r="G27" s="58"/>
     </row>
     <row r="28" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="428" t="s">
+      <c r="B28" s="455" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="402">
+      <c r="C28" s="421">
         <f t="shared" ref="C28" si="4">IF(D28="Yes",0,IF(D28="No",2,IF(D28="Not Applicable","",1)))</f>
         <v>1</v>
       </c>
-      <c r="D28" s="395"/>
-      <c r="E28" s="416" t="s">
+      <c r="D28" s="414"/>
+      <c r="E28" s="443" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="431" t="s">
-        <v>322</v>
-      </c>
-      <c r="G28" s="335" t="s">
+      <c r="F28" s="458" t="s">
+        <v>321</v>
+      </c>
+      <c r="G28" s="325" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="429"/>
-      <c r="C29" s="407"/>
-      <c r="D29" s="433"/>
-      <c r="E29" s="430"/>
-      <c r="F29" s="432"/>
-      <c r="G29" s="338" t="s">
+      <c r="B29" s="456"/>
+      <c r="C29" s="433"/>
+      <c r="D29" s="460"/>
+      <c r="E29" s="457"/>
+      <c r="F29" s="459"/>
+      <c r="G29" s="328" t="s">
         <v>188</v>
       </c>
     </row>
